--- a/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung_-_BW³_AG.xlsx
+++ b/Economic_analysis_of_wind_farms/Wirtschaftlichkeitsberechnung_-_BW³_AG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a35bc22e0afcb11f/Uni Flensburg - Vorlesung EUM/Unterlagen_Projektarbeiten/Gruppe 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Project\Wind-Farm-Project-Development\Wind-Farm-Project-Development\Economic_analysis_of_wind_farms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_345EC0F32390D40AAC6CE6832C391E5787E46666" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BC47C1-FD4B-449B-B380-60B690B43138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10615" yWindow="660" windowWidth="19200" windowHeight="10800" tabRatio="634" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="634" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="The Project" sheetId="2" r:id="rId1"/>
@@ -739,18 +739,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000"/>
-    <numFmt numFmtId="169" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0\ [$€-407]_-;\-* #,##0\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="170" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="_-* #,##0\ [$€-407]_-;\-* #,##0\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="0.0000"/>
+    <numFmt numFmtId="175" formatCode="0.000%"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1419,8 +1419,8 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="174">
@@ -1450,7 +1450,7 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1527,12 +1527,12 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1548,7 +1548,7 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1567,18 +1567,18 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1593,10 +1593,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1604,19 +1604,19 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1624,7 +1624,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -1632,14 +1632,14 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="20" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="20" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1648,10 +1648,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Prozent" xfId="3" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Währung" xfId="2" builtinId="4"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1680,7 +1680,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1801,64 +1801,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2894252.6263676472</c:v>
+                  <c:v>1017158.2472270119</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2882956.640448953</c:v>
+                  <c:v>1012047.4613058619</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2867516.0069583342</c:v>
+                  <c:v>1003925.1047322146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2847926.2075014254</c:v>
+                  <c:v>992776.65832545445</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2828101.3611695194</c:v>
+                  <c:v>981325.9947955393</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2808036.7670251173</c:v>
+                  <c:v>969557.0059698046</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2787727.6301119691</c:v>
+                  <c:v>957452.72510998347</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2767169.0595747</c:v>
+                  <c:v>944995.28115065896</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2746356.0667408276</c:v>
+                  <c:v>932165.85049862764</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2725283.56316442</c:v>
+                  <c:v>918944.60626316816</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2703946.3586306265</c:v>
+                  <c:v>905310.66478028381</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2682339.1591202985</c:v>
+                  <c:v>891242.02928668691</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2660456.5647339057</c:v>
+                  <c:v>876715.53059160651</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2638293.0675739278</c:v>
+                  <c:v>861706.7645864035</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2615843.0495848921</c:v>
+                  <c:v>846190.02642344811</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2593100.7803502171</c:v>
+                  <c:v>830138.24118673243</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2294093.6645949911</c:v>
+                  <c:v>732000.10030472488</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2274667.9687473532</c:v>
+                  <c:v>702406.07539878599</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2258850.8613933828</c:v>
+                  <c:v>688982.61587954685</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2242717.4118923326</c:v>
+                  <c:v>676268.40185218025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1964,55 +1964,55 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>768378.01049999997</c:v>
+                  <c:v>617856.9389999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>768378.01049999997</c:v>
+                  <c:v>617856.9389999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2185728.8101499998</c:v>
+                  <c:v>1054933.5143666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2134503.6094499999</c:v>
+                  <c:v>1013743.0517666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2083278.4087499999</c:v>
+                  <c:v>972552.58916666661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2032053.20805</c:v>
+                  <c:v>931362.12656666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1980828.0073500001</c:v>
+                  <c:v>890171.66396666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1929602.8066500002</c:v>
+                  <c:v>848981.20136666659</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1878377.60595</c:v>
+                  <c:v>807790.73876666662</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1827152.4052500001</c:v>
+                  <c:v>766600.27616666653</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1775927.2045499999</c:v>
+                  <c:v>725409.81356666656</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1724702.00385</c:v>
+                  <c:v>684219.35096666659</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1673476.8031500001</c:v>
+                  <c:v>643028.88836666662</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1622251.6024499999</c:v>
+                  <c:v>601838.42576666665</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1571026.40175</c:v>
+                  <c:v>560647.96316666668</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1519801.20105</c:v>
+                  <c:v>519457.50056666665</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1468576.0003499999</c:v>
+                  <c:v>478267.03796666663</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -2141,55 +2141,55 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.7667041310621254</c:v>
+                  <c:v>1.6462682265465536</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7520030519521916</c:v>
+                  <c:v>1.6379964315750157</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3119267100485104</c:v>
+                  <c:v>0.95164774941757813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.334233493395335</c:v>
+                  <c:v>0.97931784251968612</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3575244428642761</c:v>
+                  <c:v>1.0090210089681528</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3818716733897765</c:v>
+                  <c:v>1.0410096978539787</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4073547121546706</c:v>
+                  <c:v>1.0755821195695083</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4340614814811581</c:v>
+                  <c:v>1.1130932930310253</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4620894425281665</c:v>
+                  <c:v>1.1539694697686886</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4915469313527423</c:v>
+                  <c:v>1.1987272048195563</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5225547261751511</c:v>
+                  <c:v>1.2479989212292122</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5552478939159311</c:v>
+                  <c:v>1.3025677043882757</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5897779758441259</c:v>
+                  <c:v>1.3634154646123575</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6263155872920421</c:v>
+                  <c:v>1.4317908722572794</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6650535259439616</c:v>
+                  <c:v>1.5093072338013593</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7062105086893575</c:v>
+                  <c:v>1.5980869277682002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5621211731965174</c:v>
+                  <c:v>1.5305259242133731</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -2573,7 +2573,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3020,7 +3020,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3129,64 +3129,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>666823.25375999999</c:v>
+                  <c:v>110596.49999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>680159.71883519995</c:v>
+                  <c:v>116491.29344999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>693762.91321190388</c:v>
+                  <c:v>122700.27939088499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>707638.17147614202</c:v>
+                  <c:v>129240.20428241914</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>721790.93490566488</c:v>
+                  <c:v>136128.70717067207</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>736226.7536037782</c:v>
+                  <c:v>143384.36726286888</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>750951.28867585375</c:v>
+                  <c:v>151026.75403797979</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>765970.31444937084</c:v>
+                  <c:v>159076.48002820407</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>781289.72073835833</c:v>
+                  <c:v>167555.25641370734</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>796915.51515312551</c:v>
+                  <c:v>176485.95158055791</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>812853.82545618806</c:v>
+                  <c:v>185892.65279980164</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>829110.90196531173</c:v>
+                  <c:v>195800.73119403105</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>845693.12000461796</c:v>
+                  <c:v>206236.91016667287</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>862606.98240471038</c:v>
+                  <c:v>217229.3374785565</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>879859.12205280457</c:v>
+                  <c:v>228807.66116616351</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>897456.30449386069</c:v>
+                  <c:v>241003.10950632003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>915405.43058373802</c:v>
+                  <c:v>253848.57524300687</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>933713.53919541277</c:v>
+                  <c:v>267378.70430345909</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>952387.80997932097</c:v>
+                  <c:v>281629.98924283346</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>971435.56617890752</c:v>
+                  <c:v>296640.86766947649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3288,64 +3288,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>54348.956290141723</c:v>
+                  <c:v>-36533.121762753639</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52308.477133636196</c:v>
+                  <c:v>-37317.12929160364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54145.916247550442</c:v>
+                  <c:v>-35403.758658841354</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59860.45744022201</c:v>
+                  <c:v>-30795.237143615399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65532.540342604989</c:v>
+                  <c:v>-26233.07650195303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71161.31578889364</c:v>
+                  <c:v>-21719.747768415215</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76745.917629966134</c:v>
+                  <c:v>-17257.853683704958</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82285.462393717957</c:v>
+                  <c:v>-12850.135714604783</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>87779.048938602878</c:v>
+                  <c:v>-8499.4814480767182</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>93225.758100243562</c:v>
+                  <c:v>-4208.9323794678494</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>98624.652330974961</c:v>
+                  <c:v>18.307884172735971</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>103974.77533217902</c:v>
+                  <c:v>4178.8649835402211</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>109275.15167926515</c:v>
+                  <c:v>8269.1847059788543</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>114524.78643915104</c:v>
+                  <c:v>12285.523399298339</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>119722.66478009267</c:v>
+                  <c:v>16223.937874646597</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>124867.75157371105</c:v>
+                  <c:v>20080.274771205797</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>405925.74123905983</c:v>
+                  <c:v>105372.94991652643</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>407043.32847502356</c:v>
+                  <c:v>121436.84576201317</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>404186.16504508565</c:v>
+                  <c:v>120609.020341878</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>401271.85834654886</c:v>
+                  <c:v>118312.35594260161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3447,55 +3447,55 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>768378.01049999997</c:v>
+                  <c:v>617856.9389999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>768378.01049999997</c:v>
+                  <c:v>617856.9389999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>742765.41015000001</c:v>
+                  <c:v>597261.70769999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>691540.20944999997</c:v>
+                  <c:v>556071.24509999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>640315.00875000004</c:v>
+                  <c:v>514880.78249999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>589089.80805000011</c:v>
+                  <c:v>473690.31989999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>537864.60735000018</c:v>
+                  <c:v>432499.85729999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>486639.40665000014</c:v>
+                  <c:v>391309.39469999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>435414.20595000009</c:v>
+                  <c:v>350118.93209999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>384189.0052500001</c:v>
+                  <c:v>308928.46949999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>332963.80455000012</c:v>
+                  <c:v>267738.00689999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>281738.60385000007</c:v>
+                  <c:v>226547.54429999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>230513.40315000003</c:v>
+                  <c:v>185357.08169999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>179288.20245000004</c:v>
+                  <c:v>144166.61909999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>128063.00175000002</c:v>
+                  <c:v>102976.1565</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76837.801050000053</c:v>
+                  <c:v>61785.693899999991</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25612.600350000044</c:v>
+                  <c:v>20595.231299999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -3612,49 +3612,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1442963.4</c:v>
+                  <c:v>457671.80666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1442963.4</c:v>
+                  <c:v>457671.80666666664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1442963.4</c:v>
+                  <c:v>457671.80666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1442963.4</c:v>
+                  <c:v>457671.80666666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1442963.4</c:v>
+                  <c:v>457671.80666666664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1442963.4</c:v>
+                  <c:v>457671.80666666664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1442963.4</c:v>
+                  <c:v>457671.80666666664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1442963.4</c:v>
+                  <c:v>457671.80666666664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1442963.4</c:v>
+                  <c:v>457671.80666666664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1442963.4</c:v>
+                  <c:v>457671.80666666664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1442963.4</c:v>
+                  <c:v>457671.80666666664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1442963.4</c:v>
+                  <c:v>457671.80666666664</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1442963.4</c:v>
+                  <c:v>457671.80666666664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1442963.4</c:v>
+                  <c:v>457671.80666666664</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1442963.4</c:v>
+                  <c:v>457671.80666666664</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -3765,64 +3765,64 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2125874.6158676473</c:v>
+                  <c:v>399301.30822701205</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2114578.6299489532</c:v>
+                  <c:v>394190.52230586205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>681787.19680833444</c:v>
+                  <c:v>-51008.409634451964</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>713422.59805142554</c:v>
+                  <c:v>-20966.393441212131</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>744822.95241951942</c:v>
+                  <c:v>8773.4056288726861</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>775983.55897511728</c:v>
+                  <c:v>38194.879403138009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>806899.62276196899</c:v>
+                  <c:v>67281.061143316794</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>837566.2529246998</c:v>
+                  <c:v>96014.079783992376</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>867978.4607908274</c:v>
+                  <c:v>124375.11173196102</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>898131.15791442012</c:v>
+                  <c:v>152344.33009650162</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>928019.15408062655</c:v>
+                  <c:v>179900.85121361725</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>957637.15527029848</c:v>
+                  <c:v>207022.67832002032</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>986979.76158390567</c:v>
+                  <c:v>233686.64222493989</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1016041.4651239277</c:v>
+                  <c:v>259868.33881973685</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1044816.6478348924</c:v>
+                  <c:v>285542.06325678143</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1073299.5793002173</c:v>
+                  <c:v>310680.74062006583</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>825517.66424499126</c:v>
+                  <c:v>253733.06233805825</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>2274667.9687473532</c:v>
+                  <c:v>702406.07539878599</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>2258850.8613933828</c:v>
+                  <c:v>688982.61587954685</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>2242717.4118923326</c:v>
+                  <c:v>676268.40185218025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4612,8 +4612,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4447027" y="447221"/>
-          <a:ext cx="1405949" cy="672193"/>
+          <a:off x="4449747" y="450915"/>
+          <a:ext cx="1409503" cy="670089"/>
           <a:chOff x="4869246" y="4743778"/>
           <a:chExt cx="1325794" cy="762000"/>
         </a:xfrm>
@@ -4884,8 +4884,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4408926" y="1362317"/>
-          <a:ext cx="1936538" cy="695174"/>
+          <a:off x="4411646" y="1365021"/>
+          <a:ext cx="1939663" cy="692477"/>
           <a:chOff x="4869246" y="4743778"/>
           <a:chExt cx="1325794" cy="762000"/>
         </a:xfrm>
@@ -5443,7 +5443,7 @@
       <selection activeCell="F12" sqref="F12:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="0" style="4" hidden="1" customWidth="1"/>
     <col min="5" max="8" width="9.109375" style="4" customWidth="1"/>
@@ -5517,7 +5517,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="32" style="4" customWidth="1"/>
@@ -5576,12 +5576,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:XFC72"/>
   <sheetViews>
-    <sheetView zoomScale="42" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A17" zoomScale="97" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="27" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="58" customWidth="1"/>
@@ -5678,7 +5678,7 @@
       </c>
       <c r="C3" s="110">
         <f>Calculation!C7*Calculation!C8</f>
-        <v>42545412.774900004</v>
+        <v>34632387.751500003</v>
       </c>
       <c r="D3" s="71" t="s">
         <v>23</v>
@@ -5712,7 +5712,7 @@
       </c>
       <c r="C4" s="40">
         <f>_xlfn.NORM.INV(0.25,C3,C3*Calculation!C14)</f>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="D4" s="72" t="s">
         <v>23</v>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="K4" s="53">
         <f>(1-C7)*K3+C7*C13</f>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="C5" s="111">
         <f>_xlfn.NORM.INV(0.1,C3,C3*Calculation!C14)</f>
-        <v>38892295.371556245</v>
+        <v>31658713.971820675</v>
       </c>
       <c r="D5" s="74" t="s">
         <v>23</v>
@@ -5764,7 +5764,7 @@
       </c>
       <c r="K5" s="52">
         <f>NPV(C22,Calculation!G121:Z121)+Calculation!F121</f>
-        <v>9501450.2232444435</v>
+        <v>-206621.28715565242</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>70</v>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="K6" s="53">
         <f>IRR(Calculation!F121:Z121,0.4)</f>
-        <v>7.0107428874370825E-2</v>
+        <v>6.9816213274335182E-2</v>
       </c>
       <c r="L6" s="4" t="str">
         <f>"("&amp;F4&amp;")"</f>
@@ -5816,7 +5816,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="87">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="6"/>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="K7" s="53">
         <f>IRR(Calculation!F123:Z123,15)</f>
-        <v>0.15898169266140805</v>
+        <v>4.1898183378846765E-2</v>
       </c>
       <c r="L7" s="53" t="str">
         <f>"("&amp;F4&amp;")"</f>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="C8" s="40">
         <f>-Calculation!C20*(1-C7)</f>
-        <v>7214817</v>
+        <v>2942175.9000000004</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>100</v>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="K8" s="54">
         <f>SUM(Calculation!G127:Z127)/$C$10</f>
-        <v>1.9951064974190691</v>
+        <v>1.4526884061559866</v>
       </c>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="K9" s="148">
         <f>Calculation!G134</f>
-        <v>6.9806466885566479E-2</v>
+        <v>3.3716612633897157E-2</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>63</v>
@@ -5928,7 +5928,7 @@
       </c>
       <c r="C11" s="40">
         <f>Calculation!C20*C7</f>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>100</v>
@@ -5958,7 +5958,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="162">
-        <v>3.5499999999999997E-2</v>
+        <v>0.09</v>
       </c>
       <c r="D13" s="80" t="s">
         <v>71</v>
@@ -6079,7 +6079,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="9">
-        <v>0.02</v>
+        <v>5.33E-2</v>
       </c>
       <c r="D21" s="72" t="s">
         <v>71</v>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="C22" s="112">
         <f>K4</f>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
       <c r="D22" s="80"/>
       <c r="E22" s="6"/>
@@ -6227,83 +6227,83 @@
       </c>
       <c r="K24" s="8">
         <f>Calculation!G53</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="L24" s="8">
         <f>Calculation!H53</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="M24" s="8">
         <f>Calculation!I53</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="N24" s="8">
         <f>Calculation!J53</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="O24" s="8">
         <f>Calculation!K53</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="P24" s="8">
         <f>Calculation!L53</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="Q24" s="8">
         <f>Calculation!M53</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="R24" s="8">
         <f>Calculation!N53</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="S24" s="8">
         <f>Calculation!O53</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="T24" s="8">
         <f>Calculation!P53</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="U24" s="8">
         <f>Calculation!Q53</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="V24" s="8">
         <f>Calculation!R53</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="W24" s="8">
         <f>Calculation!S53</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="X24" s="8">
         <f>Calculation!T53</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="Y24" s="8">
         <f>Calculation!U53</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="Z24" s="8">
         <f>Calculation!V53</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="AA24" s="8">
         <f>Calculation!W53</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="AB24" s="8">
         <f>Calculation!X53</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="AC24" s="8">
         <f>Calculation!Y53</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="AD24" s="8">
         <f>Calculation!Z53</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="AE24" s="8"/>
       <c r="AF24" s="8"/>
@@ -6329,83 +6329,83 @@
       </c>
       <c r="K25" s="8">
         <f>Calculation!G58</f>
-        <v>-666823.25375999999</v>
+        <v>-110596.49999999999</v>
       </c>
       <c r="L25" s="8">
         <f>Calculation!H58</f>
-        <v>-680159.71883519995</v>
+        <v>-116491.29344999998</v>
       </c>
       <c r="M25" s="8">
         <f>Calculation!I58</f>
-        <v>-693762.91321190388</v>
+        <v>-122700.27939088499</v>
       </c>
       <c r="N25" s="8">
         <f>Calculation!J58</f>
-        <v>-707638.17147614202</v>
+        <v>-129240.20428241914</v>
       </c>
       <c r="O25" s="8">
         <f>Calculation!K58</f>
-        <v>-721790.93490566488</v>
+        <v>-136128.70717067207</v>
       </c>
       <c r="P25" s="8">
         <f>Calculation!L58</f>
-        <v>-736226.7536037782</v>
+        <v>-143384.36726286888</v>
       </c>
       <c r="Q25" s="8">
         <f>Calculation!M58</f>
-        <v>-750951.28867585375</v>
+        <v>-151026.75403797979</v>
       </c>
       <c r="R25" s="8">
         <f>Calculation!N58</f>
-        <v>-765970.31444937084</v>
+        <v>-159076.48002820407</v>
       </c>
       <c r="S25" s="8">
         <f>Calculation!O58</f>
-        <v>-781289.72073835833</v>
+        <v>-167555.25641370734</v>
       </c>
       <c r="T25" s="8">
         <f>Calculation!P58</f>
-        <v>-796915.51515312551</v>
+        <v>-176485.95158055791</v>
       </c>
       <c r="U25" s="8">
         <f>Calculation!Q58</f>
-        <v>-812853.82545618806</v>
+        <v>-185892.65279980164</v>
       </c>
       <c r="V25" s="8">
         <f>Calculation!R58</f>
-        <v>-829110.90196531173</v>
+        <v>-195800.73119403105</v>
       </c>
       <c r="W25" s="8">
         <f>Calculation!S58</f>
-        <v>-845693.12000461796</v>
+        <v>-206236.91016667287</v>
       </c>
       <c r="X25" s="8">
         <f>Calculation!T58</f>
-        <v>-862606.98240471038</v>
+        <v>-217229.3374785565</v>
       </c>
       <c r="Y25" s="8">
         <f>Calculation!U58</f>
-        <v>-879859.12205280457</v>
+        <v>-228807.66116616351</v>
       </c>
       <c r="Z25" s="8">
         <f>Calculation!V58</f>
-        <v>-897456.30449386069</v>
+        <v>-241003.10950632003</v>
       </c>
       <c r="AA25" s="8">
         <f>Calculation!W58</f>
-        <v>-915405.43058373802</v>
+        <v>-253848.57524300687</v>
       </c>
       <c r="AB25" s="8">
         <f>Calculation!X58</f>
-        <v>-933713.53919541277</v>
+        <v>-267378.70430345909</v>
       </c>
       <c r="AC25" s="8">
         <f>Calculation!Y58</f>
-        <v>-952387.80997932097</v>
+        <v>-281629.98924283346</v>
       </c>
       <c r="AD25" s="8">
         <f>Calculation!Z58</f>
-        <v>-971435.56617890752</v>
+        <v>-296640.86766947649</v>
       </c>
       <c r="AE25" s="8"/>
       <c r="AF25" s="8"/>
@@ -6431,83 +6431,83 @@
       </c>
       <c r="K26" s="8">
         <f>Calculation!G60</f>
-        <v>2948601.5826577889</v>
+        <v>980625.12546425825</v>
       </c>
       <c r="L26" s="8">
         <f>Calculation!H60</f>
-        <v>2935265.1175825894</v>
+        <v>974730.33201425825</v>
       </c>
       <c r="M26" s="8">
         <f>Calculation!I60</f>
-        <v>2921661.9232058851</v>
+        <v>968521.34607337322</v>
       </c>
       <c r="N26" s="8">
         <f>Calculation!J60</f>
-        <v>2907786.6649416471</v>
+        <v>961981.42118183908</v>
       </c>
       <c r="O26" s="8">
         <f>Calculation!K60</f>
-        <v>2893633.9015121241</v>
+        <v>955092.91829358623</v>
       </c>
       <c r="P26" s="8">
         <f>Calculation!L60</f>
-        <v>2879198.0828140108</v>
+        <v>947837.25820138934</v>
       </c>
       <c r="Q26" s="8">
         <f>Calculation!M60</f>
-        <v>2864473.5477419356</v>
+        <v>940194.87142627849</v>
       </c>
       <c r="R26" s="8">
         <f>Calculation!N60</f>
-        <v>2849454.5219684183</v>
+        <v>932145.14543605421</v>
       </c>
       <c r="S26" s="8">
         <f>Calculation!O60</f>
-        <v>2834135.1156794308</v>
+        <v>923666.36905055097</v>
       </c>
       <c r="T26" s="8">
         <f>Calculation!P60</f>
-        <v>2818509.3212646637</v>
+        <v>914735.67388370028</v>
       </c>
       <c r="U26" s="8">
         <f>Calculation!Q60</f>
-        <v>2802571.010961601</v>
+        <v>905328.97266445658</v>
       </c>
       <c r="V26" s="8">
         <f>Calculation!R60</f>
-        <v>2786313.9344524774</v>
+        <v>895420.89427022717</v>
       </c>
       <c r="W26" s="8">
         <f>Calculation!S60</f>
-        <v>2769731.716413171</v>
+        <v>884984.71529758535</v>
       </c>
       <c r="X26" s="8">
         <f>Calculation!T60</f>
-        <v>2752817.8540130788</v>
+        <v>873992.28798570181</v>
       </c>
       <c r="Y26" s="8">
         <f>Calculation!U60</f>
-        <v>2735565.7143649845</v>
+        <v>862413.96429809474</v>
       </c>
       <c r="Z26" s="8">
         <f>Calculation!V60</f>
-        <v>2717968.5319239283</v>
+        <v>850218.51595793827</v>
       </c>
       <c r="AA26" s="8">
         <f>Calculation!W60</f>
-        <v>2700019.4058340508</v>
+        <v>837373.05022125132</v>
       </c>
       <c r="AB26" s="8">
         <f>Calculation!X60</f>
-        <v>2681711.2972223763</v>
+        <v>823842.92116079922</v>
       </c>
       <c r="AC26" s="8">
         <f>Calculation!Y60</f>
-        <v>2663037.0264384681</v>
+        <v>809591.63622142479</v>
       </c>
       <c r="AD26" s="8">
         <f>Calculation!Z60</f>
-        <v>2643989.2702388815</v>
+        <v>794580.75779478182</v>
       </c>
       <c r="AE26" s="8"/>
       <c r="AF26" s="8"/>
@@ -6521,67 +6521,67 @@
       </c>
       <c r="K27" s="8">
         <f>Calculation!G62</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="L27" s="8">
         <f>Calculation!H62</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="M27" s="8">
         <f>Calculation!I62</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="N27" s="8">
         <f>Calculation!J62</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="O27" s="8">
         <f>Calculation!K62</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="P27" s="8">
         <f>Calculation!L62</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="Q27" s="8">
         <f>Calculation!M62</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="R27" s="8">
         <f>Calculation!N62</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="S27" s="8">
         <f>Calculation!O62</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="T27" s="8">
         <f>Calculation!P62</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="U27" s="8">
         <f>Calculation!Q62</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="V27" s="8">
         <f>Calculation!R62</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="W27" s="8">
         <f>Calculation!S62</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="X27" s="8">
         <f>Calculation!T62</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="Y27" s="8">
         <f>Calculation!U62</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="Z27" s="8">
         <f>Calculation!V62</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="AA27" s="8">
         <f>Calculation!W62</f>
@@ -6614,83 +6614,83 @@
       </c>
       <c r="K28" s="8">
         <f>Calculation!G64</f>
-        <v>1144897.3326577889</v>
+        <v>367671.81296425825</v>
       </c>
       <c r="L28" s="8">
         <f>Calculation!H64</f>
-        <v>1131560.8675825894</v>
+        <v>361777.01951425825</v>
       </c>
       <c r="M28" s="8">
         <f>Calculation!I64</f>
-        <v>1117957.6732058851</v>
+        <v>355568.03357337322</v>
       </c>
       <c r="N28" s="8">
         <f>Calculation!J64</f>
-        <v>1104082.4149416471</v>
+        <v>349028.10868183908</v>
       </c>
       <c r="O28" s="8">
         <f>Calculation!K64</f>
-        <v>1089929.6515121241</v>
+        <v>342139.60579358623</v>
       </c>
       <c r="P28" s="8">
         <f>Calculation!L64</f>
-        <v>1075493.8328140108</v>
+        <v>334883.94570138934</v>
       </c>
       <c r="Q28" s="8">
         <f>Calculation!M64</f>
-        <v>1060769.2977419356</v>
+        <v>327241.55892627849</v>
       </c>
       <c r="R28" s="8">
         <f>Calculation!N64</f>
-        <v>1045750.2719684183</v>
+        <v>319191.83293605421</v>
       </c>
       <c r="S28" s="8">
         <f>Calculation!O64</f>
-        <v>1030430.8656794308</v>
+        <v>310713.05655055097</v>
       </c>
       <c r="T28" s="8">
         <f>Calculation!P64</f>
-        <v>1014805.0712646637</v>
+        <v>301782.36138370028</v>
       </c>
       <c r="U28" s="8">
         <f>Calculation!Q64</f>
-        <v>998866.76096160104</v>
+        <v>292375.66016445658</v>
       </c>
       <c r="V28" s="8">
         <f>Calculation!R64</f>
-        <v>982609.68445247738</v>
+        <v>282467.58177022717</v>
       </c>
       <c r="W28" s="8">
         <f>Calculation!S64</f>
-        <v>966027.46641317103</v>
+        <v>272031.40279758535</v>
       </c>
       <c r="X28" s="8">
         <f>Calculation!T64</f>
-        <v>949113.60401307885</v>
+        <v>261038.97548570181</v>
       </c>
       <c r="Y28" s="8">
         <f>Calculation!U64</f>
-        <v>931861.46436498454</v>
+        <v>249460.65179809474</v>
       </c>
       <c r="Z28" s="8">
         <f>Calculation!V64</f>
-        <v>914264.2819239283</v>
+        <v>237265.20345793827</v>
       </c>
       <c r="AA28" s="8">
         <f>Calculation!W64</f>
-        <v>2700019.4058340508</v>
+        <v>837373.05022125132</v>
       </c>
       <c r="AB28" s="8">
         <f>Calculation!X64</f>
-        <v>2681711.2972223763</v>
+        <v>823842.92116079922</v>
       </c>
       <c r="AC28" s="8">
         <f>Calculation!Y64</f>
-        <v>2663037.0264384681</v>
+        <v>809591.63622142479</v>
       </c>
       <c r="AD28" s="8">
         <f>Calculation!Z64</f>
-        <v>2643989.2702388815</v>
+        <v>794580.75779478182</v>
       </c>
       <c r="AE28" s="8"/>
       <c r="AF28" s="8"/>
@@ -6704,71 +6704,71 @@
       </c>
       <c r="K29" s="8">
         <f>Calculation!G93</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="L29" s="8">
         <f>Calculation!H93</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="M29" s="8">
         <f>Calculation!I93</f>
-        <v>-742765.41015000001</v>
+        <v>-597261.70769999991</v>
       </c>
       <c r="N29" s="8">
         <f>Calculation!J93</f>
-        <v>-691540.20944999997</v>
+        <v>-556071.24509999994</v>
       </c>
       <c r="O29" s="8">
         <f>Calculation!K93</f>
-        <v>-640315.00875000004</v>
+        <v>-514880.78249999997</v>
       </c>
       <c r="P29" s="8">
         <f>Calculation!L93</f>
-        <v>-589089.80805000011</v>
+        <v>-473690.31989999994</v>
       </c>
       <c r="Q29" s="8">
         <f>Calculation!M93</f>
-        <v>-537864.60735000018</v>
+        <v>-432499.85729999997</v>
       </c>
       <c r="R29" s="8">
         <f>Calculation!N93</f>
-        <v>-486639.40665000014</v>
+        <v>-391309.39469999995</v>
       </c>
       <c r="S29" s="8">
         <f>Calculation!O93</f>
-        <v>-435414.20595000009</v>
+        <v>-350118.93209999998</v>
       </c>
       <c r="T29" s="8">
         <f>Calculation!P93</f>
-        <v>-384189.0052500001</v>
+        <v>-308928.46949999995</v>
       </c>
       <c r="U29" s="8">
         <f>Calculation!Q93</f>
-        <v>-332963.80455000012</v>
+        <v>-267738.00689999998</v>
       </c>
       <c r="V29" s="8">
         <f>Calculation!R93</f>
-        <v>-281738.60385000007</v>
+        <v>-226547.54429999998</v>
       </c>
       <c r="W29" s="8">
         <f>Calculation!S93</f>
-        <v>-230513.40315000003</v>
+        <v>-185357.08169999998</v>
       </c>
       <c r="X29" s="8">
         <f>Calculation!T93</f>
-        <v>-179288.20245000004</v>
+        <v>-144166.61909999998</v>
       </c>
       <c r="Y29" s="8">
         <f>Calculation!U93</f>
-        <v>-128063.00175000002</v>
+        <v>-102976.1565</v>
       </c>
       <c r="Z29" s="8">
         <f>Calculation!V93</f>
-        <v>-76837.801050000053</v>
+        <v>-61785.693899999991</v>
       </c>
       <c r="AA29" s="8">
         <f>Calculation!W93</f>
-        <v>-25612.600350000044</v>
+        <v>-20595.231299999999</v>
       </c>
       <c r="AB29" s="8">
         <f>Calculation!X93</f>
@@ -6794,83 +6794,83 @@
       </c>
       <c r="K30" s="8">
         <f>Calculation!G95</f>
-        <v>376519.32215778902</v>
+        <v>-250185.12603574165</v>
       </c>
       <c r="L30" s="8">
         <f>Calculation!H95</f>
-        <v>363182.85708258953</v>
+        <v>-256079.91948574164</v>
       </c>
       <c r="M30" s="8">
         <f>Calculation!I95</f>
-        <v>375192.26305588521</v>
+        <v>-241693.67412662669</v>
       </c>
       <c r="N30" s="8">
         <f>Calculation!J95</f>
-        <v>412542.20549164712</v>
+        <v>-207043.13641816087</v>
       </c>
       <c r="O30" s="8">
         <f>Calculation!K95</f>
-        <v>449614.64276212407</v>
+        <v>-172741.17670641374</v>
       </c>
       <c r="P30" s="8">
         <f>Calculation!L95</f>
-        <v>486404.02476401068</v>
+        <v>-138806.3741986106</v>
       </c>
       <c r="Q30" s="8">
         <f>Calculation!M95</f>
-        <v>522904.69039193541</v>
+        <v>-105258.29837372148</v>
       </c>
       <c r="R30" s="8">
         <f>Calculation!N95</f>
-        <v>559110.86531841801</v>
+        <v>-72117.561763945734</v>
       </c>
       <c r="S30" s="8">
         <f>Calculation!O95</f>
-        <v>595016.65972943045</v>
+        <v>-39405.875549449003</v>
       </c>
       <c r="T30" s="8">
         <f>Calculation!P95</f>
-        <v>630616.06601466378</v>
+        <v>-7146.1081162996124</v>
       </c>
       <c r="U30" s="8">
         <f>Calculation!Q95</f>
-        <v>665902.95641160104</v>
+        <v>24637.653264456661</v>
       </c>
       <c r="V30" s="8">
         <f>Calculation!R95</f>
-        <v>700871.0806024773</v>
+        <v>55920.037470227224</v>
       </c>
       <c r="W30" s="8">
         <f>Calculation!S95</f>
-        <v>735514.06326317089</v>
+        <v>86674.321097585373</v>
       </c>
       <c r="X30" s="8">
         <f>Calculation!T95</f>
-        <v>769825.40156307863</v>
+        <v>116872.3563857018</v>
       </c>
       <c r="Y30" s="8">
         <f>Calculation!U95</f>
-        <v>803798.46261498472</v>
+        <v>146484.4952980947</v>
       </c>
       <c r="Z30" s="8">
         <f>Calculation!V95</f>
-        <v>837426.48087392841</v>
+        <v>175479.50955793832</v>
       </c>
       <c r="AA30" s="8">
         <f>Calculation!W95</f>
-        <v>2674406.8054840509</v>
+        <v>816777.81892125134</v>
       </c>
       <c r="AB30" s="8">
         <f>Calculation!X95</f>
-        <v>2681711.2972223763</v>
+        <v>823842.92116079922</v>
       </c>
       <c r="AC30" s="8">
         <f>Calculation!Y95</f>
-        <v>2663037.0264384681</v>
+        <v>809591.63622142479</v>
       </c>
       <c r="AD30" s="8">
         <f>Calculation!Z95</f>
-        <v>2643989.2702388815</v>
+        <v>794580.75779478182</v>
       </c>
       <c r="AE30" s="8"/>
       <c r="AF30" s="8"/>
@@ -6884,83 +6884,83 @@
       </c>
       <c r="K31" s="8">
         <f>Calculation!G114</f>
-        <v>-54348.956290141723</v>
+        <v>36533.121762753639</v>
       </c>
       <c r="L31" s="8">
         <f>Calculation!H114</f>
-        <v>-52308.477133636196</v>
+        <v>37317.12929160364</v>
       </c>
       <c r="M31" s="8">
         <f>Calculation!I114</f>
-        <v>-54145.916247550442</v>
+        <v>35403.758658841354</v>
       </c>
       <c r="N31" s="8">
         <f>Calculation!J114</f>
-        <v>-59860.45744022201</v>
+        <v>30795.237143615399</v>
       </c>
       <c r="O31" s="8">
         <f>Calculation!K114</f>
-        <v>-65532.540342604989</v>
+        <v>26233.07650195303</v>
       </c>
       <c r="P31" s="8">
         <f>Calculation!L114</f>
-        <v>-71161.31578889364</v>
+        <v>21719.747768415215</v>
       </c>
       <c r="Q31" s="8">
         <f>Calculation!M114</f>
-        <v>-76745.917629966134</v>
+        <v>17257.853683704958</v>
       </c>
       <c r="R31" s="8">
         <f>Calculation!N114</f>
-        <v>-82285.462393717957</v>
+        <v>12850.135714604783</v>
       </c>
       <c r="S31" s="8">
         <f>Calculation!O114</f>
-        <v>-87779.048938602878</v>
+        <v>8499.4814480767182</v>
       </c>
       <c r="T31" s="8">
         <f>Calculation!P114</f>
-        <v>-93225.758100243562</v>
+        <v>4208.9323794678494</v>
       </c>
       <c r="U31" s="8">
         <f>Calculation!Q114</f>
-        <v>-98624.652330974961</v>
+        <v>-18.307884172735971</v>
       </c>
       <c r="V31" s="8">
         <f>Calculation!R114</f>
-        <v>-103974.77533217902</v>
+        <v>-4178.8649835402211</v>
       </c>
       <c r="W31" s="8">
         <f>Calculation!S114</f>
-        <v>-109275.15167926515</v>
+        <v>-8269.1847059788543</v>
       </c>
       <c r="X31" s="8">
         <f>Calculation!T114</f>
-        <v>-114524.78643915104</v>
+        <v>-12285.523399298339</v>
       </c>
       <c r="Y31" s="8">
         <f>Calculation!U114</f>
-        <v>-119722.66478009267</v>
+        <v>-16223.937874646597</v>
       </c>
       <c r="Z31" s="8">
         <f>Calculation!V114</f>
-        <v>-124867.75157371105</v>
+        <v>-20080.274771205797</v>
       </c>
       <c r="AA31" s="8">
         <f>Calculation!W114</f>
-        <v>-405925.74123905983</v>
+        <v>-105372.94991652643</v>
       </c>
       <c r="AB31" s="8">
         <f>Calculation!X114</f>
-        <v>-407043.32847502356</v>
+        <v>-121436.84576201317</v>
       </c>
       <c r="AC31" s="8">
         <f>Calculation!Y114</f>
-        <v>-404186.16504508565</v>
+        <v>-120609.020341878</v>
       </c>
       <c r="AD31" s="8">
         <f>Calculation!Z114</f>
-        <v>-401271.85834654886</v>
+        <v>-118312.35594260161</v>
       </c>
       <c r="AE31" s="8"/>
       <c r="AF31" s="8"/>
@@ -6974,83 +6974,83 @@
       </c>
       <c r="K32" s="8">
         <f t="shared" ref="K32:AD32" si="0">K30+K31</f>
-        <v>322170.36586764728</v>
+        <v>-213652.00427298801</v>
       </c>
       <c r="L32" s="8">
         <f t="shared" si="0"/>
-        <v>310874.37994895334</v>
+        <v>-218762.79019413801</v>
       </c>
       <c r="M32" s="8">
         <f t="shared" si="0"/>
-        <v>321046.34680833475</v>
+        <v>-206289.91546778532</v>
       </c>
       <c r="N32" s="8">
         <f t="shared" si="0"/>
-        <v>352681.74805142509</v>
+        <v>-176247.89927454546</v>
       </c>
       <c r="O32" s="8">
         <f t="shared" si="0"/>
-        <v>384082.1024195191</v>
+        <v>-146508.1002044607</v>
       </c>
       <c r="P32" s="8">
         <f t="shared" si="0"/>
-        <v>415242.70897511707</v>
+        <v>-117086.62643019539</v>
       </c>
       <c r="Q32" s="8">
         <f t="shared" si="0"/>
-        <v>446158.77276196925</v>
+        <v>-88000.44469001652</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="0"/>
-        <v>476825.40292470006</v>
+        <v>-59267.426049340953</v>
       </c>
       <c r="S32" s="8">
         <f t="shared" si="0"/>
-        <v>507237.61079082754</v>
+        <v>-30906.394101372287</v>
       </c>
       <c r="T32" s="8">
         <f t="shared" si="0"/>
-        <v>537390.30791442026</v>
+        <v>-2937.1757368317631</v>
       </c>
       <c r="U32" s="8">
         <f t="shared" si="0"/>
-        <v>567278.30408062611</v>
+        <v>24619.345380283925</v>
       </c>
       <c r="V32" s="8">
         <f t="shared" si="0"/>
-        <v>596896.30527029827</v>
+        <v>51741.172486687006</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" si="0"/>
-        <v>626238.91158390569</v>
+        <v>78405.136391606517</v>
       </c>
       <c r="X32" s="8">
         <f t="shared" si="0"/>
-        <v>655300.61512392759</v>
+        <v>104586.83298640346</v>
       </c>
       <c r="Y32" s="8">
         <f t="shared" si="0"/>
-        <v>684075.79783489206</v>
+        <v>130260.5574234481</v>
       </c>
       <c r="Z32" s="8">
         <f t="shared" si="0"/>
-        <v>712558.72930021735</v>
+        <v>155399.23478673253</v>
       </c>
       <c r="AA32" s="8">
         <f t="shared" si="0"/>
-        <v>2268481.0642449912</v>
+        <v>711404.8690047249</v>
       </c>
       <c r="AB32" s="8">
         <f t="shared" si="0"/>
-        <v>2274667.9687473527</v>
+        <v>702406.07539878599</v>
       </c>
       <c r="AC32" s="8">
         <f t="shared" si="0"/>
-        <v>2258850.8613933823</v>
+        <v>688982.61587954685</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" si="0"/>
-        <v>2242717.4118923326</v>
+        <v>676268.40185218025</v>
       </c>
       <c r="AE32" s="8"/>
       <c r="AF32" s="8"/>
@@ -7090,83 +7090,83 @@
       </c>
       <c r="K36" s="8">
         <f t="shared" ref="K36:AD36" si="1">K24</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="L36" s="8">
         <f t="shared" si="1"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="M36" s="8">
         <f t="shared" si="1"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="N36" s="8">
         <f t="shared" si="1"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="O36" s="8">
         <f t="shared" si="1"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="P36" s="8">
         <f t="shared" si="1"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="Q36" s="8">
         <f t="shared" si="1"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="R36" s="8">
         <f t="shared" si="1"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="S36" s="8">
         <f t="shared" si="1"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="T36" s="8">
         <f t="shared" si="1"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="U36" s="8">
         <f t="shared" si="1"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="V36" s="8">
         <f t="shared" si="1"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="W36" s="8">
         <f t="shared" si="1"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="X36" s="8">
         <f t="shared" si="1"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="Y36" s="8">
         <f t="shared" si="1"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="Z36" s="8">
         <f t="shared" si="1"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="AA36" s="8">
         <f t="shared" si="1"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="AB36" s="8">
         <f t="shared" si="1"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="AC36" s="8">
         <f t="shared" si="1"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" si="1"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.3">
@@ -7178,83 +7178,83 @@
       </c>
       <c r="K37" s="8">
         <f t="shared" ref="K37:AD37" si="2">K25</f>
-        <v>-666823.25375999999</v>
+        <v>-110596.49999999999</v>
       </c>
       <c r="L37" s="8">
         <f t="shared" si="2"/>
-        <v>-680159.71883519995</v>
+        <v>-116491.29344999998</v>
       </c>
       <c r="M37" s="8">
         <f t="shared" si="2"/>
-        <v>-693762.91321190388</v>
+        <v>-122700.27939088499</v>
       </c>
       <c r="N37" s="8">
         <f t="shared" si="2"/>
-        <v>-707638.17147614202</v>
+        <v>-129240.20428241914</v>
       </c>
       <c r="O37" s="8">
         <f t="shared" si="2"/>
-        <v>-721790.93490566488</v>
+        <v>-136128.70717067207</v>
       </c>
       <c r="P37" s="8">
         <f t="shared" si="2"/>
-        <v>-736226.7536037782</v>
+        <v>-143384.36726286888</v>
       </c>
       <c r="Q37" s="8">
         <f t="shared" si="2"/>
-        <v>-750951.28867585375</v>
+        <v>-151026.75403797979</v>
       </c>
       <c r="R37" s="8">
         <f t="shared" si="2"/>
-        <v>-765970.31444937084</v>
+        <v>-159076.48002820407</v>
       </c>
       <c r="S37" s="8">
         <f t="shared" si="2"/>
-        <v>-781289.72073835833</v>
+        <v>-167555.25641370734</v>
       </c>
       <c r="T37" s="8">
         <f t="shared" si="2"/>
-        <v>-796915.51515312551</v>
+        <v>-176485.95158055791</v>
       </c>
       <c r="U37" s="8">
         <f t="shared" si="2"/>
-        <v>-812853.82545618806</v>
+        <v>-185892.65279980164</v>
       </c>
       <c r="V37" s="8">
         <f t="shared" si="2"/>
-        <v>-829110.90196531173</v>
+        <v>-195800.73119403105</v>
       </c>
       <c r="W37" s="8">
         <f t="shared" si="2"/>
-        <v>-845693.12000461796</v>
+        <v>-206236.91016667287</v>
       </c>
       <c r="X37" s="8">
         <f t="shared" si="2"/>
-        <v>-862606.98240471038</v>
+        <v>-217229.3374785565</v>
       </c>
       <c r="Y37" s="8">
         <f t="shared" si="2"/>
-        <v>-879859.12205280457</v>
+        <v>-228807.66116616351</v>
       </c>
       <c r="Z37" s="8">
         <f t="shared" si="2"/>
-        <v>-897456.30449386069</v>
+        <v>-241003.10950632003</v>
       </c>
       <c r="AA37" s="8">
         <f t="shared" si="2"/>
-        <v>-915405.43058373802</v>
+        <v>-253848.57524300687</v>
       </c>
       <c r="AB37" s="8">
         <f t="shared" si="2"/>
-        <v>-933713.53919541277</v>
+        <v>-267378.70430345909</v>
       </c>
       <c r="AC37" s="8">
         <f t="shared" si="2"/>
-        <v>-952387.80997932097</v>
+        <v>-281629.98924283346</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" si="2"/>
-        <v>-971435.56617890752</v>
+        <v>-296640.86766947649</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.3">
@@ -7266,83 +7266,83 @@
       </c>
       <c r="K38" s="8">
         <f>Calculation!G114</f>
-        <v>-54348.956290141723</v>
+        <v>36533.121762753639</v>
       </c>
       <c r="L38" s="8">
         <f>Calculation!H114</f>
-        <v>-52308.477133636196</v>
+        <v>37317.12929160364</v>
       </c>
       <c r="M38" s="8">
         <f>Calculation!I114</f>
-        <v>-54145.916247550442</v>
+        <v>35403.758658841354</v>
       </c>
       <c r="N38" s="8">
         <f>Calculation!J114</f>
-        <v>-59860.45744022201</v>
+        <v>30795.237143615399</v>
       </c>
       <c r="O38" s="8">
         <f>Calculation!K114</f>
-        <v>-65532.540342604989</v>
+        <v>26233.07650195303</v>
       </c>
       <c r="P38" s="8">
         <f>Calculation!L114</f>
-        <v>-71161.31578889364</v>
+        <v>21719.747768415215</v>
       </c>
       <c r="Q38" s="8">
         <f>Calculation!M114</f>
-        <v>-76745.917629966134</v>
+        <v>17257.853683704958</v>
       </c>
       <c r="R38" s="8">
         <f>Calculation!N114</f>
-        <v>-82285.462393717957</v>
+        <v>12850.135714604783</v>
       </c>
       <c r="S38" s="8">
         <f>Calculation!O114</f>
-        <v>-87779.048938602878</v>
+        <v>8499.4814480767182</v>
       </c>
       <c r="T38" s="8">
         <f>Calculation!P114</f>
-        <v>-93225.758100243562</v>
+        <v>4208.9323794678494</v>
       </c>
       <c r="U38" s="8">
         <f>Calculation!Q114</f>
-        <v>-98624.652330974961</v>
+        <v>-18.307884172735971</v>
       </c>
       <c r="V38" s="8">
         <f>Calculation!R114</f>
-        <v>-103974.77533217902</v>
+        <v>-4178.8649835402211</v>
       </c>
       <c r="W38" s="8">
         <f>Calculation!S114</f>
-        <v>-109275.15167926515</v>
+        <v>-8269.1847059788543</v>
       </c>
       <c r="X38" s="8">
         <f>Calculation!T114</f>
-        <v>-114524.78643915104</v>
+        <v>-12285.523399298339</v>
       </c>
       <c r="Y38" s="8">
         <f>Calculation!U114</f>
-        <v>-119722.66478009267</v>
+        <v>-16223.937874646597</v>
       </c>
       <c r="Z38" s="8">
         <f>Calculation!V114</f>
-        <v>-124867.75157371105</v>
+        <v>-20080.274771205797</v>
       </c>
       <c r="AA38" s="8">
         <f>Calculation!W114</f>
-        <v>-405925.74123905983</v>
+        <v>-105372.94991652643</v>
       </c>
       <c r="AB38" s="8">
         <f>Calculation!X114</f>
-        <v>-407043.32847502356</v>
+        <v>-121436.84576201317</v>
       </c>
       <c r="AC38" s="8">
         <f>Calculation!Y114</f>
-        <v>-404186.16504508565</v>
+        <v>-120609.020341878</v>
       </c>
       <c r="AD38" s="8">
         <f>Calculation!Z114</f>
-        <v>-401271.85834654886</v>
+        <v>-118312.35594260161</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.3">
@@ -7354,83 +7354,83 @@
       </c>
       <c r="K39" s="8">
         <f>Calculation!G121</f>
-        <v>2894252.6263676472</v>
+        <v>1017158.2472270119</v>
       </c>
       <c r="L39" s="8">
         <f>Calculation!H121</f>
-        <v>2882956.640448953</v>
+        <v>1012047.4613058619</v>
       </c>
       <c r="M39" s="8">
         <f>Calculation!I121</f>
-        <v>2867516.0069583342</v>
+        <v>1003925.1047322146</v>
       </c>
       <c r="N39" s="8">
         <f>Calculation!J121</f>
-        <v>2847926.2075014254</v>
+        <v>992776.65832545445</v>
       </c>
       <c r="O39" s="8">
         <f>Calculation!K121</f>
-        <v>2828101.3611695194</v>
+        <v>981325.9947955393</v>
       </c>
       <c r="P39" s="8">
         <f>Calculation!L121</f>
-        <v>2808036.7670251173</v>
+        <v>969557.0059698046</v>
       </c>
       <c r="Q39" s="8">
         <f>Calculation!M121</f>
-        <v>2787727.6301119691</v>
+        <v>957452.72510998347</v>
       </c>
       <c r="R39" s="8">
         <f>Calculation!N121</f>
-        <v>2767169.0595747</v>
+        <v>944995.28115065896</v>
       </c>
       <c r="S39" s="8">
         <f>Calculation!O121</f>
-        <v>2746356.0667408276</v>
+        <v>932165.85049862764</v>
       </c>
       <c r="T39" s="8">
         <f>Calculation!P121</f>
-        <v>2725283.56316442</v>
+        <v>918944.60626316816</v>
       </c>
       <c r="U39" s="8">
         <f>Calculation!Q121</f>
-        <v>2703946.3586306265</v>
+        <v>905310.66478028381</v>
       </c>
       <c r="V39" s="8">
         <f>Calculation!R121</f>
-        <v>2682339.1591202985</v>
+        <v>891242.02928668691</v>
       </c>
       <c r="W39" s="8">
         <f>Calculation!S121</f>
-        <v>2660456.5647339057</v>
+        <v>876715.53059160651</v>
       </c>
       <c r="X39" s="8">
         <f>Calculation!T121</f>
-        <v>2638293.0675739278</v>
+        <v>861706.7645864035</v>
       </c>
       <c r="Y39" s="8">
         <f>Calculation!U121</f>
-        <v>2615843.0495848921</v>
+        <v>846190.02642344811</v>
       </c>
       <c r="Z39" s="8">
         <f>Calculation!V121</f>
-        <v>2593100.7803502171</v>
+        <v>830138.24118673243</v>
       </c>
       <c r="AA39" s="8">
         <f>Calculation!W121</f>
-        <v>2294093.6645949911</v>
+        <v>732000.10030472488</v>
       </c>
       <c r="AB39" s="8">
         <f>Calculation!X121</f>
-        <v>2274667.9687473532</v>
+        <v>702406.07539878599</v>
       </c>
       <c r="AC39" s="8">
         <f>Calculation!Y121</f>
-        <v>2258850.8613933828</v>
+        <v>688982.61587954685</v>
       </c>
       <c r="AD39" s="8">
         <f>Calculation!Z121</f>
-        <v>2242717.4118923326</v>
+        <v>676268.40185218025</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.3">
@@ -7442,71 +7442,71 @@
       </c>
       <c r="K40" s="8">
         <f>Calculation!G69</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="L40" s="8">
         <f>Calculation!H69</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="M40" s="8">
         <f>Calculation!I69</f>
-        <v>-742765.41015000001</v>
+        <v>-597261.70769999991</v>
       </c>
       <c r="N40" s="8">
         <f>Calculation!J69</f>
-        <v>-691540.20944999997</v>
+        <v>-556071.24509999994</v>
       </c>
       <c r="O40" s="8">
         <f>Calculation!K69</f>
-        <v>-640315.00875000004</v>
+        <v>-514880.78249999997</v>
       </c>
       <c r="P40" s="8">
         <f>Calculation!L69</f>
-        <v>-589089.80805000011</v>
+        <v>-473690.31989999994</v>
       </c>
       <c r="Q40" s="8">
         <f>Calculation!M69</f>
-        <v>-537864.60735000018</v>
+        <v>-432499.85729999997</v>
       </c>
       <c r="R40" s="8">
         <f>Calculation!N69</f>
-        <v>-486639.40665000014</v>
+        <v>-391309.39469999995</v>
       </c>
       <c r="S40" s="8">
         <f>Calculation!O69</f>
-        <v>-435414.20595000009</v>
+        <v>-350118.93209999998</v>
       </c>
       <c r="T40" s="8">
         <f>Calculation!P69</f>
-        <v>-384189.0052500001</v>
+        <v>-308928.46949999995</v>
       </c>
       <c r="U40" s="8">
         <f>Calculation!Q69</f>
-        <v>-332963.80455000012</v>
+        <v>-267738.00689999998</v>
       </c>
       <c r="V40" s="8">
         <f>Calculation!R69</f>
-        <v>-281738.60385000007</v>
+        <v>-226547.54429999998</v>
       </c>
       <c r="W40" s="8">
         <f>Calculation!S69</f>
-        <v>-230513.40315000003</v>
+        <v>-185357.08169999998</v>
       </c>
       <c r="X40" s="8">
         <f>Calculation!T69</f>
-        <v>-179288.20245000004</v>
+        <v>-144166.61909999998</v>
       </c>
       <c r="Y40" s="8">
         <f>Calculation!U69</f>
-        <v>-128063.00175000002</v>
+        <v>-102976.1565</v>
       </c>
       <c r="Z40" s="8">
         <f>Calculation!V69</f>
-        <v>-76837.801050000053</v>
+        <v>-61785.693899999991</v>
       </c>
       <c r="AA40" s="8">
         <f>Calculation!W69</f>
-        <v>-25612.600350000044</v>
+        <v>-20595.231299999999</v>
       </c>
       <c r="AB40" s="8">
         <f>Calculation!X69</f>
@@ -7538,63 +7538,63 @@
       </c>
       <c r="M41" s="8">
         <f>Calculation!I68</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="N41" s="8">
         <f>Calculation!J68</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="O41" s="8">
         <f>Calculation!K68</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="P41" s="8">
         <f>Calculation!L68</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="Q41" s="8">
         <f>Calculation!M68</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="R41" s="8">
         <f>Calculation!N68</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="S41" s="8">
         <f>Calculation!O68</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="T41" s="8">
         <f>Calculation!P68</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="U41" s="8">
         <f>Calculation!Q68</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="V41" s="8">
         <f>Calculation!R68</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="W41" s="8">
         <f>Calculation!S68</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="X41" s="8">
         <f>Calculation!T68</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="Y41" s="8">
         <f>Calculation!U68</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="Z41" s="8">
         <f>Calculation!V68</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="AA41" s="8">
         <f>Calculation!W68</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="AB41" s="8">
         <f>Calculation!X68</f>
@@ -7618,83 +7618,83 @@
       </c>
       <c r="K42" s="8">
         <f t="shared" ref="K42:AD42" si="3">SUM(K39:K41)</f>
-        <v>2125874.6158676473</v>
+        <v>399301.30822701205</v>
       </c>
       <c r="L42" s="8">
         <f t="shared" si="3"/>
-        <v>2114578.6299489532</v>
+        <v>394190.52230586205</v>
       </c>
       <c r="M42" s="8">
         <f t="shared" si="3"/>
-        <v>681787.19680833444</v>
+        <v>-51008.409634451964</v>
       </c>
       <c r="N42" s="8">
         <f t="shared" si="3"/>
-        <v>713422.59805142554</v>
+        <v>-20966.393441212131</v>
       </c>
       <c r="O42" s="8">
         <f t="shared" si="3"/>
-        <v>744822.95241951942</v>
+        <v>8773.4056288726861</v>
       </c>
       <c r="P42" s="8">
         <f t="shared" si="3"/>
-        <v>775983.55897511728</v>
+        <v>38194.879403138009</v>
       </c>
       <c r="Q42" s="8">
         <f t="shared" si="3"/>
-        <v>806899.62276196899</v>
+        <v>67281.061143316794</v>
       </c>
       <c r="R42" s="8">
         <f t="shared" si="3"/>
-        <v>837566.2529246998</v>
+        <v>96014.079783992376</v>
       </c>
       <c r="S42" s="8">
         <f t="shared" si="3"/>
-        <v>867978.4607908274</v>
+        <v>124375.11173196102</v>
       </c>
       <c r="T42" s="8">
         <f t="shared" si="3"/>
-        <v>898131.15791442012</v>
+        <v>152344.33009650162</v>
       </c>
       <c r="U42" s="8">
         <f t="shared" si="3"/>
-        <v>928019.15408062655</v>
+        <v>179900.85121361725</v>
       </c>
       <c r="V42" s="8">
         <f t="shared" si="3"/>
-        <v>957637.15527029848</v>
+        <v>207022.67832002032</v>
       </c>
       <c r="W42" s="8">
         <f t="shared" si="3"/>
-        <v>986979.76158390567</v>
+        <v>233686.64222493989</v>
       </c>
       <c r="X42" s="8">
         <f t="shared" si="3"/>
-        <v>1016041.4651239277</v>
+        <v>259868.33881973685</v>
       </c>
       <c r="Y42" s="8">
         <f t="shared" si="3"/>
-        <v>1044816.6478348924</v>
+        <v>285542.06325678143</v>
       </c>
       <c r="Z42" s="8">
         <f t="shared" si="3"/>
-        <v>1073299.5793002173</v>
+        <v>310680.74062006583</v>
       </c>
       <c r="AA42" s="8">
         <f t="shared" si="3"/>
-        <v>825517.66424499126</v>
+        <v>253733.06233805825</v>
       </c>
       <c r="AB42" s="8">
         <f t="shared" si="3"/>
-        <v>2274667.9687473532</v>
+        <v>702406.07539878599</v>
       </c>
       <c r="AC42" s="8">
         <f t="shared" si="3"/>
-        <v>2258850.8613933828</v>
+        <v>688982.61587954685</v>
       </c>
       <c r="AD42" s="8">
         <f t="shared" si="3"/>
-        <v>2242717.4118923326</v>
+        <v>676268.40185218025</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="23.4" x14ac:dyDescent="0.45">
@@ -7735,83 +7735,83 @@
       <c r="J46" s="60"/>
       <c r="K46" s="8">
         <f t="shared" ref="K46:AD46" si="4">ABS(K25)</f>
-        <v>666823.25375999999</v>
+        <v>110596.49999999999</v>
       </c>
       <c r="L46" s="8">
         <f t="shared" si="4"/>
-        <v>680159.71883519995</v>
+        <v>116491.29344999998</v>
       </c>
       <c r="M46" s="8">
         <f t="shared" si="4"/>
-        <v>693762.91321190388</v>
+        <v>122700.27939088499</v>
       </c>
       <c r="N46" s="8">
         <f t="shared" si="4"/>
-        <v>707638.17147614202</v>
+        <v>129240.20428241914</v>
       </c>
       <c r="O46" s="8">
         <f t="shared" si="4"/>
-        <v>721790.93490566488</v>
+        <v>136128.70717067207</v>
       </c>
       <c r="P46" s="8">
         <f t="shared" si="4"/>
-        <v>736226.7536037782</v>
+        <v>143384.36726286888</v>
       </c>
       <c r="Q46" s="8">
         <f t="shared" si="4"/>
-        <v>750951.28867585375</v>
+        <v>151026.75403797979</v>
       </c>
       <c r="R46" s="8">
         <f t="shared" si="4"/>
-        <v>765970.31444937084</v>
+        <v>159076.48002820407</v>
       </c>
       <c r="S46" s="8">
         <f t="shared" si="4"/>
-        <v>781289.72073835833</v>
+        <v>167555.25641370734</v>
       </c>
       <c r="T46" s="8">
         <f t="shared" si="4"/>
-        <v>796915.51515312551</v>
+        <v>176485.95158055791</v>
       </c>
       <c r="U46" s="8">
         <f t="shared" si="4"/>
-        <v>812853.82545618806</v>
+        <v>185892.65279980164</v>
       </c>
       <c r="V46" s="8">
         <f t="shared" si="4"/>
-        <v>829110.90196531173</v>
+        <v>195800.73119403105</v>
       </c>
       <c r="W46" s="8">
         <f t="shared" si="4"/>
-        <v>845693.12000461796</v>
+        <v>206236.91016667287</v>
       </c>
       <c r="X46" s="8">
         <f t="shared" si="4"/>
-        <v>862606.98240471038</v>
+        <v>217229.3374785565</v>
       </c>
       <c r="Y46" s="8">
         <f t="shared" si="4"/>
-        <v>879859.12205280457</v>
+        <v>228807.66116616351</v>
       </c>
       <c r="Z46" s="8">
         <f t="shared" si="4"/>
-        <v>897456.30449386069</v>
+        <v>241003.10950632003</v>
       </c>
       <c r="AA46" s="8">
         <f t="shared" si="4"/>
-        <v>915405.43058373802</v>
+        <v>253848.57524300687</v>
       </c>
       <c r="AB46" s="8">
         <f t="shared" si="4"/>
-        <v>933713.53919541277</v>
+        <v>267378.70430345909</v>
       </c>
       <c r="AC46" s="8">
         <f t="shared" si="4"/>
-        <v>952387.80997932097</v>
+        <v>281629.98924283346</v>
       </c>
       <c r="AD46" s="8">
         <f t="shared" si="4"/>
-        <v>971435.56617890752</v>
+        <v>296640.86766947649</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.3">
@@ -7826,75 +7826,75 @@
       </c>
       <c r="J47" s="148">
         <f>MIN(K47:AA47)</f>
-        <v>1.3119267100485104</v>
+        <v>0.95164774941757813</v>
       </c>
       <c r="K47" s="6">
         <f>Calculation!G127</f>
-        <v>3.7667041310621254</v>
+        <v>1.6462682265465536</v>
       </c>
       <c r="L47" s="6">
         <f>Calculation!H127</f>
-        <v>3.7520030519521916</v>
+        <v>1.6379964315750157</v>
       </c>
       <c r="M47" s="6">
         <f>Calculation!I127</f>
-        <v>1.3119267100485104</v>
+        <v>0.95164774941757813</v>
       </c>
       <c r="N47" s="6">
         <f>Calculation!J127</f>
-        <v>1.334233493395335</v>
+        <v>0.97931784251968612</v>
       </c>
       <c r="O47" s="6">
         <f>Calculation!K127</f>
-        <v>1.3575244428642761</v>
+        <v>1.0090210089681528</v>
       </c>
       <c r="P47" s="6">
         <f>Calculation!L127</f>
-        <v>1.3818716733897765</v>
+        <v>1.0410096978539787</v>
       </c>
       <c r="Q47" s="6">
         <f>Calculation!M127</f>
-        <v>1.4073547121546706</v>
+        <v>1.0755821195695083</v>
       </c>
       <c r="R47" s="6">
         <f>Calculation!N127</f>
-        <v>1.4340614814811581</v>
+        <v>1.1130932930310253</v>
       </c>
       <c r="S47" s="6">
         <f>Calculation!O127</f>
-        <v>1.4620894425281665</v>
+        <v>1.1539694697686886</v>
       </c>
       <c r="T47" s="6">
         <f>Calculation!P127</f>
-        <v>1.4915469313527423</v>
+        <v>1.1987272048195563</v>
       </c>
       <c r="U47" s="6">
         <f>Calculation!Q127</f>
-        <v>1.5225547261751511</v>
+        <v>1.2479989212292122</v>
       </c>
       <c r="V47" s="6">
         <f>Calculation!R127</f>
-        <v>1.5552478939159311</v>
+        <v>1.3025677043882757</v>
       </c>
       <c r="W47" s="6">
         <f>Calculation!S127</f>
-        <v>1.5897779758441259</v>
+        <v>1.3634154646123575</v>
       </c>
       <c r="X47" s="6">
         <f>Calculation!T127</f>
-        <v>1.6263155872920421</v>
+        <v>1.4317908722572794</v>
       </c>
       <c r="Y47" s="6">
         <f>Calculation!U127</f>
-        <v>1.6650535259439616</v>
+        <v>1.5093072338013593</v>
       </c>
       <c r="Z47" s="6">
         <f>Calculation!V127</f>
-        <v>1.7062105086893575</v>
+        <v>1.5980869277682002</v>
       </c>
       <c r="AA47" s="6">
         <f>Calculation!W127</f>
-        <v>1.5621211731965174</v>
+        <v>1.5305259242133731</v>
       </c>
       <c r="AB47" s="6">
         <f>Calculation!X127</f>
@@ -7922,83 +7922,83 @@
       </c>
       <c r="K48" s="8">
         <f>Calculation!G121</f>
-        <v>2894252.6263676472</v>
+        <v>1017158.2472270119</v>
       </c>
       <c r="L48" s="8">
         <f>Calculation!H121</f>
-        <v>2882956.640448953</v>
+        <v>1012047.4613058619</v>
       </c>
       <c r="M48" s="8">
         <f>Calculation!I121</f>
-        <v>2867516.0069583342</v>
+        <v>1003925.1047322146</v>
       </c>
       <c r="N48" s="8">
         <f>Calculation!J121</f>
-        <v>2847926.2075014254</v>
+        <v>992776.65832545445</v>
       </c>
       <c r="O48" s="8">
         <f>Calculation!K121</f>
-        <v>2828101.3611695194</v>
+        <v>981325.9947955393</v>
       </c>
       <c r="P48" s="8">
         <f>Calculation!L121</f>
-        <v>2808036.7670251173</v>
+        <v>969557.0059698046</v>
       </c>
       <c r="Q48" s="8">
         <f>Calculation!M121</f>
-        <v>2787727.6301119691</v>
+        <v>957452.72510998347</v>
       </c>
       <c r="R48" s="8">
         <f>Calculation!N121</f>
-        <v>2767169.0595747</v>
+        <v>944995.28115065896</v>
       </c>
       <c r="S48" s="8">
         <f>Calculation!O121</f>
-        <v>2746356.0667408276</v>
+        <v>932165.85049862764</v>
       </c>
       <c r="T48" s="8">
         <f>Calculation!P121</f>
-        <v>2725283.56316442</v>
+        <v>918944.60626316816</v>
       </c>
       <c r="U48" s="8">
         <f>Calculation!Q121</f>
-        <v>2703946.3586306265</v>
+        <v>905310.66478028381</v>
       </c>
       <c r="V48" s="8">
         <f>Calculation!R121</f>
-        <v>2682339.1591202985</v>
+        <v>891242.02928668691</v>
       </c>
       <c r="W48" s="8">
         <f>Calculation!S121</f>
-        <v>2660456.5647339057</v>
+        <v>876715.53059160651</v>
       </c>
       <c r="X48" s="8">
         <f>Calculation!T121</f>
-        <v>2638293.0675739278</v>
+        <v>861706.7645864035</v>
       </c>
       <c r="Y48" s="8">
         <f>Calculation!U121</f>
-        <v>2615843.0495848921</v>
+        <v>846190.02642344811</v>
       </c>
       <c r="Z48" s="8">
         <f>Calculation!V121</f>
-        <v>2593100.7803502171</v>
+        <v>830138.24118673243</v>
       </c>
       <c r="AA48" s="8">
         <f>Calculation!W121</f>
-        <v>2294093.6645949911</v>
+        <v>732000.10030472488</v>
       </c>
       <c r="AB48" s="8">
         <f>Calculation!X121</f>
-        <v>2274667.9687473532</v>
+        <v>702406.07539878599</v>
       </c>
       <c r="AC48" s="8">
         <f>Calculation!Y121</f>
-        <v>2258850.8613933828</v>
+        <v>688982.61587954685</v>
       </c>
       <c r="AD48" s="8">
         <f>Calculation!Z121</f>
-        <v>2242717.4118923326</v>
+        <v>676268.40185218025</v>
       </c>
     </row>
     <row r="49" spans="1:16383" x14ac:dyDescent="0.3">
@@ -8014,83 +8014,83 @@
       </c>
       <c r="K49" s="8">
         <f>Calculation!G123</f>
-        <v>2125874.6158676473</v>
+        <v>399301.30822701205</v>
       </c>
       <c r="L49" s="8">
         <f>Calculation!H123</f>
-        <v>2114578.6299489532</v>
+        <v>394190.52230586205</v>
       </c>
       <c r="M49" s="8">
         <f>Calculation!I123</f>
-        <v>681787.19680833444</v>
+        <v>-51008.409634451964</v>
       </c>
       <c r="N49" s="8">
         <f>Calculation!J123</f>
-        <v>713422.59805142554</v>
+        <v>-20966.393441212131</v>
       </c>
       <c r="O49" s="8">
         <f>Calculation!K123</f>
-        <v>744822.95241951942</v>
+        <v>8773.4056288726861</v>
       </c>
       <c r="P49" s="8">
         <f>Calculation!L123</f>
-        <v>775983.55897511728</v>
+        <v>38194.879403138009</v>
       </c>
       <c r="Q49" s="8">
         <f>Calculation!M123</f>
-        <v>806899.62276196899</v>
+        <v>67281.061143316794</v>
       </c>
       <c r="R49" s="8">
         <f>Calculation!N123</f>
-        <v>837566.2529246998</v>
+        <v>96014.079783992376</v>
       </c>
       <c r="S49" s="8">
         <f>Calculation!O123</f>
-        <v>867978.4607908274</v>
+        <v>124375.11173196102</v>
       </c>
       <c r="T49" s="8">
         <f>Calculation!P123</f>
-        <v>898131.15791442012</v>
+        <v>152344.33009650162</v>
       </c>
       <c r="U49" s="8">
         <f>Calculation!Q123</f>
-        <v>928019.15408062655</v>
+        <v>179900.85121361725</v>
       </c>
       <c r="V49" s="8">
         <f>Calculation!R123</f>
-        <v>957637.15527029848</v>
+        <v>207022.67832002032</v>
       </c>
       <c r="W49" s="8">
         <f>Calculation!S123</f>
-        <v>986979.76158390567</v>
+        <v>233686.64222493989</v>
       </c>
       <c r="X49" s="8">
         <f>Calculation!T123</f>
-        <v>1016041.4651239277</v>
+        <v>259868.33881973685</v>
       </c>
       <c r="Y49" s="8">
         <f>Calculation!U123</f>
-        <v>1044816.6478348924</v>
+        <v>285542.06325678143</v>
       </c>
       <c r="Z49" s="8">
         <f>Calculation!V123</f>
-        <v>1073299.5793002173</v>
+        <v>310680.74062006583</v>
       </c>
       <c r="AA49" s="8">
         <f>Calculation!W123</f>
-        <v>825517.66424499126</v>
+        <v>253733.06233805825</v>
       </c>
       <c r="AB49" s="8">
         <f>Calculation!X123</f>
-        <v>2274667.9687473532</v>
+        <v>702406.07539878599</v>
       </c>
       <c r="AC49" s="8">
         <f>Calculation!Y123</f>
-        <v>2258850.8613933828</v>
+        <v>688982.61587954685</v>
       </c>
       <c r="AD49" s="8">
         <f>Calculation!Z123</f>
-        <v>2242717.4118923326</v>
+        <v>676268.40185218025</v>
       </c>
     </row>
     <row r="50" spans="1:16383" x14ac:dyDescent="0.3">
@@ -24763,14 +24763,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA140"/>
   <sheetViews>
-    <sheetView zoomScale="44" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="67" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G62" sqref="G62"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="4" customWidth="1"/>
@@ -24915,7 +24915,7 @@
         <v>198</v>
       </c>
       <c r="C4" s="40">
-        <v>49046700</v>
+        <v>39924500</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>23</v>
@@ -25006,7 +25006,7 @@
       </c>
       <c r="C7" s="40">
         <f>C4*(1-C5)*(1-C6)</f>
-        <v>43413686.505000003</v>
+        <v>35339171.175000004</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>23</v>
@@ -25069,7 +25069,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="7">
-        <v>19200</v>
+        <v>12600</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>110</v>
@@ -25252,7 +25252,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="10">
-        <v>0.25</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>63</v>
@@ -25325,7 +25325,7 @@
       </c>
       <c r="C18" s="10">
         <f>SUM(C16:C17)</f>
-        <v>0.25</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>63</v>
@@ -25385,8 +25385,7 @@
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="40">
-        <f>SUM(C21:C25)</f>
-        <v>-28859268</v>
+        <v>-9807253</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>70</v>
@@ -25642,8 +25641,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="40">
-        <f>SUM(C29:C30)</f>
-        <v>-653748.28799999994</v>
+        <v>-105000</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>72</v>
@@ -25679,7 +25677,7 @@
       </c>
       <c r="C29" s="40">
         <f>'O&amp;M'!C10</f>
-        <v>-461748.288</v>
+        <v>-156916.04800000001</v>
       </c>
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
@@ -25817,83 +25815,83 @@
       </c>
       <c r="G35" s="7">
         <f>IF(InputOutput!F4=InputOutput!B3,InputOutput!C3,IF(InputOutput!F4=InputOutput!B4,InputOutput!C4,IF(InputOutput!F4=InputOutput!B5,InputOutput!C5)))</f>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="H35" s="7">
         <f>G35</f>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" ref="I35:Z35" si="0">H35</f>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="J35" s="7">
         <f t="shared" si="0"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="0"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="L35" s="7">
         <f t="shared" si="0"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="M35" s="7">
         <f t="shared" si="0"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="N35" s="7">
         <f t="shared" si="0"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="O35" s="7">
         <f t="shared" si="0"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="P35" s="7">
         <f t="shared" si="0"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="Q35" s="7">
         <f t="shared" si="0"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="R35" s="7">
         <f t="shared" si="0"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="S35" s="7">
         <f t="shared" si="0"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="T35" s="7">
         <f t="shared" si="0"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="U35" s="7">
         <f t="shared" si="0"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="V35" s="7">
         <f t="shared" si="0"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="W35" s="7">
         <f t="shared" si="0"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="X35" s="7">
         <f t="shared" si="0"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="Y35" s="7">
         <f t="shared" si="0"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="Z35" s="7">
         <f t="shared" si="0"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
@@ -25930,83 +25928,83 @@
       </c>
       <c r="G37" s="26">
         <f>Revenues!C13</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="H37" s="26">
         <f>Revenues!D13</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="I37" s="26">
         <f>Revenues!E13</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="J37" s="26">
         <f>Revenues!F13</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="K37" s="26">
         <f>Revenues!G13</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="L37" s="26">
         <f>Revenues!H13</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="M37" s="26">
         <f>Revenues!I13</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="N37" s="26">
         <f>Revenues!J13</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="O37" s="26">
         <f>Revenues!K13</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="P37" s="26">
         <f>Revenues!L13</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Q37" s="26">
         <f>Revenues!M13</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="R37" s="26">
         <f>Revenues!N13</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="S37" s="26">
         <f>Revenues!O13</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="T37" s="26">
         <f>Revenues!P13</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="U37" s="26">
         <f>Revenues!Q13</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="V37" s="26">
         <f>Revenues!R13</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="W37" s="26">
         <f>Revenues!S13</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="X37" s="26">
         <f>Revenues!T13</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Y37" s="26">
         <f>Revenues!U13</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Z37" s="26">
         <f>Revenues!V13</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
@@ -26043,7 +26041,7 @@
       </c>
       <c r="F39" s="7">
         <f>Calculation!C20*Calculation!C26</f>
-        <v>-28859268</v>
+        <v>-9807253</v>
       </c>
       <c r="G39" s="7">
         <v>0</v>
@@ -26118,83 +26116,83 @@
       </c>
       <c r="G40" s="7">
         <f>Calculation!C28</f>
-        <v>-653748.28799999994</v>
+        <v>-105000</v>
       </c>
       <c r="H40" s="7">
         <f>G40</f>
-        <v>-653748.28799999994</v>
+        <v>-105000</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" ref="I40:Z40" si="1">H40</f>
-        <v>-653748.28799999994</v>
+        <v>-105000</v>
       </c>
       <c r="J40" s="7">
         <f t="shared" si="1"/>
-        <v>-653748.28799999994</v>
+        <v>-105000</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="1"/>
-        <v>-653748.28799999994</v>
+        <v>-105000</v>
       </c>
       <c r="L40" s="7">
         <f t="shared" si="1"/>
-        <v>-653748.28799999994</v>
+        <v>-105000</v>
       </c>
       <c r="M40" s="7">
         <f t="shared" si="1"/>
-        <v>-653748.28799999994</v>
+        <v>-105000</v>
       </c>
       <c r="N40" s="7">
         <f t="shared" si="1"/>
-        <v>-653748.28799999994</v>
+        <v>-105000</v>
       </c>
       <c r="O40" s="7">
         <f t="shared" si="1"/>
-        <v>-653748.28799999994</v>
+        <v>-105000</v>
       </c>
       <c r="P40" s="7">
         <f t="shared" si="1"/>
-        <v>-653748.28799999994</v>
+        <v>-105000</v>
       </c>
       <c r="Q40" s="7">
         <f t="shared" si="1"/>
-        <v>-653748.28799999994</v>
+        <v>-105000</v>
       </c>
       <c r="R40" s="7">
         <f t="shared" si="1"/>
-        <v>-653748.28799999994</v>
+        <v>-105000</v>
       </c>
       <c r="S40" s="7">
         <f t="shared" si="1"/>
-        <v>-653748.28799999994</v>
+        <v>-105000</v>
       </c>
       <c r="T40" s="7">
         <f t="shared" si="1"/>
-        <v>-653748.28799999994</v>
+        <v>-105000</v>
       </c>
       <c r="U40" s="7">
         <f t="shared" si="1"/>
-        <v>-653748.28799999994</v>
+        <v>-105000</v>
       </c>
       <c r="V40" s="7">
         <f t="shared" si="1"/>
-        <v>-653748.28799999994</v>
+        <v>-105000</v>
       </c>
       <c r="W40" s="7">
         <f t="shared" si="1"/>
-        <v>-653748.28799999994</v>
+        <v>-105000</v>
       </c>
       <c r="X40" s="7">
         <f t="shared" si="1"/>
-        <v>-653748.28799999994</v>
+        <v>-105000</v>
       </c>
       <c r="Y40" s="7">
         <f t="shared" si="1"/>
-        <v>-653748.28799999994</v>
+        <v>-105000</v>
       </c>
       <c r="Z40" s="7">
         <f t="shared" si="1"/>
-        <v>-653748.28799999994</v>
+        <v>-105000</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
@@ -26228,83 +26226,83 @@
       </c>
       <c r="G42" s="9">
         <f>InputOutput!C21</f>
-        <v>0.02</v>
+        <v>5.33E-2</v>
       </c>
       <c r="H42" s="9">
         <f>G42</f>
-        <v>0.02</v>
+        <v>5.33E-2</v>
       </c>
       <c r="I42" s="9">
         <f t="shared" ref="I42:Z42" si="2">H42</f>
-        <v>0.02</v>
+        <v>5.33E-2</v>
       </c>
       <c r="J42" s="9">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>5.33E-2</v>
       </c>
       <c r="K42" s="9">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>5.33E-2</v>
       </c>
       <c r="L42" s="9">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>5.33E-2</v>
       </c>
       <c r="M42" s="9">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>5.33E-2</v>
       </c>
       <c r="N42" s="9">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>5.33E-2</v>
       </c>
       <c r="O42" s="9">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>5.33E-2</v>
       </c>
       <c r="P42" s="9">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>5.33E-2</v>
       </c>
       <c r="Q42" s="9">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>5.33E-2</v>
       </c>
       <c r="R42" s="9">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>5.33E-2</v>
       </c>
       <c r="S42" s="9">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>5.33E-2</v>
       </c>
       <c r="T42" s="9">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>5.33E-2</v>
       </c>
       <c r="U42" s="9">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>5.33E-2</v>
       </c>
       <c r="V42" s="9">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>5.33E-2</v>
       </c>
       <c r="W42" s="9">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>5.33E-2</v>
       </c>
       <c r="X42" s="9">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>5.33E-2</v>
       </c>
       <c r="Y42" s="9">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>5.33E-2</v>
       </c>
       <c r="Z42" s="9">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>5.33E-2</v>
       </c>
     </row>
     <row r="43" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -26313,83 +26311,83 @@
       </c>
       <c r="G43" s="6">
         <f>(1+G42)</f>
-        <v>1.02</v>
+        <v>1.0532999999999999</v>
       </c>
       <c r="H43" s="6">
         <f>G43*(H42+1)</f>
-        <v>1.0404</v>
+        <v>1.1094408899999999</v>
       </c>
       <c r="I43" s="6">
         <f t="shared" ref="I43:Z43" si="3">H43*(I42+1)</f>
-        <v>1.0612079999999999</v>
+        <v>1.1685740894369998</v>
       </c>
       <c r="J43" s="6">
         <f t="shared" si="3"/>
-        <v>1.08243216</v>
+        <v>1.2308590884039918</v>
       </c>
       <c r="K43" s="6">
         <f t="shared" si="3"/>
-        <v>1.1040808032</v>
+        <v>1.2964638778159245</v>
       </c>
       <c r="L43" s="6">
         <f t="shared" si="3"/>
-        <v>1.1261624192640001</v>
+        <v>1.3655654025035131</v>
       </c>
       <c r="M43" s="6">
         <f t="shared" si="3"/>
-        <v>1.14868566764928</v>
+        <v>1.4383500384569503</v>
       </c>
       <c r="N43" s="6">
         <f t="shared" si="3"/>
-        <v>1.1716593810022657</v>
+        <v>1.5150140955067055</v>
       </c>
       <c r="O43" s="6">
         <f t="shared" si="3"/>
-        <v>1.1950925686223111</v>
+        <v>1.5957643467972127</v>
       </c>
       <c r="P43" s="6">
         <f t="shared" si="3"/>
-        <v>1.2189944199947573</v>
+        <v>1.680818586481504</v>
       </c>
       <c r="Q43" s="6">
         <f t="shared" si="3"/>
-        <v>1.2433743083946525</v>
+        <v>1.770406217140968</v>
       </c>
       <c r="R43" s="6">
         <f t="shared" si="3"/>
-        <v>1.2682417945625455</v>
+        <v>1.8647688685145813</v>
       </c>
       <c r="S43" s="6">
         <f t="shared" si="3"/>
-        <v>1.2936066304537963</v>
+        <v>1.9641610492064083</v>
       </c>
       <c r="T43" s="6">
         <f t="shared" si="3"/>
-        <v>1.3194787630628724</v>
+        <v>2.0688508331291096</v>
       </c>
       <c r="U43" s="6">
         <f t="shared" si="3"/>
-        <v>1.3458683383241299</v>
+        <v>2.1791205825348907</v>
       </c>
       <c r="V43" s="6">
         <f t="shared" si="3"/>
-        <v>1.3727857050906125</v>
+        <v>2.2952677095840004</v>
       </c>
       <c r="W43" s="6">
         <f t="shared" si="3"/>
-        <v>1.4002414191924248</v>
+        <v>2.4176054785048273</v>
       </c>
       <c r="X43" s="6">
         <f t="shared" si="3"/>
-        <v>1.4282462475762734</v>
+        <v>2.5464638505091344</v>
       </c>
       <c r="Y43" s="6">
         <f t="shared" si="3"/>
-        <v>1.4568111725277988</v>
+        <v>2.6821903737412711</v>
       </c>
       <c r="Z43" s="6">
         <f t="shared" si="3"/>
-        <v>1.4859473959783549</v>
+        <v>2.8251511206616806</v>
       </c>
     </row>
     <row r="44" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -26402,83 +26400,83 @@
       </c>
       <c r="G45" s="9">
         <f>InputOutput!C22</f>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
       <c r="H45" s="9">
         <f>G45</f>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
       <c r="I45" s="9">
         <f t="shared" ref="I45:Z45" si="4">H45</f>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
       <c r="J45" s="9">
         <f t="shared" si="4"/>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
       <c r="K45" s="9">
         <f t="shared" si="4"/>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
       <c r="L45" s="9">
         <f t="shared" si="4"/>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
       <c r="M45" s="9">
         <f t="shared" si="4"/>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
       <c r="N45" s="9">
         <f t="shared" si="4"/>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
       <c r="O45" s="9">
         <f t="shared" si="4"/>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
       <c r="P45" s="9">
         <f t="shared" si="4"/>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
       <c r="Q45" s="9">
         <f t="shared" si="4"/>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
       <c r="R45" s="9">
         <f t="shared" si="4"/>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
       <c r="S45" s="9">
         <f t="shared" si="4"/>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
       <c r="T45" s="9">
         <f t="shared" si="4"/>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
       <c r="U45" s="9">
         <f t="shared" si="4"/>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
       <c r="V45" s="9">
         <f t="shared" si="4"/>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
       <c r="W45" s="9">
         <f t="shared" si="4"/>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
       <c r="X45" s="9">
         <f t="shared" si="4"/>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
       <c r="Y45" s="9">
         <f t="shared" si="4"/>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
       <c r="Z45" s="9">
         <f t="shared" si="4"/>
-        <v>3.4759999999999999E-2</v>
+        <v>7.2762000000000007E-2</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
@@ -26623,83 +26621,83 @@
       </c>
       <c r="G51" s="6">
         <f>G37</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="H51" s="6">
         <f t="shared" ref="H51:Z51" si="5">H37</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="I51" s="6">
         <f t="shared" si="5"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="J51" s="6">
         <f t="shared" si="5"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="K51" s="6">
         <f t="shared" si="5"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="L51" s="6">
         <f t="shared" si="5"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="M51" s="6">
         <f t="shared" si="5"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="N51" s="6">
         <f t="shared" si="5"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="O51" s="6">
         <f t="shared" si="5"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="P51" s="6">
         <f t="shared" si="5"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Q51" s="6">
         <f t="shared" si="5"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="R51" s="6">
         <f t="shared" si="5"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="S51" s="6">
         <f t="shared" si="5"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="T51" s="6">
         <f t="shared" si="5"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="U51" s="6">
         <f t="shared" si="5"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="V51" s="6">
         <f t="shared" si="5"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="W51" s="6">
         <f t="shared" si="5"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="X51" s="6">
         <f t="shared" si="5"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Y51" s="6">
         <f t="shared" si="5"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Z51" s="6">
         <f t="shared" si="5"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
@@ -26715,83 +26713,83 @@
       <c r="F52" s="11"/>
       <c r="G52" s="12">
         <f>G35</f>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="H52" s="12">
         <f t="shared" ref="H52:Z52" si="6">H35</f>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="I52" s="12">
         <f t="shared" si="6"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="J52" s="12">
         <f t="shared" si="6"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="K52" s="12">
         <f t="shared" si="6"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="L52" s="12">
         <f t="shared" si="6"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="M52" s="12">
         <f t="shared" si="6"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="N52" s="12">
         <f t="shared" si="6"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="O52" s="12">
         <f t="shared" si="6"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="P52" s="12">
         <f t="shared" si="6"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="Q52" s="12">
         <f t="shared" si="6"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="R52" s="12">
         <f t="shared" si="6"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="S52" s="12">
         <f t="shared" si="6"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="T52" s="12">
         <f t="shared" si="6"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="U52" s="12">
         <f t="shared" si="6"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="V52" s="12">
         <f t="shared" si="6"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="W52" s="12">
         <f t="shared" si="6"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="X52" s="12">
         <f t="shared" si="6"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="Y52" s="12">
         <f t="shared" si="6"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
       <c r="Z52" s="12">
         <f t="shared" si="6"/>
-        <v>40622750.970986396</v>
+        <v>33067321.983765397</v>
       </c>
     </row>
     <row r="53" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -26809,83 +26807,83 @@
       <c r="F53" s="18"/>
       <c r="G53" s="19">
         <f t="shared" ref="G53:Z53" si="7">G51*G52</f>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="H53" s="19">
         <f t="shared" si="7"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="I53" s="19">
         <f t="shared" si="7"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="J53" s="19">
         <f t="shared" si="7"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="K53" s="19">
         <f t="shared" si="7"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="L53" s="19">
         <f t="shared" si="7"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="M53" s="19">
         <f t="shared" si="7"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="N53" s="19">
         <f t="shared" si="7"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="O53" s="19">
         <f t="shared" si="7"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="P53" s="19">
         <f t="shared" si="7"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="Q53" s="19">
         <f t="shared" si="7"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="R53" s="19">
         <f t="shared" si="7"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="S53" s="19">
         <f t="shared" si="7"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="T53" s="19">
         <f t="shared" si="7"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="U53" s="19">
         <f t="shared" si="7"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="V53" s="19">
         <f t="shared" si="7"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="W53" s="19">
         <f t="shared" si="7"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="X53" s="19">
         <f t="shared" si="7"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="Y53" s="19">
         <f t="shared" si="7"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
       <c r="Z53" s="19">
         <f t="shared" si="7"/>
-        <v>3615424.8364177891</v>
+        <v>1091221.6254642582</v>
       </c>
     </row>
     <row r="54" spans="1:27" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -26932,83 +26930,83 @@
       </c>
       <c r="G56" s="8">
         <f t="shared" ref="G56:Z56" si="8">G40*G43</f>
-        <v>-666823.25375999999</v>
+        <v>-110596.49999999999</v>
       </c>
       <c r="H56" s="8">
         <f t="shared" si="8"/>
-        <v>-680159.71883519995</v>
+        <v>-116491.29344999998</v>
       </c>
       <c r="I56" s="8">
         <f t="shared" si="8"/>
-        <v>-693762.91321190388</v>
+        <v>-122700.27939088499</v>
       </c>
       <c r="J56" s="8">
         <f t="shared" si="8"/>
-        <v>-707638.17147614202</v>
+        <v>-129240.20428241914</v>
       </c>
       <c r="K56" s="8">
         <f t="shared" si="8"/>
-        <v>-721790.93490566488</v>
+        <v>-136128.70717067207</v>
       </c>
       <c r="L56" s="8">
         <f t="shared" si="8"/>
-        <v>-736226.7536037782</v>
+        <v>-143384.36726286888</v>
       </c>
       <c r="M56" s="8">
         <f t="shared" si="8"/>
-        <v>-750951.28867585375</v>
+        <v>-151026.75403797979</v>
       </c>
       <c r="N56" s="8">
         <f t="shared" si="8"/>
-        <v>-765970.31444937084</v>
+        <v>-159076.48002820407</v>
       </c>
       <c r="O56" s="8">
         <f t="shared" si="8"/>
-        <v>-781289.72073835833</v>
+        <v>-167555.25641370734</v>
       </c>
       <c r="P56" s="8">
         <f t="shared" si="8"/>
-        <v>-796915.51515312551</v>
+        <v>-176485.95158055791</v>
       </c>
       <c r="Q56" s="8">
         <f t="shared" si="8"/>
-        <v>-812853.82545618806</v>
+        <v>-185892.65279980164</v>
       </c>
       <c r="R56" s="8">
         <f t="shared" si="8"/>
-        <v>-829110.90196531173</v>
+        <v>-195800.73119403105</v>
       </c>
       <c r="S56" s="8">
         <f t="shared" si="8"/>
-        <v>-845693.12000461796</v>
+        <v>-206236.91016667287</v>
       </c>
       <c r="T56" s="8">
         <f t="shared" si="8"/>
-        <v>-862606.98240471038</v>
+        <v>-217229.3374785565</v>
       </c>
       <c r="U56" s="8">
         <f t="shared" si="8"/>
-        <v>-879859.12205280457</v>
+        <v>-228807.66116616351</v>
       </c>
       <c r="V56" s="8">
         <f t="shared" si="8"/>
-        <v>-897456.30449386069</v>
+        <v>-241003.10950632003</v>
       </c>
       <c r="W56" s="8">
         <f t="shared" si="8"/>
-        <v>-915405.43058373802</v>
+        <v>-253848.57524300687</v>
       </c>
       <c r="X56" s="8">
         <f t="shared" si="8"/>
-        <v>-933713.53919541277</v>
+        <v>-267378.70430345909</v>
       </c>
       <c r="Y56" s="8">
         <f t="shared" si="8"/>
-        <v>-952387.80997932097</v>
+        <v>-281629.98924283346</v>
       </c>
       <c r="Z56" s="8">
         <f t="shared" si="8"/>
-        <v>-971435.56617890752</v>
+        <v>-296640.86766947649</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
@@ -27025,7 +27023,7 @@
       </c>
       <c r="F57" s="12">
         <f>F39</f>
-        <v>-28859268</v>
+        <v>-9807253</v>
       </c>
       <c r="G57" s="12">
         <f t="shared" ref="G57:Z57" si="9">G39*G43</f>
@@ -27120,87 +27118,87 @@
       <c r="E58" s="18"/>
       <c r="F58" s="19">
         <f t="shared" ref="F58:Z58" si="10">SUM(F56:F57)</f>
-        <v>-28859268</v>
+        <v>-9807253</v>
       </c>
       <c r="G58" s="19">
         <f t="shared" si="10"/>
-        <v>-666823.25375999999</v>
+        <v>-110596.49999999999</v>
       </c>
       <c r="H58" s="19">
         <f t="shared" si="10"/>
-        <v>-680159.71883519995</v>
+        <v>-116491.29344999998</v>
       </c>
       <c r="I58" s="19">
         <f t="shared" si="10"/>
-        <v>-693762.91321190388</v>
+        <v>-122700.27939088499</v>
       </c>
       <c r="J58" s="19">
         <f t="shared" si="10"/>
-        <v>-707638.17147614202</v>
+        <v>-129240.20428241914</v>
       </c>
       <c r="K58" s="19">
         <f t="shared" si="10"/>
-        <v>-721790.93490566488</v>
+        <v>-136128.70717067207</v>
       </c>
       <c r="L58" s="19">
         <f t="shared" si="10"/>
-        <v>-736226.7536037782</v>
+        <v>-143384.36726286888</v>
       </c>
       <c r="M58" s="19">
         <f t="shared" si="10"/>
-        <v>-750951.28867585375</v>
+        <v>-151026.75403797979</v>
       </c>
       <c r="N58" s="19">
         <f t="shared" si="10"/>
-        <v>-765970.31444937084</v>
+        <v>-159076.48002820407</v>
       </c>
       <c r="O58" s="19">
         <f t="shared" si="10"/>
-        <v>-781289.72073835833</v>
+        <v>-167555.25641370734</v>
       </c>
       <c r="P58" s="19">
         <f t="shared" si="10"/>
-        <v>-796915.51515312551</v>
+        <v>-176485.95158055791</v>
       </c>
       <c r="Q58" s="19">
         <f t="shared" si="10"/>
-        <v>-812853.82545618806</v>
+        <v>-185892.65279980164</v>
       </c>
       <c r="R58" s="19">
         <f t="shared" si="10"/>
-        <v>-829110.90196531173</v>
+        <v>-195800.73119403105</v>
       </c>
       <c r="S58" s="19">
         <f t="shared" si="10"/>
-        <v>-845693.12000461796</v>
+        <v>-206236.91016667287</v>
       </c>
       <c r="T58" s="19">
         <f t="shared" si="10"/>
-        <v>-862606.98240471038</v>
+        <v>-217229.3374785565</v>
       </c>
       <c r="U58" s="19">
         <f t="shared" si="10"/>
-        <v>-879859.12205280457</v>
+        <v>-228807.66116616351</v>
       </c>
       <c r="V58" s="19">
         <f t="shared" si="10"/>
-        <v>-897456.30449386069</v>
+        <v>-241003.10950632003</v>
       </c>
       <c r="W58" s="19">
         <f t="shared" si="10"/>
-        <v>-915405.43058373802</v>
+        <v>-253848.57524300687</v>
       </c>
       <c r="X58" s="19">
         <f t="shared" si="10"/>
-        <v>-933713.53919541277</v>
+        <v>-267378.70430345909</v>
       </c>
       <c r="Y58" s="19">
         <f t="shared" si="10"/>
-        <v>-952387.80997932097</v>
+        <v>-281629.98924283346</v>
       </c>
       <c r="Z58" s="19">
         <f t="shared" si="10"/>
-        <v>-971435.56617890752</v>
+        <v>-296640.86766947649</v>
       </c>
     </row>
     <row r="59" spans="1:27" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -27218,87 +27216,87 @@
       </c>
       <c r="F60" s="23">
         <f t="shared" ref="F60:Z60" si="11">F53+F58</f>
-        <v>-28859268</v>
+        <v>-9807253</v>
       </c>
       <c r="G60" s="23">
         <f t="shared" si="11"/>
-        <v>2948601.5826577889</v>
+        <v>980625.12546425825</v>
       </c>
       <c r="H60" s="23">
         <f t="shared" si="11"/>
-        <v>2935265.1175825894</v>
+        <v>974730.33201425825</v>
       </c>
       <c r="I60" s="23">
         <f t="shared" si="11"/>
-        <v>2921661.9232058851</v>
+        <v>968521.34607337322</v>
       </c>
       <c r="J60" s="23">
         <f t="shared" si="11"/>
-        <v>2907786.6649416471</v>
+        <v>961981.42118183908</v>
       </c>
       <c r="K60" s="23">
         <f t="shared" si="11"/>
-        <v>2893633.9015121241</v>
+        <v>955092.91829358623</v>
       </c>
       <c r="L60" s="23">
         <f t="shared" si="11"/>
-        <v>2879198.0828140108</v>
+        <v>947837.25820138934</v>
       </c>
       <c r="M60" s="23">
         <f t="shared" si="11"/>
-        <v>2864473.5477419356</v>
+        <v>940194.87142627849</v>
       </c>
       <c r="N60" s="23">
         <f t="shared" si="11"/>
-        <v>2849454.5219684183</v>
+        <v>932145.14543605421</v>
       </c>
       <c r="O60" s="23">
         <f t="shared" si="11"/>
-        <v>2834135.1156794308</v>
+        <v>923666.36905055097</v>
       </c>
       <c r="P60" s="23">
         <f t="shared" si="11"/>
-        <v>2818509.3212646637</v>
+        <v>914735.67388370028</v>
       </c>
       <c r="Q60" s="23">
         <f t="shared" si="11"/>
-        <v>2802571.010961601</v>
+        <v>905328.97266445658</v>
       </c>
       <c r="R60" s="23">
         <f t="shared" si="11"/>
-        <v>2786313.9344524774</v>
+        <v>895420.89427022717</v>
       </c>
       <c r="S60" s="23">
         <f t="shared" si="11"/>
-        <v>2769731.716413171</v>
+        <v>884984.71529758535</v>
       </c>
       <c r="T60" s="23">
         <f t="shared" si="11"/>
-        <v>2752817.8540130788</v>
+        <v>873992.28798570181</v>
       </c>
       <c r="U60" s="23">
         <f t="shared" si="11"/>
-        <v>2735565.7143649845</v>
+        <v>862413.96429809474</v>
       </c>
       <c r="V60" s="23">
         <f t="shared" si="11"/>
-        <v>2717968.5319239283</v>
+        <v>850218.51595793827</v>
       </c>
       <c r="W60" s="23">
         <f t="shared" si="11"/>
-        <v>2700019.4058340508</v>
+        <v>837373.05022125132</v>
       </c>
       <c r="X60" s="23">
         <f t="shared" si="11"/>
-        <v>2681711.2972223763</v>
+        <v>823842.92116079922</v>
       </c>
       <c r="Y60" s="23">
         <f t="shared" si="11"/>
-        <v>2663037.0264384681</v>
+        <v>809591.63622142479</v>
       </c>
       <c r="Z60" s="23">
         <f t="shared" si="11"/>
-        <v>2643989.2702388815</v>
+        <v>794580.75779478182</v>
       </c>
     </row>
     <row r="61" spans="1:27" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -27317,67 +27315,67 @@
       <c r="F62" s="23"/>
       <c r="G62" s="23">
         <f>IF(COUNT($G$1:G1)&lt;(InputOutput!$C$15+1),(Calculation!$C$20*Calculation!$C$26)/InputOutput!$C$15,0)</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="H62" s="23">
         <f>IF(COUNT($G$1:H1)&lt;(InputOutput!$C$15+1),(Calculation!$C$20*Calculation!$C$26)/InputOutput!$C$15,0)</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="I62" s="23">
         <f>IF(COUNT($G$1:I1)&lt;(InputOutput!$C$15+1),(Calculation!$C$20*Calculation!$C$26)/InputOutput!$C$15,0)</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="J62" s="23">
         <f>IF(COUNT($G$1:J1)&lt;(InputOutput!$C$15+1),(Calculation!$C$20*Calculation!$C$26)/InputOutput!$C$15,0)</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="K62" s="23">
         <f>IF(COUNT($G$1:K1)&lt;(InputOutput!$C$15+1),(Calculation!$C$20*Calculation!$C$26)/InputOutput!$C$15,0)</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="L62" s="23">
         <f>IF(COUNT($G$1:L1)&lt;(InputOutput!$C$15+1),(Calculation!$C$20*Calculation!$C$26)/InputOutput!$C$15,0)</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="M62" s="23">
         <f>IF(COUNT($G$1:M1)&lt;(InputOutput!$C$15+1),(Calculation!$C$20*Calculation!$C$26)/InputOutput!$C$15,0)</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="N62" s="23">
         <f>IF(COUNT($G$1:N1)&lt;(InputOutput!$C$15+1),(Calculation!$C$20*Calculation!$C$26)/InputOutput!$C$15,0)</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="O62" s="23">
         <f>IF(COUNT($G$1:O1)&lt;(InputOutput!$C$15+1),(Calculation!$C$20*Calculation!$C$26)/InputOutput!$C$15,0)</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="P62" s="23">
         <f>IF(COUNT($G$1:P1)&lt;(InputOutput!$C$15+1),(Calculation!$C$20*Calculation!$C$26)/InputOutput!$C$15,0)</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="Q62" s="23">
         <f>IF(COUNT($G$1:Q1)&lt;(InputOutput!$C$15+1),(Calculation!$C$20*Calculation!$C$26)/InputOutput!$C$15,0)</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="R62" s="23">
         <f>IF(COUNT($G$1:R1)&lt;(InputOutput!$C$15+1),(Calculation!$C$20*Calculation!$C$26)/InputOutput!$C$15,0)</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="S62" s="23">
         <f>IF(COUNT($G$1:S1)&lt;(InputOutput!$C$15+1),(Calculation!$C$20*Calculation!$C$26)/InputOutput!$C$15,0)</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="T62" s="23">
         <f>IF(COUNT($G$1:T1)&lt;(InputOutput!$C$15+1),(Calculation!$C$20*Calculation!$C$26)/InputOutput!$C$15,0)</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="U62" s="23">
         <f>IF(COUNT($G$1:U1)&lt;(InputOutput!$C$15+1),(Calculation!$C$20*Calculation!$C$26)/InputOutput!$C$15,0)</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="V62" s="23">
         <f>IF(COUNT($G$1:V1)&lt;(InputOutput!$C$15+1),(Calculation!$C$20*Calculation!$C$26)/InputOutput!$C$15,0)</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="W62" s="23">
         <f>IF(COUNT($G$1:W1)&lt;(InputOutput!$C$15+1),(Calculation!$C$20*Calculation!$C$26)/InputOutput!$C$15,0)</f>
@@ -27431,87 +27429,87 @@
       <c r="E64" s="22"/>
       <c r="F64" s="23">
         <f t="shared" ref="F64:Z64" si="12">F60+F62</f>
-        <v>-28859268</v>
+        <v>-9807253</v>
       </c>
       <c r="G64" s="23">
         <f t="shared" si="12"/>
-        <v>1144897.3326577889</v>
+        <v>367671.81296425825</v>
       </c>
       <c r="H64" s="23">
         <f t="shared" si="12"/>
-        <v>1131560.8675825894</v>
+        <v>361777.01951425825</v>
       </c>
       <c r="I64" s="23">
         <f t="shared" si="12"/>
-        <v>1117957.6732058851</v>
+        <v>355568.03357337322</v>
       </c>
       <c r="J64" s="23">
         <f t="shared" si="12"/>
-        <v>1104082.4149416471</v>
+        <v>349028.10868183908</v>
       </c>
       <c r="K64" s="23">
         <f t="shared" si="12"/>
-        <v>1089929.6515121241</v>
+        <v>342139.60579358623</v>
       </c>
       <c r="L64" s="23">
         <f t="shared" si="12"/>
-        <v>1075493.8328140108</v>
+        <v>334883.94570138934</v>
       </c>
       <c r="M64" s="23">
         <f t="shared" si="12"/>
-        <v>1060769.2977419356</v>
+        <v>327241.55892627849</v>
       </c>
       <c r="N64" s="23">
         <f t="shared" si="12"/>
-        <v>1045750.2719684183</v>
+        <v>319191.83293605421</v>
       </c>
       <c r="O64" s="23">
         <f t="shared" si="12"/>
-        <v>1030430.8656794308</v>
+        <v>310713.05655055097</v>
       </c>
       <c r="P64" s="23">
         <f t="shared" si="12"/>
-        <v>1014805.0712646637</v>
+        <v>301782.36138370028</v>
       </c>
       <c r="Q64" s="23">
         <f t="shared" si="12"/>
-        <v>998866.76096160104</v>
+        <v>292375.66016445658</v>
       </c>
       <c r="R64" s="23">
         <f t="shared" si="12"/>
-        <v>982609.68445247738</v>
+        <v>282467.58177022717</v>
       </c>
       <c r="S64" s="23">
         <f t="shared" si="12"/>
-        <v>966027.46641317103</v>
+        <v>272031.40279758535</v>
       </c>
       <c r="T64" s="23">
         <f t="shared" si="12"/>
-        <v>949113.60401307885</v>
+        <v>261038.97548570181</v>
       </c>
       <c r="U64" s="23">
         <f t="shared" si="12"/>
-        <v>931861.46436498454</v>
+        <v>249460.65179809474</v>
       </c>
       <c r="V64" s="23">
         <f t="shared" si="12"/>
-        <v>914264.2819239283</v>
+        <v>237265.20345793827</v>
       </c>
       <c r="W64" s="23">
         <f t="shared" si="12"/>
-        <v>2700019.4058340508</v>
+        <v>837373.05022125132</v>
       </c>
       <c r="X64" s="23">
         <f t="shared" si="12"/>
-        <v>2681711.2972223763</v>
+        <v>823842.92116079922</v>
       </c>
       <c r="Y64" s="23">
         <f t="shared" si="12"/>
-        <v>2663037.0264384681</v>
+        <v>809591.63622142479</v>
       </c>
       <c r="Z64" s="23">
         <f t="shared" si="12"/>
-        <v>2643989.2702388815</v>
+        <v>794580.75779478182</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -27584,71 +27582,71 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8">
         <f>IF(InputOutput!$F$9=$B$72,G73,IF(InputOutput!$F$9=$B$78,G79,IF(InputOutput!$F$9=$B$84,G85)))</f>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="H67" s="8">
         <f>IF(InputOutput!$F$9=$B$72,H73,IF(InputOutput!$F$9=$B$78,H79,IF(InputOutput!$F$9=$B$84,H85)))</f>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="I67" s="8">
         <f>IF(InputOutput!$F$9=$B$72,I73,IF(InputOutput!$F$9=$B$78,I79,IF(InputOutput!$F$9=$B$84,I85)))</f>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="J67" s="8">
         <f>IF(InputOutput!$F$9=$B$72,J73,IF(InputOutput!$F$9=$B$78,J79,IF(InputOutput!$F$9=$B$84,J85)))</f>
-        <v>-20201487.600000001</v>
+        <v>-6407405.293333333</v>
       </c>
       <c r="K67" s="8">
         <f>IF(InputOutput!$F$9=$B$72,K73,IF(InputOutput!$F$9=$B$78,K79,IF(InputOutput!$F$9=$B$84,K85)))</f>
-        <v>-18758524.200000003</v>
+        <v>-5949733.4866666663</v>
       </c>
       <c r="L67" s="8">
         <f>IF(InputOutput!$F$9=$B$72,L73,IF(InputOutput!$F$9=$B$78,L79,IF(InputOutput!$F$9=$B$84,L85)))</f>
-        <v>-17315560.800000004</v>
+        <v>-5492061.6799999997</v>
       </c>
       <c r="M67" s="8">
         <f>IF(InputOutput!$F$9=$B$72,M73,IF(InputOutput!$F$9=$B$78,M79,IF(InputOutput!$F$9=$B$84,M85)))</f>
-        <v>-15872597.400000004</v>
+        <v>-5034389.8733333331</v>
       </c>
       <c r="N67" s="8">
         <f>IF(InputOutput!$F$9=$B$72,N73,IF(InputOutput!$F$9=$B$78,N79,IF(InputOutput!$F$9=$B$84,N85)))</f>
-        <v>-14429634.000000004</v>
+        <v>-4576718.0666666664</v>
       </c>
       <c r="O67" s="8">
         <f>IF(InputOutput!$F$9=$B$72,O73,IF(InputOutput!$F$9=$B$78,O79,IF(InputOutput!$F$9=$B$84,O85)))</f>
-        <v>-12986670.600000003</v>
+        <v>-4119046.26</v>
       </c>
       <c r="P67" s="8">
         <f>IF(InputOutput!$F$9=$B$72,P73,IF(InputOutput!$F$9=$B$78,P79,IF(InputOutput!$F$9=$B$84,P85)))</f>
-        <v>-11543707.200000003</v>
+        <v>-3661374.4533333331</v>
       </c>
       <c r="Q67" s="8">
         <f>IF(InputOutput!$F$9=$B$72,Q73,IF(InputOutput!$F$9=$B$78,Q79,IF(InputOutput!$F$9=$B$84,Q85)))</f>
-        <v>-10100743.800000003</v>
+        <v>-3203702.6466666665</v>
       </c>
       <c r="R67" s="8">
         <f>IF(InputOutput!$F$9=$B$72,R73,IF(InputOutput!$F$9=$B$78,R79,IF(InputOutput!$F$9=$B$84,R85)))</f>
-        <v>-8657780.4000000022</v>
+        <v>-2746030.84</v>
       </c>
       <c r="S67" s="8">
         <f>IF(InputOutput!$F$9=$B$72,S73,IF(InputOutput!$F$9=$B$78,S79,IF(InputOutput!$F$9=$B$84,S85)))</f>
-        <v>-7214817.0000000019</v>
+        <v>-2288359.0333333332</v>
       </c>
       <c r="T67" s="8">
         <f>IF(InputOutput!$F$9=$B$72,T73,IF(InputOutput!$F$9=$B$78,T79,IF(InputOutput!$F$9=$B$84,T85)))</f>
-        <v>-5771853.6000000015</v>
+        <v>-1830687.2266666666</v>
       </c>
       <c r="U67" s="8">
         <f>IF(InputOutput!$F$9=$B$72,U73,IF(InputOutput!$F$9=$B$78,U79,IF(InputOutput!$F$9=$B$84,U85)))</f>
-        <v>-4328890.2000000011</v>
+        <v>-1373015.42</v>
       </c>
       <c r="V67" s="8">
         <f>IF(InputOutput!$F$9=$B$72,V73,IF(InputOutput!$F$9=$B$78,V79,IF(InputOutput!$F$9=$B$84,V85)))</f>
-        <v>-2885926.8000000012</v>
+        <v>-915343.61333333328</v>
       </c>
       <c r="W67" s="8">
         <f>IF(InputOutput!$F$9=$B$72,W73,IF(InputOutput!$F$9=$B$78,W79,IF(InputOutput!$F$9=$B$84,W85)))</f>
-        <v>-1442963.4000000013</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="X67" s="8">
         <f>IF(InputOutput!$F$9=$B$72,X73,IF(InputOutput!$F$9=$B$78,X79,IF(InputOutput!$F$9=$B$84,X85)))</f>
@@ -27684,63 +27682,63 @@
       </c>
       <c r="I68" s="8">
         <f>IF(InputOutput!$F$9=$B$72,I74,IF(InputOutput!$F$9=$B$78,I80,IF(InputOutput!$F$9=$B$84,I86)))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="J68" s="8">
         <f>IF(InputOutput!$F$9=$B$72,J74,IF(InputOutput!$F$9=$B$78,J80,IF(InputOutput!$F$9=$B$84,J86)))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="K68" s="8">
         <f>IF(InputOutput!$F$9=$B$72,K74,IF(InputOutput!$F$9=$B$78,K80,IF(InputOutput!$F$9=$B$84,K86)))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="L68" s="8">
         <f>IF(InputOutput!$F$9=$B$72,L74,IF(InputOutput!$F$9=$B$78,L80,IF(InputOutput!$F$9=$B$84,L86)))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="M68" s="8">
         <f>IF(InputOutput!$F$9=$B$72,M74,IF(InputOutput!$F$9=$B$78,M80,IF(InputOutput!$F$9=$B$84,M86)))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="N68" s="8">
         <f>IF(InputOutput!$F$9=$B$72,N74,IF(InputOutput!$F$9=$B$78,N80,IF(InputOutput!$F$9=$B$84,N86)))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="O68" s="8">
         <f>IF(InputOutput!$F$9=$B$72,O74,IF(InputOutput!$F$9=$B$78,O80,IF(InputOutput!$F$9=$B$84,O86)))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="P68" s="8">
         <f>IF(InputOutput!$F$9=$B$72,P74,IF(InputOutput!$F$9=$B$78,P80,IF(InputOutput!$F$9=$B$84,P86)))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="Q68" s="8">
         <f>IF(InputOutput!$F$9=$B$72,Q74,IF(InputOutput!$F$9=$B$78,Q80,IF(InputOutput!$F$9=$B$84,Q86)))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="R68" s="8">
         <f>IF(InputOutput!$F$9=$B$72,R74,IF(InputOutput!$F$9=$B$78,R80,IF(InputOutput!$F$9=$B$84,R86)))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="S68" s="8">
         <f>IF(InputOutput!$F$9=$B$72,S74,IF(InputOutput!$F$9=$B$78,S80,IF(InputOutput!$F$9=$B$84,S86)))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="T68" s="8">
         <f>IF(InputOutput!$F$9=$B$72,T74,IF(InputOutput!$F$9=$B$78,T80,IF(InputOutput!$F$9=$B$84,T86)))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="U68" s="8">
         <f>IF(InputOutput!$F$9=$B$72,U74,IF(InputOutput!$F$9=$B$78,U80,IF(InputOutput!$F$9=$B$84,U86)))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="V68" s="8">
         <f>IF(InputOutput!$F$9=$B$72,V74,IF(InputOutput!$F$9=$B$78,V80,IF(InputOutput!$F$9=$B$84,V86)))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="W68" s="8">
         <f>IF(InputOutput!$F$9=$B$72,W74,IF(InputOutput!$F$9=$B$78,W80,IF(InputOutput!$F$9=$B$84,W86)))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="X68" s="8">
         <f>IF(InputOutput!$F$9=$B$72,X74,IF(InputOutput!$F$9=$B$78,X80,IF(InputOutput!$F$9=$B$84,X86)))</f>
@@ -27769,71 +27767,71 @@
       <c r="F69" s="12"/>
       <c r="G69" s="12">
         <f>IF(InputOutput!$F$9=$B$72,G75,IF(InputOutput!$F$9=$B$78,G81,IF(InputOutput!$F$9=$B$84,G87)))</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="H69" s="12">
         <f>IF(InputOutput!$F$9=$B$72,H75,IF(InputOutput!$F$9=$B$78,H81,IF(InputOutput!$F$9=$B$84,H87)))</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="I69" s="12">
         <f>IF(InputOutput!$F$9=$B$72,I75,IF(InputOutput!$F$9=$B$78,I81,IF(InputOutput!$F$9=$B$84,I87)))</f>
-        <v>-742765.41015000001</v>
+        <v>-597261.70769999991</v>
       </c>
       <c r="J69" s="12">
         <f>IF(InputOutput!$F$9=$B$72,J75,IF(InputOutput!$F$9=$B$78,J81,IF(InputOutput!$F$9=$B$84,J87)))</f>
-        <v>-691540.20944999997</v>
+        <v>-556071.24509999994</v>
       </c>
       <c r="K69" s="12">
         <f>IF(InputOutput!$F$9=$B$72,K75,IF(InputOutput!$F$9=$B$78,K81,IF(InputOutput!$F$9=$B$84,K87)))</f>
-        <v>-640315.00875000004</v>
+        <v>-514880.78249999997</v>
       </c>
       <c r="L69" s="12">
         <f>IF(InputOutput!$F$9=$B$72,L75,IF(InputOutput!$F$9=$B$78,L81,IF(InputOutput!$F$9=$B$84,L87)))</f>
-        <v>-589089.80805000011</v>
+        <v>-473690.31989999994</v>
       </c>
       <c r="M69" s="12">
         <f>IF(InputOutput!$F$9=$B$72,M75,IF(InputOutput!$F$9=$B$78,M81,IF(InputOutput!$F$9=$B$84,M87)))</f>
-        <v>-537864.60735000018</v>
+        <v>-432499.85729999997</v>
       </c>
       <c r="N69" s="12">
         <f>IF(InputOutput!$F$9=$B$72,N75,IF(InputOutput!$F$9=$B$78,N81,IF(InputOutput!$F$9=$B$84,N87)))</f>
-        <v>-486639.40665000014</v>
+        <v>-391309.39469999995</v>
       </c>
       <c r="O69" s="12">
         <f>IF(InputOutput!$F$9=$B$72,O75,IF(InputOutput!$F$9=$B$78,O81,IF(InputOutput!$F$9=$B$84,O87)))</f>
-        <v>-435414.20595000009</v>
+        <v>-350118.93209999998</v>
       </c>
       <c r="P69" s="12">
         <f>IF(InputOutput!$F$9=$B$72,P75,IF(InputOutput!$F$9=$B$78,P81,IF(InputOutput!$F$9=$B$84,P87)))</f>
-        <v>-384189.0052500001</v>
+        <v>-308928.46949999995</v>
       </c>
       <c r="Q69" s="12">
         <f>IF(InputOutput!$F$9=$B$72,Q75,IF(InputOutput!$F$9=$B$78,Q81,IF(InputOutput!$F$9=$B$84,Q87)))</f>
-        <v>-332963.80455000012</v>
+        <v>-267738.00689999998</v>
       </c>
       <c r="R69" s="12">
         <f>IF(InputOutput!$F$9=$B$72,R75,IF(InputOutput!$F$9=$B$78,R81,IF(InputOutput!$F$9=$B$84,R87)))</f>
-        <v>-281738.60385000007</v>
+        <v>-226547.54429999998</v>
       </c>
       <c r="S69" s="12">
         <f>IF(InputOutput!$F$9=$B$72,S75,IF(InputOutput!$F$9=$B$78,S81,IF(InputOutput!$F$9=$B$84,S87)))</f>
-        <v>-230513.40315000003</v>
+        <v>-185357.08169999998</v>
       </c>
       <c r="T69" s="12">
         <f>IF(InputOutput!$F$9=$B$72,T75,IF(InputOutput!$F$9=$B$78,T81,IF(InputOutput!$F$9=$B$84,T87)))</f>
-        <v>-179288.20245000004</v>
+        <v>-144166.61909999998</v>
       </c>
       <c r="U69" s="12">
         <f>IF(InputOutput!$F$9=$B$72,U75,IF(InputOutput!$F$9=$B$78,U81,IF(InputOutput!$F$9=$B$84,U87)))</f>
-        <v>-128063.00175000002</v>
+        <v>-102976.1565</v>
       </c>
       <c r="V69" s="12">
         <f>IF(InputOutput!$F$9=$B$72,V75,IF(InputOutput!$F$9=$B$78,V81,IF(InputOutput!$F$9=$B$84,V87)))</f>
-        <v>-76837.801050000053</v>
+        <v>-61785.693899999991</v>
       </c>
       <c r="W69" s="12">
         <f>IF(InputOutput!$F$9=$B$72,W75,IF(InputOutput!$F$9=$B$78,W81,IF(InputOutput!$F$9=$B$84,W87)))</f>
-        <v>-25612.600350000044</v>
+        <v>-20595.231299999999</v>
       </c>
       <c r="X69" s="12">
         <f>IF(InputOutput!$F$9=$B$72,X75,IF(InputOutput!$F$9=$B$78,X81,IF(InputOutput!$F$9=$B$84,X87)))</f>
@@ -27859,71 +27857,71 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8">
         <f>IF(InputOutput!$F$9=$B$72,G76,IF(InputOutput!$F$9=$B$78,G82,IF(InputOutput!$F$9=$B$84,G88)))</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="H70" s="8">
         <f>IF(InputOutput!$F$9=$B$72,H76,IF(InputOutput!$F$9=$B$78,H82,IF(InputOutput!$F$9=$B$84,H88)))</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="I70" s="8">
         <f>IF(InputOutput!$F$9=$B$72,I76,IF(InputOutput!$F$9=$B$78,I82,IF(InputOutput!$F$9=$B$84,I88)))</f>
-        <v>-2185728.8101499998</v>
+        <v>-1054933.5143666666</v>
       </c>
       <c r="J70" s="8">
         <f>IF(InputOutput!$F$9=$B$72,J76,IF(InputOutput!$F$9=$B$78,J82,IF(InputOutput!$F$9=$B$84,J88)))</f>
-        <v>-2134503.6094499999</v>
+        <v>-1013743.0517666666</v>
       </c>
       <c r="K70" s="8">
         <f>IF(InputOutput!$F$9=$B$72,K76,IF(InputOutput!$F$9=$B$78,K82,IF(InputOutput!$F$9=$B$84,K88)))</f>
-        <v>-2083278.4087499999</v>
+        <v>-972552.58916666661</v>
       </c>
       <c r="L70" s="8">
         <f>IF(InputOutput!$F$9=$B$72,L76,IF(InputOutput!$F$9=$B$78,L82,IF(InputOutput!$F$9=$B$84,L88)))</f>
-        <v>-2032053.20805</v>
+        <v>-931362.12656666664</v>
       </c>
       <c r="M70" s="8">
         <f>IF(InputOutput!$F$9=$B$72,M76,IF(InputOutput!$F$9=$B$78,M82,IF(InputOutput!$F$9=$B$84,M88)))</f>
-        <v>-1980828.0073500001</v>
+        <v>-890171.66396666667</v>
       </c>
       <c r="N70" s="8">
         <f>IF(InputOutput!$F$9=$B$72,N76,IF(InputOutput!$F$9=$B$78,N82,IF(InputOutput!$F$9=$B$84,N88)))</f>
-        <v>-1929602.8066500002</v>
+        <v>-848981.20136666659</v>
       </c>
       <c r="O70" s="8">
         <f>IF(InputOutput!$F$9=$B$72,O76,IF(InputOutput!$F$9=$B$78,O82,IF(InputOutput!$F$9=$B$84,O88)))</f>
-        <v>-1878377.60595</v>
+        <v>-807790.73876666662</v>
       </c>
       <c r="P70" s="8">
         <f>IF(InputOutput!$F$9=$B$72,P76,IF(InputOutput!$F$9=$B$78,P82,IF(InputOutput!$F$9=$B$84,P88)))</f>
-        <v>-1827152.4052500001</v>
+        <v>-766600.27616666653</v>
       </c>
       <c r="Q70" s="8">
         <f>IF(InputOutput!$F$9=$B$72,Q76,IF(InputOutput!$F$9=$B$78,Q82,IF(InputOutput!$F$9=$B$84,Q88)))</f>
-        <v>-1775927.2045499999</v>
+        <v>-725409.81356666656</v>
       </c>
       <c r="R70" s="8">
         <f>IF(InputOutput!$F$9=$B$72,R76,IF(InputOutput!$F$9=$B$78,R82,IF(InputOutput!$F$9=$B$84,R88)))</f>
-        <v>-1724702.00385</v>
+        <v>-684219.35096666659</v>
       </c>
       <c r="S70" s="8">
         <f>IF(InputOutput!$F$9=$B$72,S76,IF(InputOutput!$F$9=$B$78,S82,IF(InputOutput!$F$9=$B$84,S88)))</f>
-        <v>-1673476.8031500001</v>
+        <v>-643028.88836666662</v>
       </c>
       <c r="T70" s="8">
         <f>IF(InputOutput!$F$9=$B$72,T76,IF(InputOutput!$F$9=$B$78,T82,IF(InputOutput!$F$9=$B$84,T88)))</f>
-        <v>-1622251.6024499999</v>
+        <v>-601838.42576666665</v>
       </c>
       <c r="U70" s="8">
         <f>IF(InputOutput!$F$9=$B$72,U76,IF(InputOutput!$F$9=$B$78,U82,IF(InputOutput!$F$9=$B$84,U88)))</f>
-        <v>-1571026.40175</v>
+        <v>-560647.96316666668</v>
       </c>
       <c r="V70" s="8">
         <f>IF(InputOutput!$F$9=$B$72,V76,IF(InputOutput!$F$9=$B$78,V82,IF(InputOutput!$F$9=$B$84,V88)))</f>
-        <v>-1519801.20105</v>
+        <v>-519457.50056666665</v>
       </c>
       <c r="W70" s="8">
         <f>IF(InputOutput!$F$9=$B$72,W76,IF(InputOutput!$F$9=$B$78,W82,IF(InputOutput!$F$9=$B$84,W88)))</f>
-        <v>-1468576.0003499999</v>
+        <v>-478267.03796666663</v>
       </c>
       <c r="X70" s="8">
         <f>IF(InputOutput!$F$9=$B$72,X76,IF(InputOutput!$F$9=$B$78,X82,IF(InputOutput!$F$9=$B$84,X88)))</f>
@@ -27943,71 +27941,71 @@
       <c r="F71" s="41"/>
       <c r="G71" s="41">
         <f>IF(ABS(G70)&gt;0,ABS(G70),"")</f>
-        <v>768378.01049999997</v>
+        <v>617856.9389999999</v>
       </c>
       <c r="H71" s="41">
         <f t="shared" ref="H71:Z71" si="13">IF(ABS(H70)&gt;0,ABS(H70),"")</f>
-        <v>768378.01049999997</v>
+        <v>617856.9389999999</v>
       </c>
       <c r="I71" s="41">
         <f t="shared" si="13"/>
-        <v>2185728.8101499998</v>
+        <v>1054933.5143666666</v>
       </c>
       <c r="J71" s="41">
         <f t="shared" si="13"/>
-        <v>2134503.6094499999</v>
+        <v>1013743.0517666666</v>
       </c>
       <c r="K71" s="41">
         <f t="shared" si="13"/>
-        <v>2083278.4087499999</v>
+        <v>972552.58916666661</v>
       </c>
       <c r="L71" s="41">
         <f t="shared" si="13"/>
-        <v>2032053.20805</v>
+        <v>931362.12656666664</v>
       </c>
       <c r="M71" s="41">
         <f t="shared" si="13"/>
-        <v>1980828.0073500001</v>
+        <v>890171.66396666667</v>
       </c>
       <c r="N71" s="41">
         <f t="shared" si="13"/>
-        <v>1929602.8066500002</v>
+        <v>848981.20136666659</v>
       </c>
       <c r="O71" s="41">
         <f t="shared" si="13"/>
-        <v>1878377.60595</v>
+        <v>807790.73876666662</v>
       </c>
       <c r="P71" s="41">
         <f t="shared" si="13"/>
-        <v>1827152.4052500001</v>
+        <v>766600.27616666653</v>
       </c>
       <c r="Q71" s="41">
         <f t="shared" si="13"/>
-        <v>1775927.2045499999</v>
+        <v>725409.81356666656</v>
       </c>
       <c r="R71" s="41">
         <f t="shared" si="13"/>
-        <v>1724702.00385</v>
+        <v>684219.35096666659</v>
       </c>
       <c r="S71" s="41">
         <f t="shared" si="13"/>
-        <v>1673476.8031500001</v>
+        <v>643028.88836666662</v>
       </c>
       <c r="T71" s="41">
         <f t="shared" si="13"/>
-        <v>1622251.6024499999</v>
+        <v>601838.42576666665</v>
       </c>
       <c r="U71" s="41">
         <f t="shared" si="13"/>
-        <v>1571026.40175</v>
+        <v>560647.96316666668</v>
       </c>
       <c r="V71" s="41">
         <f t="shared" si="13"/>
-        <v>1519801.20105</v>
+        <v>519457.50056666665</v>
       </c>
       <c r="W71" s="41">
         <f t="shared" si="13"/>
-        <v>1468576.0003499999</v>
+        <v>478267.03796666663</v>
       </c>
       <c r="X71" s="41" t="str">
         <f t="shared" si="13"/>
@@ -28060,71 +28058,71 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8">
         <f>IF(Calculation!C20*InputOutput!C7&lt;0.00005,Calculation!C20*InputOutput!C7,0)</f>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="H73" s="8">
         <f>IF(ABS(G73-G74)&gt;0.00005,(G73-G74),0)</f>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="I73" s="8">
         <f t="shared" ref="I73:Z73" si="14">IF(ABS(H73-H74)&gt;0.00005,(H73-H74),0)</f>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="J73" s="8">
         <f t="shared" si="14"/>
-        <v>-20201487.600000001</v>
+        <v>-6407405.293333333</v>
       </c>
       <c r="K73" s="8">
         <f t="shared" si="14"/>
-        <v>-18758524.200000003</v>
+        <v>-5949733.4866666663</v>
       </c>
       <c r="L73" s="8">
         <f t="shared" si="14"/>
-        <v>-17315560.800000004</v>
+        <v>-5492061.6799999997</v>
       </c>
       <c r="M73" s="8">
         <f t="shared" si="14"/>
-        <v>-15872597.400000004</v>
+        <v>-5034389.8733333331</v>
       </c>
       <c r="N73" s="8">
         <f t="shared" si="14"/>
-        <v>-14429634.000000004</v>
+        <v>-4576718.0666666664</v>
       </c>
       <c r="O73" s="8">
         <f t="shared" si="14"/>
-        <v>-12986670.600000003</v>
+        <v>-4119046.26</v>
       </c>
       <c r="P73" s="8">
         <f t="shared" si="14"/>
-        <v>-11543707.200000003</v>
+        <v>-3661374.4533333331</v>
       </c>
       <c r="Q73" s="8">
         <f t="shared" si="14"/>
-        <v>-10100743.800000003</v>
+        <v>-3203702.6466666665</v>
       </c>
       <c r="R73" s="8">
         <f t="shared" si="14"/>
-        <v>-8657780.4000000022</v>
+        <v>-2746030.84</v>
       </c>
       <c r="S73" s="8">
         <f t="shared" si="14"/>
-        <v>-7214817.0000000019</v>
+        <v>-2288359.0333333332</v>
       </c>
       <c r="T73" s="8">
         <f t="shared" si="14"/>
-        <v>-5771853.6000000015</v>
+        <v>-1830687.2266666666</v>
       </c>
       <c r="U73" s="8">
         <f t="shared" si="14"/>
-        <v>-4328890.2000000011</v>
+        <v>-1373015.42</v>
       </c>
       <c r="V73" s="8">
         <f t="shared" si="14"/>
-        <v>-2885926.8000000012</v>
+        <v>-915343.61333333328</v>
       </c>
       <c r="W73" s="8">
         <f t="shared" si="14"/>
-        <v>-1442963.4000000013</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="X73" s="8">
         <f t="shared" si="14"/>
@@ -28158,63 +28156,63 @@
       </c>
       <c r="I74" s="8">
         <f>IF(I1-$F$1&lt;=InputOutput!$C$12,0,IF((I1-($F$1)-InputOutput!$C$12)&lt;=InputOutput!$C$10,InputOutput!$C$11/InputOutput!$C$10,0))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="J74" s="8">
         <f>IF(J1-$F$1&lt;=InputOutput!$C$12,0,IF((J1-($F$1)-InputOutput!$C$12)&lt;=InputOutput!$C$10,InputOutput!$C$11/InputOutput!$C$10,0))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="K74" s="8">
         <f>IF(K1-$F$1&lt;=InputOutput!$C$12,0,IF((K1-($F$1)-InputOutput!$C$12)&lt;=InputOutput!$C$10,InputOutput!$C$11/InputOutput!$C$10,0))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="L74" s="8">
         <f>IF(L1-$F$1&lt;=InputOutput!$C$12,0,IF((L1-($F$1)-InputOutput!$C$12)&lt;=InputOutput!$C$10,InputOutput!$C$11/InputOutput!$C$10,0))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="M74" s="8">
         <f>IF(M1-$F$1&lt;=InputOutput!$C$12,0,IF((M1-($F$1)-InputOutput!$C$12)&lt;=InputOutput!$C$10,InputOutput!$C$11/InputOutput!$C$10,0))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="N74" s="8">
         <f>IF(N1-$F$1&lt;=InputOutput!$C$12,0,IF((N1-($F$1)-InputOutput!$C$12)&lt;=InputOutput!$C$10,InputOutput!$C$11/InputOutput!$C$10,0))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="O74" s="8">
         <f>IF(O1-$F$1&lt;=InputOutput!$C$12,0,IF((O1-($F$1)-InputOutput!$C$12)&lt;=InputOutput!$C$10,InputOutput!$C$11/InputOutput!$C$10,0))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="P74" s="8">
         <f>IF(P1-$F$1&lt;=InputOutput!$C$12,0,IF((P1-($F$1)-InputOutput!$C$12)&lt;=InputOutput!$C$10,InputOutput!$C$11/InputOutput!$C$10,0))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="Q74" s="8">
         <f>IF(Q1-$F$1&lt;=InputOutput!$C$12,0,IF((Q1-($F$1)-InputOutput!$C$12)&lt;=InputOutput!$C$10,InputOutput!$C$11/InputOutput!$C$10,0))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="R74" s="8">
         <f>IF(R1-$F$1&lt;=InputOutput!$C$12,0,IF((R1-($F$1)-InputOutput!$C$12)&lt;=InputOutput!$C$10,InputOutput!$C$11/InputOutput!$C$10,0))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="S74" s="8">
         <f>IF(S1-$F$1&lt;=InputOutput!$C$12,0,IF((S1-($F$1)-InputOutput!$C$12)&lt;=InputOutput!$C$10,InputOutput!$C$11/InputOutput!$C$10,0))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="T74" s="8">
         <f>IF(T1-$F$1&lt;=InputOutput!$C$12,0,IF((T1-($F$1)-InputOutput!$C$12)&lt;=InputOutput!$C$10,InputOutput!$C$11/InputOutput!$C$10,0))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="U74" s="8">
         <f>IF(U1-$F$1&lt;=InputOutput!$C$12,0,IF((U1-($F$1)-InputOutput!$C$12)&lt;=InputOutput!$C$10,InputOutput!$C$11/InputOutput!$C$10,0))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="V74" s="8">
         <f>IF(V1-$F$1&lt;=InputOutput!$C$12,0,IF((V1-($F$1)-InputOutput!$C$12)&lt;=InputOutput!$C$10,InputOutput!$C$11/InputOutput!$C$10,0))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="W74" s="8">
         <f>IF(W1-$F$1&lt;=InputOutput!$C$12,0,IF((W1-($F$1)-InputOutput!$C$12)&lt;=InputOutput!$C$10,InputOutput!$C$11/InputOutput!$C$10,0))</f>
-        <v>-1442963.4</v>
+        <v>-457671.80666666664</v>
       </c>
       <c r="X74" s="8">
         <f>IF(X1-$F$1&lt;=InputOutput!$C$12,0,IF((X1-($F$1)-InputOutput!$C$12)&lt;=InputOutput!$C$10,InputOutput!$C$11/InputOutput!$C$10,0))</f>
@@ -28241,71 +28239,71 @@
       <c r="F75" s="12"/>
       <c r="G75" s="12">
         <f>(G73-G74/2)*InputOutput!$C$13</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="H75" s="12">
         <f>(H73-H74/2)*InputOutput!$C$13</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="I75" s="12">
         <f>(I73-I74/2)*InputOutput!$C$13</f>
-        <v>-742765.41015000001</v>
+        <v>-597261.70769999991</v>
       </c>
       <c r="J75" s="12">
         <f>(J73-J74/2)*InputOutput!$C$13</f>
-        <v>-691540.20944999997</v>
+        <v>-556071.24509999994</v>
       </c>
       <c r="K75" s="12">
         <f>(K73-K74/2)*InputOutput!$C$13</f>
-        <v>-640315.00875000004</v>
+        <v>-514880.78249999997</v>
       </c>
       <c r="L75" s="12">
         <f>(L73-L74/2)*InputOutput!$C$13</f>
-        <v>-589089.80805000011</v>
+        <v>-473690.31989999994</v>
       </c>
       <c r="M75" s="12">
         <f>(M73-M74/2)*InputOutput!$C$13</f>
-        <v>-537864.60735000018</v>
+        <v>-432499.85729999997</v>
       </c>
       <c r="N75" s="12">
         <f>(N73-N74/2)*InputOutput!$C$13</f>
-        <v>-486639.40665000014</v>
+        <v>-391309.39469999995</v>
       </c>
       <c r="O75" s="12">
         <f>(O73-O74/2)*InputOutput!$C$13</f>
-        <v>-435414.20595000009</v>
+        <v>-350118.93209999998</v>
       </c>
       <c r="P75" s="12">
         <f>(P73-P74/2)*InputOutput!$C$13</f>
-        <v>-384189.0052500001</v>
+        <v>-308928.46949999995</v>
       </c>
       <c r="Q75" s="12">
         <f>(Q73-Q74/2)*InputOutput!$C$13</f>
-        <v>-332963.80455000012</v>
+        <v>-267738.00689999998</v>
       </c>
       <c r="R75" s="12">
         <f>(R73-R74/2)*InputOutput!$C$13</f>
-        <v>-281738.60385000007</v>
+        <v>-226547.54429999998</v>
       </c>
       <c r="S75" s="12">
         <f>(S73-S74/2)*InputOutput!$C$13</f>
-        <v>-230513.40315000003</v>
+        <v>-185357.08169999998</v>
       </c>
       <c r="T75" s="12">
         <f>(T73-T74/2)*InputOutput!$C$13</f>
-        <v>-179288.20245000004</v>
+        <v>-144166.61909999998</v>
       </c>
       <c r="U75" s="12">
         <f>(U73-U74/2)*InputOutput!$C$13</f>
-        <v>-128063.00175000002</v>
+        <v>-102976.1565</v>
       </c>
       <c r="V75" s="12">
         <f>(V73-V74/2)*InputOutput!$C$13</f>
-        <v>-76837.801050000053</v>
+        <v>-61785.693899999991</v>
       </c>
       <c r="W75" s="12">
         <f>(W73-W74/2)*InputOutput!$C$13</f>
-        <v>-25612.600350000044</v>
+        <v>-20595.231299999999</v>
       </c>
       <c r="X75" s="12">
         <f>(X73-X74/2)*InputOutput!$C$13</f>
@@ -28331,71 +28329,71 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8">
         <f t="shared" ref="G76:Z76" si="15">SUM(G74:G75)</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="H76" s="8">
         <f t="shared" si="15"/>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="I76" s="8">
         <f t="shared" si="15"/>
-        <v>-2185728.8101499998</v>
+        <v>-1054933.5143666666</v>
       </c>
       <c r="J76" s="8">
         <f t="shared" si="15"/>
-        <v>-2134503.6094499999</v>
+        <v>-1013743.0517666666</v>
       </c>
       <c r="K76" s="8">
         <f t="shared" si="15"/>
-        <v>-2083278.4087499999</v>
+        <v>-972552.58916666661</v>
       </c>
       <c r="L76" s="8">
         <f t="shared" si="15"/>
-        <v>-2032053.20805</v>
+        <v>-931362.12656666664</v>
       </c>
       <c r="M76" s="8">
         <f t="shared" si="15"/>
-        <v>-1980828.0073500001</v>
+        <v>-890171.66396666667</v>
       </c>
       <c r="N76" s="8">
         <f t="shared" si="15"/>
-        <v>-1929602.8066500002</v>
+        <v>-848981.20136666659</v>
       </c>
       <c r="O76" s="8">
         <f t="shared" si="15"/>
-        <v>-1878377.60595</v>
+        <v>-807790.73876666662</v>
       </c>
       <c r="P76" s="8">
         <f t="shared" si="15"/>
-        <v>-1827152.4052500001</v>
+        <v>-766600.27616666653</v>
       </c>
       <c r="Q76" s="8">
         <f t="shared" si="15"/>
-        <v>-1775927.2045499999</v>
+        <v>-725409.81356666656</v>
       </c>
       <c r="R76" s="8">
         <f t="shared" si="15"/>
-        <v>-1724702.00385</v>
+        <v>-684219.35096666659</v>
       </c>
       <c r="S76" s="8">
         <f t="shared" si="15"/>
-        <v>-1673476.8031500001</v>
+        <v>-643028.88836666662</v>
       </c>
       <c r="T76" s="8">
         <f t="shared" si="15"/>
-        <v>-1622251.6024499999</v>
+        <v>-601838.42576666665</v>
       </c>
       <c r="U76" s="8">
         <f t="shared" si="15"/>
-        <v>-1571026.40175</v>
+        <v>-560647.96316666668</v>
       </c>
       <c r="V76" s="8">
         <f t="shared" si="15"/>
-        <v>-1519801.20105</v>
+        <v>-519457.50056666665</v>
       </c>
       <c r="W76" s="8">
         <f t="shared" si="15"/>
-        <v>-1468576.0003499999</v>
+        <v>-478267.03796666663</v>
       </c>
       <c r="X76" s="8">
         <f t="shared" si="15"/>
@@ -28472,83 +28470,83 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8">
         <f>Calculation!C20*InputOutput!C7</f>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="H79" s="8">
         <f>G79-G80</f>
-        <v>-20526859.317021128</v>
+        <v>-6631260.244665768</v>
       </c>
       <c r="I79" s="8">
         <f t="shared" ref="I79:Z79" si="16">H79-H80</f>
-        <v>-19369593.129296504</v>
+        <v>-6376399.8723514564</v>
       </c>
       <c r="J79" s="8">
         <f t="shared" si="16"/>
-        <v>-18171243.991907656</v>
+        <v>-6098602.0665288568</v>
       </c>
       <c r="K79" s="8">
         <f t="shared" si="16"/>
-        <v>-16930353.460141502</v>
+        <v>-5795802.4581822231</v>
       </c>
       <c r="L79" s="8">
         <f t="shared" si="16"/>
-        <v>-15645411.314497652</v>
+        <v>-5465750.8850843925</v>
       </c>
       <c r="M79" s="8">
         <f t="shared" si="16"/>
-        <v>-14314853.722683445</v>
+        <v>-5105994.6704077572</v>
       </c>
       <c r="N79" s="8">
         <f t="shared" si="16"/>
-        <v>-12937061.336359832</v>
+        <v>-4713860.396410224</v>
       </c>
       <c r="O79" s="8">
         <f t="shared" si="16"/>
-        <v>-11510357.320321733</v>
+        <v>-4286434.0377529133</v>
       </c>
       <c r="P79" s="8">
         <f t="shared" si="16"/>
-        <v>-10033005.31171428</v>
+        <v>-3820539.3068164443</v>
       </c>
       <c r="Q79" s="8">
         <f t="shared" si="16"/>
-        <v>-8503207.3068012632</v>
+        <v>-3312714.0500956932</v>
       </c>
       <c r="R79" s="8">
         <f t="shared" si="16"/>
-        <v>-6919101.4727138346</v>
+        <v>-2759184.5202700747</v>
       </c>
       <c r="S79" s="8">
         <f t="shared" si="16"/>
-        <v>-5278759.881516302</v>
+        <v>-2155837.3327601505</v>
       </c>
       <c r="T79" s="8">
         <f t="shared" si="16"/>
-        <v>-3580186.1638312573</v>
+        <v>-1498188.898374333</v>
       </c>
       <c r="U79" s="8">
         <f t="shared" si="16"/>
-        <v>-1821313.0791683933</v>
+        <v>-781352.10489379195</v>
       </c>
       <c r="V79" s="8">
         <f t="shared" si="16"/>
-        <v>2.5611370801925659E-9</v>
+        <v>-2.2118911147117615E-9</v>
       </c>
       <c r="W79" s="8">
         <f t="shared" si="16"/>
-        <v>2.5611370801925659E-9</v>
+        <v>-2.2118911147117615E-9</v>
       </c>
       <c r="X79" s="8">
         <f t="shared" si="16"/>
-        <v>2.5611370801925659E-9</v>
+        <v>-2.2118911147117615E-9</v>
       </c>
       <c r="Y79" s="8">
         <f t="shared" si="16"/>
-        <v>2.5611370801925659E-9</v>
+        <v>-2.2118911147117615E-9</v>
       </c>
       <c r="Z79" s="8">
         <f t="shared" si="16"/>
-        <v>2.5611370801925659E-9</v>
+        <v>-2.2118911147117615E-9</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
@@ -28562,63 +28560,63 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8">
         <f>IF(G79&lt;&gt;0,G82-G81,0)</f>
-        <v>-1117591.6829788736</v>
+        <v>-233816.85533423116</v>
       </c>
       <c r="H80" s="8">
         <f t="shared" ref="H80:Z80" si="17">IF(H82&lt;&gt;0,H82-H81,0)</f>
-        <v>-1157266.1877246238</v>
+        <v>-254860.37231431191</v>
       </c>
       <c r="I80" s="8">
         <f t="shared" si="17"/>
-        <v>-1198349.1373888478</v>
+        <v>-277797.80582260003</v>
       </c>
       <c r="J80" s="8">
         <f t="shared" si="17"/>
-        <v>-1240890.531766152</v>
+        <v>-302799.60834663396</v>
       </c>
       <c r="K80" s="8">
         <f t="shared" si="17"/>
-        <v>-1284942.1456438503</v>
+        <v>-330051.57309783099</v>
       </c>
       <c r="L80" s="8">
         <f t="shared" si="17"/>
-        <v>-1330557.5918142071</v>
+        <v>-359756.21467663575</v>
       </c>
       <c r="M80" s="8">
         <f t="shared" si="17"/>
-        <v>-1377792.3863236115</v>
+        <v>-392134.27399753296</v>
       </c>
       <c r="N80" s="8">
         <f t="shared" si="17"/>
-        <v>-1426704.0160380998</v>
+        <v>-427426.35865731089</v>
       </c>
       <c r="O80" s="8">
         <f t="shared" si="17"/>
-        <v>-1477352.0086074523</v>
+        <v>-465894.73093646887</v>
       </c>
       <c r="P80" s="8">
         <f t="shared" si="17"/>
-        <v>-1529798.0049130167</v>
+        <v>-507825.25672075112</v>
       </c>
       <c r="Q80" s="8">
         <f t="shared" si="17"/>
-        <v>-1584105.8340874289</v>
+        <v>-553529.52982561872</v>
       </c>
       <c r="R80" s="8">
         <f t="shared" si="17"/>
-        <v>-1640341.5911975326</v>
+        <v>-603347.18750992441</v>
       </c>
       <c r="S80" s="8">
         <f t="shared" si="17"/>
-        <v>-1698573.717685045</v>
+        <v>-657648.4343858175</v>
       </c>
       <c r="T80" s="8">
         <f t="shared" si="17"/>
-        <v>-1758873.084662864</v>
+        <v>-716836.79348054109</v>
       </c>
       <c r="U80" s="8">
         <f t="shared" si="17"/>
-        <v>-1821313.0791683958</v>
+        <v>-781352.10489378974</v>
       </c>
       <c r="V80" s="8">
         <f t="shared" si="17"/>
@@ -28653,83 +28651,83 @@
       <c r="F81" s="12"/>
       <c r="G81" s="12">
         <f>G79*InputOutput!$C$13</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="H81" s="12">
         <f>H79*InputOutput!$C$13</f>
-        <v>-728703.50575424999</v>
+        <v>-596813.42201991915</v>
       </c>
       <c r="I81" s="12">
         <f>I79*InputOutput!$C$13</f>
-        <v>-687620.55609002581</v>
+        <v>-573875.98851163103</v>
       </c>
       <c r="J81" s="12">
         <f>J79*InputOutput!$C$13</f>
-        <v>-645079.16171272169</v>
+        <v>-548874.1859875971</v>
       </c>
       <c r="K81" s="12">
         <f>K79*InputOutput!$C$13</f>
-        <v>-601027.54783502326</v>
+        <v>-521622.22123640007</v>
       </c>
       <c r="L81" s="12">
         <f>L79*InputOutput!$C$13</f>
-        <v>-555412.10166466655</v>
+        <v>-491917.57965759531</v>
       </c>
       <c r="M81" s="12">
         <f>M79*InputOutput!$C$13</f>
-        <v>-508177.30715526221</v>
+        <v>-459539.5203366981</v>
       </c>
       <c r="N81" s="12">
         <f>N79*InputOutput!$C$13</f>
-        <v>-459265.67744077399</v>
+        <v>-424247.43567692017</v>
       </c>
       <c r="O81" s="12">
         <f>O79*InputOutput!$C$13</f>
-        <v>-408617.68487142149</v>
+        <v>-385779.06339776219</v>
       </c>
       <c r="P81" s="12">
         <f>P79*InputOutput!$C$13</f>
-        <v>-356171.68856585689</v>
+        <v>-343848.53761347994</v>
       </c>
       <c r="Q81" s="12">
         <f>Q79*InputOutput!$C$13</f>
-        <v>-301863.85939144483</v>
+        <v>-298144.2645086124</v>
       </c>
       <c r="R81" s="12">
         <f>R79*InputOutput!$C$13</f>
-        <v>-245628.1022813411</v>
+        <v>-248326.60682430671</v>
       </c>
       <c r="S81" s="12">
         <f>S79*InputOutput!$C$13</f>
-        <v>-187395.97579382869</v>
+        <v>-194025.35994841353</v>
       </c>
       <c r="T81" s="12">
         <f>T79*InputOutput!$C$13</f>
-        <v>-127096.60881600963</v>
+        <v>-134837.00085368997</v>
       </c>
       <c r="U81" s="12">
         <f>U79*InputOutput!$C$13</f>
-        <v>-64656.614310477955</v>
+        <v>-70321.689440441274</v>
       </c>
       <c r="V81" s="12">
         <f>V79*InputOutput!$C$13</f>
-        <v>9.092036634683608E-11</v>
+        <v>-1.9907020032405853E-10</v>
       </c>
       <c r="W81" s="12">
         <f>W79*InputOutput!$C$13</f>
-        <v>9.092036634683608E-11</v>
+        <v>-1.9907020032405853E-10</v>
       </c>
       <c r="X81" s="12">
         <f>X79*InputOutput!$C$13</f>
-        <v>9.092036634683608E-11</v>
+        <v>-1.9907020032405853E-10</v>
       </c>
       <c r="Y81" s="12">
         <f>Y79*InputOutput!$C$13</f>
-        <v>9.092036634683608E-11</v>
+        <v>-1.9907020032405853E-10</v>
       </c>
       <c r="Z81" s="12">
         <f>Z79*InputOutput!$C$13</f>
-        <v>9.092036634683608E-11</v>
+        <v>-1.9907020032405853E-10</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
@@ -28743,63 +28741,63 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8">
         <f>IF(COUNT($G$1:G1)&lt;=InputOutput!$C$10,(-PMT(InputOutput!$C$13,InputOutput!$C$10,InputOutput!$C$11)),0)</f>
-        <v>-1885969.6934788737</v>
+        <v>-851673.79433423106</v>
       </c>
       <c r="H82" s="8">
         <f>IF(COUNT($G$1:H1)&lt;=InputOutput!$C$10,(-PMT(InputOutput!$C$13,InputOutput!$C$10,InputOutput!$C$11)),0)</f>
-        <v>-1885969.6934788737</v>
+        <v>-851673.79433423106</v>
       </c>
       <c r="I82" s="8">
         <f>IF(COUNT($G$1:I1)&lt;=InputOutput!$C$10,(-PMT(InputOutput!$C$13,InputOutput!$C$10,InputOutput!$C$11)),0)</f>
-        <v>-1885969.6934788737</v>
+        <v>-851673.79433423106</v>
       </c>
       <c r="J82" s="8">
         <f>IF(COUNT($G$1:J1)&lt;=InputOutput!$C$10,(-PMT(InputOutput!$C$13,InputOutput!$C$10,InputOutput!$C$11)),0)</f>
-        <v>-1885969.6934788737</v>
+        <v>-851673.79433423106</v>
       </c>
       <c r="K82" s="8">
         <f>IF(COUNT($G$1:K1)&lt;=InputOutput!$C$10,(-PMT(InputOutput!$C$13,InputOutput!$C$10,InputOutput!$C$11)),0)</f>
-        <v>-1885969.6934788737</v>
+        <v>-851673.79433423106</v>
       </c>
       <c r="L82" s="8">
         <f>IF(COUNT($G$1:L1)&lt;=InputOutput!$C$10,(-PMT(InputOutput!$C$13,InputOutput!$C$10,InputOutput!$C$11)),0)</f>
-        <v>-1885969.6934788737</v>
+        <v>-851673.79433423106</v>
       </c>
       <c r="M82" s="8">
         <f>IF(COUNT($G$1:M1)&lt;=InputOutput!$C$10,(-PMT(InputOutput!$C$13,InputOutput!$C$10,InputOutput!$C$11)),0)</f>
-        <v>-1885969.6934788737</v>
+        <v>-851673.79433423106</v>
       </c>
       <c r="N82" s="8">
         <f>IF(COUNT($G$1:N1)&lt;=InputOutput!$C$10,(-PMT(InputOutput!$C$13,InputOutput!$C$10,InputOutput!$C$11)),0)</f>
-        <v>-1885969.6934788737</v>
+        <v>-851673.79433423106</v>
       </c>
       <c r="O82" s="8">
         <f>IF(COUNT($G$1:O1)&lt;=InputOutput!$C$10,(-PMT(InputOutput!$C$13,InputOutput!$C$10,InputOutput!$C$11)),0)</f>
-        <v>-1885969.6934788737</v>
+        <v>-851673.79433423106</v>
       </c>
       <c r="P82" s="8">
         <f>IF(COUNT($G$1:P1)&lt;=InputOutput!$C$10,(-PMT(InputOutput!$C$13,InputOutput!$C$10,InputOutput!$C$11)),0)</f>
-        <v>-1885969.6934788737</v>
+        <v>-851673.79433423106</v>
       </c>
       <c r="Q82" s="8">
         <f>IF(COUNT($G$1:Q1)&lt;=InputOutput!$C$10,(-PMT(InputOutput!$C$13,InputOutput!$C$10,InputOutput!$C$11)),0)</f>
-        <v>-1885969.6934788737</v>
+        <v>-851673.79433423106</v>
       </c>
       <c r="R82" s="8">
         <f>IF(COUNT($G$1:R1)&lt;=InputOutput!$C$10,(-PMT(InputOutput!$C$13,InputOutput!$C$10,InputOutput!$C$11)),0)</f>
-        <v>-1885969.6934788737</v>
+        <v>-851673.79433423106</v>
       </c>
       <c r="S82" s="8">
         <f>IF(COUNT($G$1:S1)&lt;=InputOutput!$C$10,(-PMT(InputOutput!$C$13,InputOutput!$C$10,InputOutput!$C$11)),0)</f>
-        <v>-1885969.6934788737</v>
+        <v>-851673.79433423106</v>
       </c>
       <c r="T82" s="8">
         <f>IF(COUNT($G$1:T1)&lt;=InputOutput!$C$10,(-PMT(InputOutput!$C$13,InputOutput!$C$10,InputOutput!$C$11)),0)</f>
-        <v>-1885969.6934788737</v>
+        <v>-851673.79433423106</v>
       </c>
       <c r="U82" s="8">
         <f>IF(COUNT($G$1:U1)&lt;=InputOutput!$C$10,(-PMT(InputOutput!$C$13,InputOutput!$C$10,InputOutput!$C$11)),0)</f>
-        <v>-1885969.6934788737</v>
+        <v>-851673.79433423106</v>
       </c>
       <c r="V82" s="8">
         <f>IF(COUNT($G$1:V1)&lt;=InputOutput!$C$10,(-PMT(InputOutput!$C$13,InputOutput!$C$10,InputOutput!$C$11)),0)</f>
@@ -28884,63 +28882,63 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8">
         <f>Calculation!C20*InputOutput!C7</f>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="H85" s="8">
         <f>G85-G86</f>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="I85" s="8">
         <f t="shared" ref="I85:Z85" si="18">H85-H86</f>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="J85" s="8">
         <f t="shared" si="18"/>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="K85" s="8">
         <f t="shared" si="18"/>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="L85" s="8">
         <f t="shared" si="18"/>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="M85" s="8">
         <f t="shared" si="18"/>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="N85" s="8">
         <f t="shared" si="18"/>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="O85" s="8">
         <f t="shared" si="18"/>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="P85" s="8">
         <f t="shared" si="18"/>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="Q85" s="8">
         <f t="shared" si="18"/>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="R85" s="8">
         <f t="shared" si="18"/>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="S85" s="8">
         <f t="shared" si="18"/>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="T85" s="8">
         <f t="shared" si="18"/>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="U85" s="8">
         <f t="shared" si="18"/>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="V85" s="8">
         <f t="shared" si="18"/>
@@ -29030,7 +29028,7 @@
       </c>
       <c r="U86" s="8">
         <f>IF(COUNT($G$1:U1)=InputOutput!$C$10,InputOutput!$C$11,0)</f>
-        <v>-21644451</v>
+        <v>-6865077.0999999996</v>
       </c>
       <c r="V86" s="8">
         <f>IF(COUNT($G$1:V1)=InputOutput!$C$10,InputOutput!$C$11,0)</f>
@@ -29065,63 +29063,63 @@
       <c r="F87" s="12"/>
       <c r="G87" s="12">
         <f>G85*InputOutput!$C$13</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="H87" s="12">
         <f>H85*InputOutput!$C$13</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="I87" s="12">
         <f>I85*InputOutput!$C$13</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="J87" s="12">
         <f>J85*InputOutput!$C$13</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="K87" s="12">
         <f>K85*InputOutput!$C$13</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="L87" s="12">
         <f>L85*InputOutput!$C$13</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="M87" s="12">
         <f>M85*InputOutput!$C$13</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="N87" s="12">
         <f>N85*InputOutput!$C$13</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="O87" s="12">
         <f>O85*InputOutput!$C$13</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="P87" s="12">
         <f>P85*InputOutput!$C$13</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="Q87" s="12">
         <f>Q85*InputOutput!$C$13</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="R87" s="12">
         <f>R85*InputOutput!$C$13</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="S87" s="12">
         <f>S85*InputOutput!$C$13</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="T87" s="12">
         <f>T85*InputOutput!$C$13</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="U87" s="12">
         <f>U85*InputOutput!$C$13</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="V87" s="12">
         <f>V85*InputOutput!$C$13</f>
@@ -29157,63 +29155,63 @@
       <c r="F88" s="19"/>
       <c r="G88" s="19">
         <f t="shared" ref="G88:Z88" si="19">SUM(G86:G87)</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="H88" s="19">
         <f t="shared" si="19"/>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="I88" s="19">
         <f t="shared" si="19"/>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="J88" s="19">
         <f t="shared" si="19"/>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="K88" s="19">
         <f t="shared" si="19"/>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="L88" s="19">
         <f t="shared" si="19"/>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="M88" s="19">
         <f t="shared" si="19"/>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="N88" s="19">
         <f t="shared" si="19"/>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="O88" s="19">
         <f t="shared" si="19"/>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="P88" s="19">
         <f t="shared" si="19"/>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="Q88" s="19">
         <f t="shared" si="19"/>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="R88" s="19">
         <f t="shared" si="19"/>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="S88" s="19">
         <f t="shared" si="19"/>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="T88" s="19">
         <f t="shared" si="19"/>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="U88" s="19">
         <f t="shared" si="19"/>
-        <v>-22412829.010499999</v>
+        <v>-7482934.0389999999</v>
       </c>
       <c r="V88" s="19">
         <f t="shared" si="19"/>
@@ -29301,83 +29299,83 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8">
         <f t="shared" ref="G91:Z91" si="20">G60</f>
-        <v>2948601.5826577889</v>
+        <v>980625.12546425825</v>
       </c>
       <c r="H91" s="8">
         <f t="shared" si="20"/>
-        <v>2935265.1175825894</v>
+        <v>974730.33201425825</v>
       </c>
       <c r="I91" s="8">
         <f t="shared" si="20"/>
-        <v>2921661.9232058851</v>
+        <v>968521.34607337322</v>
       </c>
       <c r="J91" s="8">
         <f t="shared" si="20"/>
-        <v>2907786.6649416471</v>
+        <v>961981.42118183908</v>
       </c>
       <c r="K91" s="8">
         <f t="shared" si="20"/>
-        <v>2893633.9015121241</v>
+        <v>955092.91829358623</v>
       </c>
       <c r="L91" s="8">
         <f t="shared" si="20"/>
-        <v>2879198.0828140108</v>
+        <v>947837.25820138934</v>
       </c>
       <c r="M91" s="8">
         <f t="shared" si="20"/>
-        <v>2864473.5477419356</v>
+        <v>940194.87142627849</v>
       </c>
       <c r="N91" s="8">
         <f t="shared" si="20"/>
-        <v>2849454.5219684183</v>
+        <v>932145.14543605421</v>
       </c>
       <c r="O91" s="8">
         <f t="shared" si="20"/>
-        <v>2834135.1156794308</v>
+        <v>923666.36905055097</v>
       </c>
       <c r="P91" s="8">
         <f t="shared" si="20"/>
-        <v>2818509.3212646637</v>
+        <v>914735.67388370028</v>
       </c>
       <c r="Q91" s="8">
         <f t="shared" si="20"/>
-        <v>2802571.010961601</v>
+        <v>905328.97266445658</v>
       </c>
       <c r="R91" s="8">
         <f t="shared" si="20"/>
-        <v>2786313.9344524774</v>
+        <v>895420.89427022717</v>
       </c>
       <c r="S91" s="8">
         <f t="shared" si="20"/>
-        <v>2769731.716413171</v>
+        <v>884984.71529758535</v>
       </c>
       <c r="T91" s="8">
         <f t="shared" si="20"/>
-        <v>2752817.8540130788</v>
+        <v>873992.28798570181</v>
       </c>
       <c r="U91" s="8">
         <f t="shared" si="20"/>
-        <v>2735565.7143649845</v>
+        <v>862413.96429809474</v>
       </c>
       <c r="V91" s="8">
         <f t="shared" si="20"/>
-        <v>2717968.5319239283</v>
+        <v>850218.51595793827</v>
       </c>
       <c r="W91" s="8">
         <f t="shared" si="20"/>
-        <v>2700019.4058340508</v>
+        <v>837373.05022125132</v>
       </c>
       <c r="X91" s="8">
         <f t="shared" si="20"/>
-        <v>2681711.2972223763</v>
+        <v>823842.92116079922</v>
       </c>
       <c r="Y91" s="8">
         <f t="shared" si="20"/>
-        <v>2663037.0264384681</v>
+        <v>809591.63622142479</v>
       </c>
       <c r="Z91" s="8">
         <f t="shared" si="20"/>
-        <v>2643989.2702388815</v>
+        <v>794580.75779478182</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
@@ -29415,71 +29413,71 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8">
         <f t="shared" ref="G93:Z93" si="21">G69</f>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="H93" s="8">
         <f t="shared" si="21"/>
-        <v>-768378.01049999997</v>
+        <v>-617856.9389999999</v>
       </c>
       <c r="I93" s="8">
         <f t="shared" si="21"/>
-        <v>-742765.41015000001</v>
+        <v>-597261.70769999991</v>
       </c>
       <c r="J93" s="8">
         <f t="shared" si="21"/>
-        <v>-691540.20944999997</v>
+        <v>-556071.24509999994</v>
       </c>
       <c r="K93" s="8">
         <f t="shared" si="21"/>
-        <v>-640315.00875000004</v>
+        <v>-514880.78249999997</v>
       </c>
       <c r="L93" s="8">
         <f t="shared" si="21"/>
-        <v>-589089.80805000011</v>
+        <v>-473690.31989999994</v>
       </c>
       <c r="M93" s="8">
         <f t="shared" si="21"/>
-        <v>-537864.60735000018</v>
+        <v>-432499.85729999997</v>
       </c>
       <c r="N93" s="8">
         <f t="shared" si="21"/>
-        <v>-486639.40665000014</v>
+        <v>-391309.39469999995</v>
       </c>
       <c r="O93" s="8">
         <f t="shared" si="21"/>
-        <v>-435414.20595000009</v>
+        <v>-350118.93209999998</v>
       </c>
       <c r="P93" s="8">
         <f t="shared" si="21"/>
-        <v>-384189.0052500001</v>
+        <v>-308928.46949999995</v>
       </c>
       <c r="Q93" s="8">
         <f t="shared" si="21"/>
-        <v>-332963.80455000012</v>
+        <v>-267738.00689999998</v>
       </c>
       <c r="R93" s="8">
         <f t="shared" si="21"/>
-        <v>-281738.60385000007</v>
+        <v>-226547.54429999998</v>
       </c>
       <c r="S93" s="8">
         <f t="shared" si="21"/>
-        <v>-230513.40315000003</v>
+        <v>-185357.08169999998</v>
       </c>
       <c r="T93" s="8">
         <f t="shared" si="21"/>
-        <v>-179288.20245000004</v>
+        <v>-144166.61909999998</v>
       </c>
       <c r="U93" s="8">
         <f t="shared" si="21"/>
-        <v>-128063.00175000002</v>
+        <v>-102976.1565</v>
       </c>
       <c r="V93" s="8">
         <f t="shared" si="21"/>
-        <v>-76837.801050000053</v>
+        <v>-61785.693899999991</v>
       </c>
       <c r="W93" s="8">
         <f t="shared" si="21"/>
-        <v>-25612.600350000044</v>
+        <v>-20595.231299999999</v>
       </c>
       <c r="X93" s="8">
         <f t="shared" si="21"/>
@@ -29507,67 +29505,67 @@
       <c r="F94" s="12"/>
       <c r="G94" s="12">
         <f t="shared" ref="G94:Z94" si="22">G62</f>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="H94" s="12">
         <f t="shared" si="22"/>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="I94" s="12">
         <f t="shared" si="22"/>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="J94" s="12">
         <f t="shared" si="22"/>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="K94" s="12">
         <f t="shared" si="22"/>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="L94" s="12">
         <f t="shared" si="22"/>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="M94" s="12">
         <f t="shared" si="22"/>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="N94" s="12">
         <f t="shared" si="22"/>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="O94" s="12">
         <f t="shared" si="22"/>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="P94" s="12">
         <f t="shared" si="22"/>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="Q94" s="12">
         <f t="shared" si="22"/>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="R94" s="12">
         <f t="shared" si="22"/>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="S94" s="12">
         <f t="shared" si="22"/>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="T94" s="12">
         <f t="shared" si="22"/>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="U94" s="12">
         <f t="shared" si="22"/>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="V94" s="12">
         <f t="shared" si="22"/>
-        <v>-1803704.25</v>
+        <v>-612953.3125</v>
       </c>
       <c r="W94" s="12">
         <f t="shared" si="22"/>
@@ -29597,83 +29595,83 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8">
         <f t="shared" ref="G95:Z95" si="23">SUM(G91:G94)</f>
-        <v>376519.32215778902</v>
+        <v>-250185.12603574165</v>
       </c>
       <c r="H95" s="8">
         <f t="shared" si="23"/>
-        <v>363182.85708258953</v>
+        <v>-256079.91948574164</v>
       </c>
       <c r="I95" s="8">
         <f t="shared" si="23"/>
-        <v>375192.26305588521</v>
+        <v>-241693.67412662669</v>
       </c>
       <c r="J95" s="8">
         <f t="shared" si="23"/>
-        <v>412542.20549164712</v>
+        <v>-207043.13641816087</v>
       </c>
       <c r="K95" s="8">
         <f t="shared" si="23"/>
-        <v>449614.64276212407</v>
+        <v>-172741.17670641374</v>
       </c>
       <c r="L95" s="8">
         <f t="shared" si="23"/>
-        <v>486404.02476401068</v>
+        <v>-138806.3741986106</v>
       </c>
       <c r="M95" s="8">
         <f t="shared" si="23"/>
-        <v>522904.69039193541</v>
+        <v>-105258.29837372148</v>
       </c>
       <c r="N95" s="8">
         <f t="shared" si="23"/>
-        <v>559110.86531841801</v>
+        <v>-72117.561763945734</v>
       </c>
       <c r="O95" s="8">
         <f t="shared" si="23"/>
-        <v>595016.65972943045</v>
+        <v>-39405.875549449003</v>
       </c>
       <c r="P95" s="8">
         <f t="shared" si="23"/>
-        <v>630616.06601466378</v>
+        <v>-7146.1081162996124</v>
       </c>
       <c r="Q95" s="8">
         <f t="shared" si="23"/>
-        <v>665902.95641160104</v>
+        <v>24637.653264456661</v>
       </c>
       <c r="R95" s="8">
         <f t="shared" si="23"/>
-        <v>700871.0806024773</v>
+        <v>55920.037470227224</v>
       </c>
       <c r="S95" s="8">
         <f t="shared" si="23"/>
-        <v>735514.06326317089</v>
+        <v>86674.321097585373</v>
       </c>
       <c r="T95" s="8">
         <f t="shared" si="23"/>
-        <v>769825.40156307863</v>
+        <v>116872.3563857018</v>
       </c>
       <c r="U95" s="8">
         <f t="shared" si="23"/>
-        <v>803798.46261498472</v>
+        <v>146484.4952980947</v>
       </c>
       <c r="V95" s="8">
         <f t="shared" si="23"/>
-        <v>837426.48087392841</v>
+        <v>175479.50955793832</v>
       </c>
       <c r="W95" s="8">
         <f t="shared" si="23"/>
-        <v>2674406.8054840509</v>
+        <v>816777.81892125134</v>
       </c>
       <c r="X95" s="8">
         <f t="shared" si="23"/>
-        <v>2681711.2972223763</v>
+        <v>823842.92116079922</v>
       </c>
       <c r="Y95" s="8">
         <f t="shared" si="23"/>
-        <v>2663037.0264384681</v>
+        <v>809591.63622142479</v>
       </c>
       <c r="Z95" s="8">
         <f t="shared" si="23"/>
-        <v>2643989.2702388815</v>
+        <v>794580.75779478182</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
@@ -29833,83 +29831,83 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8">
         <f t="shared" ref="G99:Z99" si="24">G95-G98</f>
-        <v>352019.32215778902</v>
+        <v>-274685.12603574165</v>
       </c>
       <c r="H99" s="8">
         <f t="shared" si="24"/>
-        <v>338682.85708258953</v>
+        <v>-280579.91948574164</v>
       </c>
       <c r="I99" s="8">
         <f t="shared" si="24"/>
-        <v>350692.26305588521</v>
+        <v>-266193.67412662669</v>
       </c>
       <c r="J99" s="8">
         <f t="shared" si="24"/>
-        <v>388042.20549164712</v>
+        <v>-231543.13641816087</v>
       </c>
       <c r="K99" s="8">
         <f t="shared" si="24"/>
-        <v>425114.64276212407</v>
+        <v>-197241.17670641374</v>
       </c>
       <c r="L99" s="8">
         <f t="shared" si="24"/>
-        <v>461904.02476401068</v>
+        <v>-163306.3741986106</v>
       </c>
       <c r="M99" s="8">
         <f t="shared" si="24"/>
-        <v>498404.69039193541</v>
+        <v>-129758.29837372148</v>
       </c>
       <c r="N99" s="8">
         <f t="shared" si="24"/>
-        <v>534610.86531841801</v>
+        <v>-96617.561763945734</v>
       </c>
       <c r="O99" s="8">
         <f t="shared" si="24"/>
-        <v>570516.65972943045</v>
+        <v>-63905.875549449003</v>
       </c>
       <c r="P99" s="8">
         <f t="shared" si="24"/>
-        <v>606116.06601466378</v>
+        <v>-31646.108116299612</v>
       </c>
       <c r="Q99" s="8">
         <f t="shared" si="24"/>
-        <v>641402.95641160104</v>
+        <v>137.65326445666142</v>
       </c>
       <c r="R99" s="8">
         <f t="shared" si="24"/>
-        <v>676371.0806024773</v>
+        <v>31420.037470227224</v>
       </c>
       <c r="S99" s="8">
         <f t="shared" si="24"/>
-        <v>711014.06326317089</v>
+        <v>62174.321097585373</v>
       </c>
       <c r="T99" s="8">
         <f t="shared" si="24"/>
-        <v>745325.40156307863</v>
+        <v>92372.356385701802</v>
       </c>
       <c r="U99" s="8">
         <f t="shared" si="24"/>
-        <v>779298.46261498472</v>
+        <v>121984.4952980947</v>
       </c>
       <c r="V99" s="8">
         <f t="shared" si="24"/>
-        <v>812926.48087392841</v>
+        <v>150979.50955793832</v>
       </c>
       <c r="W99" s="8">
         <f t="shared" si="24"/>
-        <v>2649906.8054840509</v>
+        <v>792277.81892125134</v>
       </c>
       <c r="X99" s="8">
         <f t="shared" si="24"/>
-        <v>2657211.2972223763</v>
+        <v>799342.92116079922</v>
       </c>
       <c r="Y99" s="8">
         <f t="shared" si="24"/>
-        <v>2638537.0264384681</v>
+        <v>785091.63622142479</v>
       </c>
       <c r="Z99" s="144">
         <f t="shared" si="24"/>
-        <v>2619489.2702388815</v>
+        <v>770080.75779478182</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
@@ -29921,83 +29919,83 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8">
         <f>G99*InputOutput!$C$18</f>
-        <v>12320.676275522617</v>
+        <v>-9613.9794112509589</v>
       </c>
       <c r="H100" s="8">
         <f>H99*InputOutput!$C$18</f>
-        <v>11853.899997890634</v>
+        <v>-9820.2971820009589</v>
       </c>
       <c r="I100" s="8">
         <f>I99*InputOutput!$C$18</f>
-        <v>12274.229206955984</v>
+        <v>-9316.7785944319348</v>
       </c>
       <c r="J100" s="8">
         <f>J99*InputOutput!$C$18</f>
-        <v>13581.477192207651</v>
+        <v>-8104.0097746356314</v>
       </c>
       <c r="K100" s="8">
         <f>K99*InputOutput!$C$18</f>
-        <v>14879.012496674344</v>
+        <v>-6903.4411847244819</v>
       </c>
       <c r="L100" s="8">
         <f>L99*InputOutput!$C$18</f>
-        <v>16166.640866740376</v>
+        <v>-5715.7230969513721</v>
       </c>
       <c r="M100" s="8">
         <f>M99*InputOutput!$C$18</f>
-        <v>17444.164163717742</v>
+        <v>-4541.5404430802519</v>
       </c>
       <c r="N100" s="8">
         <f>N99*InputOutput!$C$18</f>
-        <v>18711.380286144631</v>
+        <v>-3381.6146617381009</v>
       </c>
       <c r="O100" s="8">
         <f>O99*InputOutput!$C$18</f>
-        <v>19968.083090530068</v>
+        <v>-2236.7056442307153</v>
       </c>
       <c r="P100" s="8">
         <f>P99*InputOutput!$C$18</f>
-        <v>21214.062310513233</v>
+        <v>-1107.6137840704866</v>
       </c>
       <c r="Q100" s="8">
         <f>Q99*InputOutput!$C$18</f>
-        <v>22449.103474406038</v>
+        <v>4.8178642559831504</v>
       </c>
       <c r="R100" s="8">
         <f>R99*InputOutput!$C$18</f>
-        <v>23672.987821086706</v>
+        <v>1099.7013114579529</v>
       </c>
       <c r="S100" s="8">
         <f>S99*InputOutput!$C$18</f>
-        <v>24885.492214210983</v>
+        <v>2176.1012384154883</v>
       </c>
       <c r="T100" s="8">
         <f>T99*InputOutput!$C$18</f>
-        <v>26086.389054707754</v>
+        <v>3233.0324734995634</v>
       </c>
       <c r="U100" s="8">
         <f>U99*InputOutput!$C$18</f>
-        <v>27275.446191524468</v>
+        <v>4269.4573354333152</v>
       </c>
       <c r="V100" s="8">
         <f>V99*InputOutput!$C$18</f>
-        <v>28452.426830587498</v>
+        <v>5284.2828345278413</v>
       </c>
       <c r="W100" s="8">
         <f>W99*InputOutput!$C$18</f>
-        <v>92746.738191941797</v>
+        <v>27729.723662243799</v>
       </c>
       <c r="X100" s="8">
         <f>X99*InputOutput!$C$18</f>
-        <v>93002.395402783179</v>
+        <v>27977.002240627975</v>
       </c>
       <c r="Y100" s="8">
         <f>Y99*InputOutput!$C$18</f>
-        <v>92348.795925346392</v>
+        <v>27478.207267749869</v>
       </c>
       <c r="Z100" s="144">
         <f>Z99*InputOutput!$C$18</f>
-        <v>91682.124458360864</v>
+        <v>26952.826522817366</v>
       </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
@@ -30009,83 +30007,83 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8">
         <f>G100*InputOutput!$C$19</f>
-        <v>46818.569846985942</v>
+        <v>-36533.121762753639</v>
       </c>
       <c r="H101" s="8">
         <f>H100*InputOutput!$C$19</f>
-        <v>45044.819991984405</v>
+        <v>-37317.12929160364</v>
       </c>
       <c r="I101" s="8">
         <f>I100*InputOutput!$C$19</f>
-        <v>46642.070986432736</v>
+        <v>-35403.758658841354</v>
       </c>
       <c r="J101" s="8">
         <f>J100*InputOutput!$C$19</f>
-        <v>51609.613330389067</v>
+        <v>-30795.237143615399</v>
       </c>
       <c r="K101" s="8">
         <f>K100*InputOutput!$C$19</f>
-        <v>56540.247487362503</v>
+        <v>-26233.07650195303</v>
       </c>
       <c r="L101" s="8">
         <f>L100*InputOutput!$C$19</f>
-        <v>61433.235293613427</v>
+        <v>-21719.747768415215</v>
       </c>
       <c r="M101" s="8">
         <f>M100*InputOutput!$C$19</f>
-        <v>66287.823822127422</v>
+        <v>-17257.853683704958</v>
       </c>
       <c r="N101" s="8">
         <f>N100*InputOutput!$C$19</f>
-        <v>71103.245087349598</v>
+        <v>-12850.135714604783</v>
       </c>
       <c r="O101" s="8">
         <f>O100*InputOutput!$C$19</f>
-        <v>75878.715744014262</v>
+        <v>-8499.4814480767182</v>
       </c>
       <c r="P101" s="8">
         <f>P100*InputOutput!$C$19</f>
-        <v>80613.43677995028</v>
+        <v>-4208.9323794678494</v>
       </c>
       <c r="Q101" s="8">
         <f>Q100*InputOutput!$C$19</f>
-        <v>85306.593202742937</v>
+        <v>18.307884172735971</v>
       </c>
       <c r="R101" s="8">
         <f>R100*InputOutput!$C$19</f>
-        <v>89957.353720129482</v>
+        <v>4178.8649835402211</v>
       </c>
       <c r="S101" s="8">
         <f>S100*InputOutput!$C$19</f>
-        <v>94564.870414001736</v>
+        <v>8269.1847059788543</v>
       </c>
       <c r="T101" s="8">
         <f>T100*InputOutput!$C$19</f>
-        <v>99128.278407889462</v>
+        <v>12285.523399298339</v>
       </c>
       <c r="U101" s="8">
         <f>U100*InputOutput!$C$19</f>
-        <v>103646.69552779298</v>
+        <v>16223.937874646597</v>
       </c>
       <c r="V101" s="8">
         <f>V100*InputOutput!$C$19</f>
-        <v>108119.22195623249</v>
+        <v>20080.274771205797</v>
       </c>
       <c r="W101" s="8">
         <f>W100*InputOutput!$C$19</f>
-        <v>352437.60512937879</v>
+        <v>105372.94991652643</v>
       </c>
       <c r="X101" s="8">
         <f>X100*InputOutput!$C$19</f>
-        <v>353409.10253057606</v>
+        <v>106312.6085143863</v>
       </c>
       <c r="Y101" s="8">
         <f>Y100*InputOutput!$C$19</f>
-        <v>350925.42451631627</v>
+        <v>104417.1876174495</v>
       </c>
       <c r="Z101" s="144">
         <f>Z100*InputOutput!$C$19</f>
-        <v>348392.07294177124</v>
+        <v>102420.74078670598</v>
       </c>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.3">
@@ -30099,83 +30097,83 @@
       <c r="F102" s="12"/>
       <c r="G102" s="12">
         <f>G101</f>
-        <v>46818.569846985942</v>
+        <v>-36533.121762753639</v>
       </c>
       <c r="H102" s="12">
         <f t="shared" ref="H102:Z102" si="25">H101</f>
-        <v>45044.819991984405</v>
+        <v>-37317.12929160364</v>
       </c>
       <c r="I102" s="12">
         <f t="shared" si="25"/>
-        <v>46642.070986432736</v>
+        <v>-35403.758658841354</v>
       </c>
       <c r="J102" s="12">
         <f t="shared" si="25"/>
-        <v>51609.613330389067</v>
+        <v>-30795.237143615399</v>
       </c>
       <c r="K102" s="12">
         <f t="shared" si="25"/>
-        <v>56540.247487362503</v>
+        <v>-26233.07650195303</v>
       </c>
       <c r="L102" s="12">
         <f t="shared" si="25"/>
-        <v>61433.235293613427</v>
+        <v>-21719.747768415215</v>
       </c>
       <c r="M102" s="12">
         <f t="shared" si="25"/>
-        <v>66287.823822127422</v>
+        <v>-17257.853683704958</v>
       </c>
       <c r="N102" s="12">
         <f t="shared" si="25"/>
-        <v>71103.245087349598</v>
+        <v>-12850.135714604783</v>
       </c>
       <c r="O102" s="12">
         <f t="shared" si="25"/>
-        <v>75878.715744014262</v>
+        <v>-8499.4814480767182</v>
       </c>
       <c r="P102" s="12">
         <f t="shared" si="25"/>
-        <v>80613.43677995028</v>
+        <v>-4208.9323794678494</v>
       </c>
       <c r="Q102" s="12">
         <f t="shared" si="25"/>
-        <v>85306.593202742937</v>
+        <v>18.307884172735971</v>
       </c>
       <c r="R102" s="12">
         <f t="shared" si="25"/>
-        <v>89957.353720129482</v>
+        <v>4178.8649835402211</v>
       </c>
       <c r="S102" s="12">
         <f t="shared" si="25"/>
-        <v>94564.870414001736</v>
+        <v>8269.1847059788543</v>
       </c>
       <c r="T102" s="12">
         <f t="shared" si="25"/>
-        <v>99128.278407889462</v>
+        <v>12285.523399298339</v>
       </c>
       <c r="U102" s="12">
         <f t="shared" si="25"/>
-        <v>103646.69552779298</v>
+        <v>16223.937874646597</v>
       </c>
       <c r="V102" s="12">
         <f t="shared" si="25"/>
-        <v>108119.22195623249</v>
+        <v>20080.274771205797</v>
       </c>
       <c r="W102" s="12">
         <f t="shared" si="25"/>
-        <v>352437.60512937879</v>
+        <v>105372.94991652643</v>
       </c>
       <c r="X102" s="12">
         <f t="shared" si="25"/>
-        <v>353409.10253057606</v>
+        <v>106312.6085143863</v>
       </c>
       <c r="Y102" s="12">
         <f t="shared" si="25"/>
-        <v>350925.42451631627</v>
+        <v>104417.1876174495</v>
       </c>
       <c r="Z102" s="145">
         <f t="shared" si="25"/>
-        <v>348392.07294177124</v>
+        <v>102420.74078670598</v>
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.3">
@@ -30243,83 +30241,83 @@
       </c>
       <c r="G105" s="8">
         <f t="shared" ref="G105:Z105" si="26">G95</f>
-        <v>376519.32215778902</v>
+        <v>-250185.12603574165</v>
       </c>
       <c r="H105" s="8">
         <f t="shared" si="26"/>
-        <v>363182.85708258953</v>
+        <v>-256079.91948574164</v>
       </c>
       <c r="I105" s="8">
         <f t="shared" si="26"/>
-        <v>375192.26305588521</v>
+        <v>-241693.67412662669</v>
       </c>
       <c r="J105" s="8">
         <f t="shared" si="26"/>
-        <v>412542.20549164712</v>
+        <v>-207043.13641816087</v>
       </c>
       <c r="K105" s="8">
         <f t="shared" si="26"/>
-        <v>449614.64276212407</v>
+        <v>-172741.17670641374</v>
       </c>
       <c r="L105" s="8">
         <f t="shared" si="26"/>
-        <v>486404.02476401068</v>
+        <v>-138806.3741986106</v>
       </c>
       <c r="M105" s="8">
         <f t="shared" si="26"/>
-        <v>522904.69039193541</v>
+        <v>-105258.29837372148</v>
       </c>
       <c r="N105" s="8">
         <f t="shared" si="26"/>
-        <v>559110.86531841801</v>
+        <v>-72117.561763945734</v>
       </c>
       <c r="O105" s="8">
         <f t="shared" si="26"/>
-        <v>595016.65972943045</v>
+        <v>-39405.875549449003</v>
       </c>
       <c r="P105" s="8">
         <f t="shared" si="26"/>
-        <v>630616.06601466378</v>
+        <v>-7146.1081162996124</v>
       </c>
       <c r="Q105" s="8">
         <f t="shared" si="26"/>
-        <v>665902.95641160104</v>
+        <v>24637.653264456661</v>
       </c>
       <c r="R105" s="8">
         <f t="shared" si="26"/>
-        <v>700871.0806024773</v>
+        <v>55920.037470227224</v>
       </c>
       <c r="S105" s="8">
         <f t="shared" si="26"/>
-        <v>735514.06326317089</v>
+        <v>86674.321097585373</v>
       </c>
       <c r="T105" s="8">
         <f t="shared" si="26"/>
-        <v>769825.40156307863</v>
+        <v>116872.3563857018</v>
       </c>
       <c r="U105" s="8">
         <f t="shared" si="26"/>
-        <v>803798.46261498472</v>
+        <v>146484.4952980947</v>
       </c>
       <c r="V105" s="8">
         <f t="shared" si="26"/>
-        <v>837426.48087392841</v>
+        <v>175479.50955793832</v>
       </c>
       <c r="W105" s="8">
         <f t="shared" si="26"/>
-        <v>2674406.8054840509</v>
+        <v>816777.81892125134</v>
       </c>
       <c r="X105" s="8">
         <f t="shared" si="26"/>
-        <v>2681711.2972223763</v>
+        <v>823842.92116079922</v>
       </c>
       <c r="Y105" s="8">
         <f t="shared" si="26"/>
-        <v>2663037.0264384681</v>
+        <v>809591.63622142479</v>
       </c>
       <c r="Z105" s="8">
         <f t="shared" si="26"/>
-        <v>2643989.2702388815</v>
+        <v>794580.75779478182</v>
       </c>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.3">
@@ -30338,71 +30336,71 @@
       </c>
       <c r="H106" s="12">
         <f>IF(G107&lt;0,G107,0)</f>
-        <v>0</v>
+        <v>-250185.12603574165</v>
       </c>
       <c r="I106" s="12">
         <f t="shared" ref="I106:Z106" si="27">IF(H107&lt;0,H107,0)</f>
-        <v>0</v>
+        <v>-506265.04552148329</v>
       </c>
       <c r="J106" s="12">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-747958.71964810998</v>
       </c>
       <c r="K106" s="12">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-955001.85606627085</v>
       </c>
       <c r="L106" s="12">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-1127743.0327726845</v>
       </c>
       <c r="M106" s="12">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-1266549.4069712951</v>
       </c>
       <c r="N106" s="12">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-1371807.7053450167</v>
       </c>
       <c r="O106" s="12">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-1443925.2671089624</v>
       </c>
       <c r="P106" s="12">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-1483331.1426584115</v>
       </c>
       <c r="Q106" s="12">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-1490477.2507747111</v>
       </c>
       <c r="R106" s="12">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-1465839.5975102545</v>
       </c>
       <c r="S106" s="12">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-1409919.5600400274</v>
       </c>
       <c r="T106" s="12">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-1323245.238942442</v>
       </c>
       <c r="U106" s="12">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-1206372.8825567402</v>
       </c>
       <c r="V106" s="12">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-1059888.3872586456</v>
       </c>
       <c r="W106" s="12">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-884408.87770070729</v>
       </c>
       <c r="X106" s="12">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-67631.058779455954</v>
       </c>
       <c r="Y106" s="12">
         <f t="shared" si="27"/>
@@ -30426,83 +30424,83 @@
       <c r="F107" s="11"/>
       <c r="G107" s="12">
         <f t="shared" ref="G107:Z107" si="28">SUM(G105:G106)</f>
-        <v>376519.32215778902</v>
+        <v>-250185.12603574165</v>
       </c>
       <c r="H107" s="12">
         <f t="shared" si="28"/>
-        <v>363182.85708258953</v>
+        <v>-506265.04552148329</v>
       </c>
       <c r="I107" s="12">
         <f t="shared" si="28"/>
-        <v>375192.26305588521</v>
+        <v>-747958.71964810998</v>
       </c>
       <c r="J107" s="12">
         <f t="shared" si="28"/>
-        <v>412542.20549164712</v>
+        <v>-955001.85606627085</v>
       </c>
       <c r="K107" s="12">
         <f t="shared" si="28"/>
-        <v>449614.64276212407</v>
+        <v>-1127743.0327726845</v>
       </c>
       <c r="L107" s="12">
         <f t="shared" si="28"/>
-        <v>486404.02476401068</v>
+        <v>-1266549.4069712951</v>
       </c>
       <c r="M107" s="12">
         <f t="shared" si="28"/>
-        <v>522904.69039193541</v>
+        <v>-1371807.7053450167</v>
       </c>
       <c r="N107" s="12">
         <f t="shared" si="28"/>
-        <v>559110.86531841801</v>
+        <v>-1443925.2671089624</v>
       </c>
       <c r="O107" s="12">
         <f t="shared" si="28"/>
-        <v>595016.65972943045</v>
+        <v>-1483331.1426584115</v>
       </c>
       <c r="P107" s="12">
         <f t="shared" si="28"/>
-        <v>630616.06601466378</v>
+        <v>-1490477.2507747111</v>
       </c>
       <c r="Q107" s="12">
         <f t="shared" si="28"/>
-        <v>665902.95641160104</v>
+        <v>-1465839.5975102545</v>
       </c>
       <c r="R107" s="12">
         <f t="shared" si="28"/>
-        <v>700871.0806024773</v>
+        <v>-1409919.5600400274</v>
       </c>
       <c r="S107" s="12">
         <f t="shared" si="28"/>
-        <v>735514.06326317089</v>
+        <v>-1323245.238942442</v>
       </c>
       <c r="T107" s="12">
         <f t="shared" si="28"/>
-        <v>769825.40156307863</v>
+        <v>-1206372.8825567402</v>
       </c>
       <c r="U107" s="12">
         <f t="shared" si="28"/>
-        <v>803798.46261498472</v>
+        <v>-1059888.3872586456</v>
       </c>
       <c r="V107" s="12">
         <f t="shared" si="28"/>
-        <v>837426.48087392841</v>
+        <v>-884408.87770070729</v>
       </c>
       <c r="W107" s="12">
         <f t="shared" si="28"/>
-        <v>2674406.8054840509</v>
+        <v>-67631.058779455954</v>
       </c>
       <c r="X107" s="12">
         <f t="shared" si="28"/>
-        <v>2681711.2972223763</v>
+        <v>756211.86238134326</v>
       </c>
       <c r="Y107" s="12">
         <f t="shared" si="28"/>
-        <v>2663037.0264384681</v>
+        <v>809591.63622142479</v>
       </c>
       <c r="Z107" s="12">
         <f t="shared" si="28"/>
-        <v>2643989.2702388815</v>
+        <v>794580.75779478182</v>
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.3">
@@ -30661,83 +30659,83 @@
       <c r="F111" s="11"/>
       <c r="G111" s="12">
         <f t="shared" ref="G111:Z111" si="29">G107</f>
-        <v>376519.32215778902</v>
+        <v>-250185.12603574165</v>
       </c>
       <c r="H111" s="12">
         <f t="shared" si="29"/>
-        <v>363182.85708258953</v>
+        <v>-506265.04552148329</v>
       </c>
       <c r="I111" s="12">
         <f t="shared" si="29"/>
-        <v>375192.26305588521</v>
+        <v>-747958.71964810998</v>
       </c>
       <c r="J111" s="12">
         <f t="shared" si="29"/>
-        <v>412542.20549164712</v>
+        <v>-955001.85606627085</v>
       </c>
       <c r="K111" s="12">
         <f t="shared" si="29"/>
-        <v>449614.64276212407</v>
+        <v>-1127743.0327726845</v>
       </c>
       <c r="L111" s="12">
         <f t="shared" si="29"/>
-        <v>486404.02476401068</v>
+        <v>-1266549.4069712951</v>
       </c>
       <c r="M111" s="12">
         <f t="shared" si="29"/>
-        <v>522904.69039193541</v>
+        <v>-1371807.7053450167</v>
       </c>
       <c r="N111" s="12">
         <f t="shared" si="29"/>
-        <v>559110.86531841801</v>
+        <v>-1443925.2671089624</v>
       </c>
       <c r="O111" s="12">
         <f t="shared" si="29"/>
-        <v>595016.65972943045</v>
+        <v>-1483331.1426584115</v>
       </c>
       <c r="P111" s="12">
         <f t="shared" si="29"/>
-        <v>630616.06601466378</v>
+        <v>-1490477.2507747111</v>
       </c>
       <c r="Q111" s="12">
         <f t="shared" si="29"/>
-        <v>665902.95641160104</v>
+        <v>-1465839.5975102545</v>
       </c>
       <c r="R111" s="12">
         <f t="shared" si="29"/>
-        <v>700871.0806024773</v>
+        <v>-1409919.5600400274</v>
       </c>
       <c r="S111" s="12">
         <f t="shared" si="29"/>
-        <v>735514.06326317089</v>
+        <v>-1323245.238942442</v>
       </c>
       <c r="T111" s="12">
         <f t="shared" si="29"/>
-        <v>769825.40156307863</v>
+        <v>-1206372.8825567402</v>
       </c>
       <c r="U111" s="12">
         <f t="shared" si="29"/>
-        <v>803798.46261498472</v>
+        <v>-1059888.3872586456</v>
       </c>
       <c r="V111" s="12">
         <f t="shared" si="29"/>
-        <v>837426.48087392841</v>
+        <v>-884408.87770070729</v>
       </c>
       <c r="W111" s="12">
         <f t="shared" si="29"/>
-        <v>2674406.8054840509</v>
+        <v>-67631.058779455954</v>
       </c>
       <c r="X111" s="12">
         <f t="shared" si="29"/>
-        <v>2681711.2972223763</v>
+        <v>756211.86238134326</v>
       </c>
       <c r="Y111" s="12">
         <f t="shared" si="29"/>
-        <v>2663037.0264384681</v>
+        <v>809591.63622142479</v>
       </c>
       <c r="Z111" s="12">
         <f t="shared" si="29"/>
-        <v>2643989.2702388815</v>
+        <v>794580.75779478182</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.3">
@@ -30753,83 +30751,83 @@
       <c r="F112" s="11"/>
       <c r="G112" s="12">
         <f t="shared" ref="G112:Z112" si="30">IF(G110*G111&gt;=0,-G110*G111,0)</f>
-        <v>-7530.3864431557804</v>
+        <v>0</v>
       </c>
       <c r="H112" s="12">
         <f t="shared" si="30"/>
-        <v>-7263.6571416517909</v>
+        <v>0</v>
       </c>
       <c r="I112" s="12">
         <f t="shared" si="30"/>
-        <v>-7503.8452611177045</v>
+        <v>0</v>
       </c>
       <c r="J112" s="12">
         <f t="shared" si="30"/>
-        <v>-8250.8441098329422</v>
+        <v>0</v>
       </c>
       <c r="K112" s="12">
         <f t="shared" si="30"/>
-        <v>-8992.2928552424819</v>
+        <v>0</v>
       </c>
       <c r="L112" s="12">
         <f t="shared" si="30"/>
-        <v>-9728.0804952802137</v>
+        <v>0</v>
       </c>
       <c r="M112" s="12">
         <f t="shared" si="30"/>
-        <v>-10458.093807838708</v>
+        <v>0</v>
       </c>
       <c r="N112" s="12">
         <f t="shared" si="30"/>
-        <v>-11182.21730636836</v>
+        <v>0</v>
       </c>
       <c r="O112" s="12">
         <f t="shared" si="30"/>
-        <v>-11900.333194588609</v>
+        <v>0</v>
       </c>
       <c r="P112" s="12">
         <f t="shared" si="30"/>
-        <v>-12612.321320293277</v>
+        <v>0</v>
       </c>
       <c r="Q112" s="12">
         <f t="shared" si="30"/>
-        <v>-13318.059128232022</v>
+        <v>0</v>
       </c>
       <c r="R112" s="12">
         <f t="shared" si="30"/>
-        <v>-14017.421612049546</v>
+        <v>0</v>
       </c>
       <c r="S112" s="12">
         <f t="shared" si="30"/>
-        <v>-14710.281265263418</v>
+        <v>0</v>
       </c>
       <c r="T112" s="12">
         <f t="shared" si="30"/>
-        <v>-15396.508031261574</v>
+        <v>0</v>
       </c>
       <c r="U112" s="12">
         <f t="shared" si="30"/>
-        <v>-16075.969252299694</v>
+        <v>0</v>
       </c>
       <c r="V112" s="12">
         <f t="shared" si="30"/>
-        <v>-16748.529617478569</v>
+        <v>0</v>
       </c>
       <c r="W112" s="12">
         <f t="shared" si="30"/>
-        <v>-53488.136109681021</v>
+        <v>0</v>
       </c>
       <c r="X112" s="12">
         <f t="shared" si="30"/>
-        <v>-53634.225944447528</v>
+        <v>-15124.237247626865</v>
       </c>
       <c r="Y112" s="12">
         <f t="shared" si="30"/>
-        <v>-53260.740528769362</v>
+        <v>-16191.832724428496</v>
       </c>
       <c r="Z112" s="12">
         <f t="shared" si="30"/>
-        <v>-52879.785404777627</v>
+        <v>-15891.615155895637</v>
       </c>
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.3">
@@ -30866,83 +30864,83 @@
       </c>
       <c r="G114" s="8">
         <f>G112-G102</f>
-        <v>-54348.956290141723</v>
+        <v>36533.121762753639</v>
       </c>
       <c r="H114" s="8">
         <f t="shared" ref="H114:Z114" si="31">H112-H102</f>
-        <v>-52308.477133636196</v>
+        <v>37317.12929160364</v>
       </c>
       <c r="I114" s="8">
         <f t="shared" si="31"/>
-        <v>-54145.916247550442</v>
+        <v>35403.758658841354</v>
       </c>
       <c r="J114" s="8">
         <f t="shared" si="31"/>
-        <v>-59860.45744022201</v>
+        <v>30795.237143615399</v>
       </c>
       <c r="K114" s="8">
         <f t="shared" si="31"/>
-        <v>-65532.540342604989</v>
+        <v>26233.07650195303</v>
       </c>
       <c r="L114" s="8">
         <f t="shared" si="31"/>
-        <v>-71161.31578889364</v>
+        <v>21719.747768415215</v>
       </c>
       <c r="M114" s="8">
         <f t="shared" si="31"/>
-        <v>-76745.917629966134</v>
+        <v>17257.853683704958</v>
       </c>
       <c r="N114" s="8">
         <f t="shared" si="31"/>
-        <v>-82285.462393717957</v>
+        <v>12850.135714604783</v>
       </c>
       <c r="O114" s="8">
         <f t="shared" si="31"/>
-        <v>-87779.048938602878</v>
+        <v>8499.4814480767182</v>
       </c>
       <c r="P114" s="8">
         <f t="shared" si="31"/>
-        <v>-93225.758100243562</v>
+        <v>4208.9323794678494</v>
       </c>
       <c r="Q114" s="8">
         <f t="shared" si="31"/>
-        <v>-98624.652330974961</v>
+        <v>-18.307884172735971</v>
       </c>
       <c r="R114" s="8">
         <f t="shared" si="31"/>
-        <v>-103974.77533217902</v>
+        <v>-4178.8649835402211</v>
       </c>
       <c r="S114" s="8">
         <f t="shared" si="31"/>
-        <v>-109275.15167926515</v>
+        <v>-8269.1847059788543</v>
       </c>
       <c r="T114" s="8">
         <f t="shared" si="31"/>
-        <v>-114524.78643915104</v>
+        <v>-12285.523399298339</v>
       </c>
       <c r="U114" s="8">
         <f t="shared" si="31"/>
-        <v>-119722.66478009267</v>
+        <v>-16223.937874646597</v>
       </c>
       <c r="V114" s="8">
         <f t="shared" si="31"/>
-        <v>-124867.75157371105</v>
+        <v>-20080.274771205797</v>
       </c>
       <c r="W114" s="8">
         <f t="shared" si="31"/>
-        <v>-405925.74123905983</v>
+        <v>-105372.94991652643</v>
       </c>
       <c r="X114" s="8">
         <f t="shared" si="31"/>
-        <v>-407043.32847502356</v>
+        <v>-121436.84576201317</v>
       </c>
       <c r="Y114" s="8">
         <f t="shared" si="31"/>
-        <v>-404186.16504508565</v>
+        <v>-120609.020341878</v>
       </c>
       <c r="Z114" s="8">
         <f t="shared" si="31"/>
-        <v>-401271.85834654886</v>
+        <v>-118312.35594260161</v>
       </c>
     </row>
     <row r="115" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -30957,87 +30955,87 @@
       <c r="E115" s="18"/>
       <c r="F115" s="19">
         <f>F64-F62</f>
-        <v>-28859268</v>
+        <v>-9807253</v>
       </c>
       <c r="G115" s="19">
         <f t="shared" ref="G115:Z115" si="32">G95+G114</f>
-        <v>322170.36586764728</v>
+        <v>-213652.00427298801</v>
       </c>
       <c r="H115" s="19">
         <f t="shared" si="32"/>
-        <v>310874.37994895334</v>
+        <v>-218762.79019413801</v>
       </c>
       <c r="I115" s="19">
         <f t="shared" si="32"/>
-        <v>321046.34680833475</v>
+        <v>-206289.91546778532</v>
       </c>
       <c r="J115" s="19">
         <f t="shared" si="32"/>
-        <v>352681.74805142509</v>
+        <v>-176247.89927454546</v>
       </c>
       <c r="K115" s="19">
         <f t="shared" si="32"/>
-        <v>384082.1024195191</v>
+        <v>-146508.1002044607</v>
       </c>
       <c r="L115" s="19">
         <f t="shared" si="32"/>
-        <v>415242.70897511707</v>
+        <v>-117086.62643019539</v>
       </c>
       <c r="M115" s="19">
         <f t="shared" si="32"/>
-        <v>446158.77276196925</v>
+        <v>-88000.44469001652</v>
       </c>
       <c r="N115" s="19">
         <f t="shared" si="32"/>
-        <v>476825.40292470006</v>
+        <v>-59267.426049340953</v>
       </c>
       <c r="O115" s="19">
         <f t="shared" si="32"/>
-        <v>507237.61079082754</v>
+        <v>-30906.394101372287</v>
       </c>
       <c r="P115" s="19">
         <f t="shared" si="32"/>
-        <v>537390.30791442026</v>
+        <v>-2937.1757368317631</v>
       </c>
       <c r="Q115" s="19">
         <f t="shared" si="32"/>
-        <v>567278.30408062611</v>
+        <v>24619.345380283925</v>
       </c>
       <c r="R115" s="19">
         <f t="shared" si="32"/>
-        <v>596896.30527029827</v>
+        <v>51741.172486687006</v>
       </c>
       <c r="S115" s="19">
         <f t="shared" si="32"/>
-        <v>626238.91158390569</v>
+        <v>78405.136391606517</v>
       </c>
       <c r="T115" s="19">
         <f t="shared" si="32"/>
-        <v>655300.61512392759</v>
+        <v>104586.83298640346</v>
       </c>
       <c r="U115" s="19">
         <f t="shared" si="32"/>
-        <v>684075.79783489206</v>
+        <v>130260.5574234481</v>
       </c>
       <c r="V115" s="19">
         <f t="shared" si="32"/>
-        <v>712558.72930021735</v>
+        <v>155399.23478673253</v>
       </c>
       <c r="W115" s="19">
         <f t="shared" si="32"/>
-        <v>2268481.0642449912</v>
+        <v>711404.8690047249</v>
       </c>
       <c r="X115" s="19">
         <f t="shared" si="32"/>
-        <v>2274667.9687473527</v>
+        <v>702406.07539878599</v>
       </c>
       <c r="Y115" s="19">
         <f t="shared" si="32"/>
-        <v>2258850.8613933823</v>
+        <v>688982.61587954685</v>
       </c>
       <c r="Z115" s="19">
         <f t="shared" si="32"/>
-        <v>2242717.4118923326</v>
+        <v>676268.40185218025</v>
       </c>
     </row>
     <row r="116" spans="1:27" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -31074,11 +31072,11 @@
       <c r="F117" s="14"/>
       <c r="G117" s="24">
         <f>IF(G67&lt;0,Calculation!G74-(InputOutput!$C$11/InputOutput!$C$10),0)</f>
-        <v>1442963.4</v>
+        <v>457671.80666666664</v>
       </c>
       <c r="H117" s="24">
         <f>IF(H67&lt;0,Calculation!H74-(InputOutput!$C$11/InputOutput!$C$10),0)</f>
-        <v>1442963.4</v>
+        <v>457671.80666666664</v>
       </c>
       <c r="I117" s="24">
         <f>IF(I67&lt;0,Calculation!I74-(InputOutput!$C$11/InputOutput!$C$10),0)</f>
@@ -31164,83 +31162,83 @@
       <c r="F118" s="18"/>
       <c r="G118" s="19">
         <f>SUM($G$117:G117)</f>
-        <v>1442963.4</v>
+        <v>457671.80666666664</v>
       </c>
       <c r="H118" s="19">
         <f>SUM($G$117:H117)</f>
-        <v>2885926.8</v>
+        <v>915343.61333333328</v>
       </c>
       <c r="I118" s="19">
         <f>SUM($G$117:I117)</f>
-        <v>2885926.8</v>
+        <v>915343.61333333328</v>
       </c>
       <c r="J118" s="19">
         <f>SUM($G$117:J117)</f>
-        <v>2885926.8</v>
+        <v>915343.61333333328</v>
       </c>
       <c r="K118" s="19">
         <f>SUM($G$117:K117)</f>
-        <v>2885926.8</v>
+        <v>915343.61333333328</v>
       </c>
       <c r="L118" s="19">
         <f>SUM($G$117:L117)</f>
-        <v>2885926.8</v>
+        <v>915343.61333333328</v>
       </c>
       <c r="M118" s="19">
         <f>SUM($G$117:M117)</f>
-        <v>2885926.8</v>
+        <v>915343.61333333328</v>
       </c>
       <c r="N118" s="19">
         <f>SUM($G$117:N117)</f>
-        <v>2885926.8</v>
+        <v>915343.61333333328</v>
       </c>
       <c r="O118" s="19">
         <f>SUM($G$117:O117)</f>
-        <v>2885926.8</v>
+        <v>915343.61333333328</v>
       </c>
       <c r="P118" s="19">
         <f>SUM($G$117:P117)</f>
-        <v>2885926.8</v>
+        <v>915343.61333333328</v>
       </c>
       <c r="Q118" s="19">
         <f>SUM($G$117:Q117)</f>
-        <v>2885926.8</v>
+        <v>915343.61333333328</v>
       </c>
       <c r="R118" s="19">
         <f>SUM($G$117:R117)</f>
-        <v>2885926.8</v>
+        <v>915343.61333333328</v>
       </c>
       <c r="S118" s="19">
         <f>SUM($G$117:S117)</f>
-        <v>2885926.8</v>
+        <v>915343.61333333328</v>
       </c>
       <c r="T118" s="19">
         <f>SUM($G$117:T117)</f>
-        <v>2885926.8</v>
+        <v>915343.61333333328</v>
       </c>
       <c r="U118" s="19">
         <f>SUM($G$117:U117)</f>
-        <v>2885926.8</v>
+        <v>915343.61333333328</v>
       </c>
       <c r="V118" s="19">
         <f>SUM($G$117:V117)</f>
-        <v>2885926.8</v>
+        <v>915343.61333333328</v>
       </c>
       <c r="W118" s="19">
         <f>SUM($G$117:W117)</f>
-        <v>2885926.8</v>
+        <v>915343.61333333328</v>
       </c>
       <c r="X118" s="19">
         <f>SUM($G$117:X117)</f>
-        <v>2885926.8</v>
+        <v>915343.61333333328</v>
       </c>
       <c r="Y118" s="19">
         <f>SUM($G$117:Y117)</f>
-        <v>2885926.8</v>
+        <v>915343.61333333328</v>
       </c>
       <c r="Z118" s="19">
         <f>SUM($G$117:Z117)</f>
-        <v>2885926.8</v>
+        <v>915343.61333333328</v>
       </c>
     </row>
     <row r="119" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -31281,87 +31279,87 @@
       </c>
       <c r="F121" s="23">
         <f>F60-F112</f>
-        <v>-28859268</v>
+        <v>-9807253</v>
       </c>
       <c r="G121" s="23">
         <f>G60+G112-G102</f>
-        <v>2894252.6263676472</v>
+        <v>1017158.2472270119</v>
       </c>
       <c r="H121" s="23">
         <f t="shared" ref="H121:Z121" si="33">H60+H112-H102</f>
-        <v>2882956.640448953</v>
+        <v>1012047.4613058619</v>
       </c>
       <c r="I121" s="23">
         <f t="shared" si="33"/>
-        <v>2867516.0069583342</v>
+        <v>1003925.1047322146</v>
       </c>
       <c r="J121" s="23">
         <f t="shared" si="33"/>
-        <v>2847926.2075014254</v>
+        <v>992776.65832545445</v>
       </c>
       <c r="K121" s="23">
         <f t="shared" si="33"/>
-        <v>2828101.3611695194</v>
+        <v>981325.9947955393</v>
       </c>
       <c r="L121" s="23">
         <f t="shared" si="33"/>
-        <v>2808036.7670251173</v>
+        <v>969557.0059698046</v>
       </c>
       <c r="M121" s="23">
         <f t="shared" si="33"/>
-        <v>2787727.6301119691</v>
+        <v>957452.72510998347</v>
       </c>
       <c r="N121" s="23">
         <f t="shared" si="33"/>
-        <v>2767169.0595747</v>
+        <v>944995.28115065896</v>
       </c>
       <c r="O121" s="23">
         <f t="shared" si="33"/>
-        <v>2746356.0667408276</v>
+        <v>932165.85049862764</v>
       </c>
       <c r="P121" s="23">
         <f t="shared" si="33"/>
-        <v>2725283.56316442</v>
+        <v>918944.60626316816</v>
       </c>
       <c r="Q121" s="23">
         <f t="shared" si="33"/>
-        <v>2703946.3586306265</v>
+        <v>905310.66478028381</v>
       </c>
       <c r="R121" s="23">
         <f t="shared" si="33"/>
-        <v>2682339.1591202985</v>
+        <v>891242.02928668691</v>
       </c>
       <c r="S121" s="23">
         <f t="shared" si="33"/>
-        <v>2660456.5647339057</v>
+        <v>876715.53059160651</v>
       </c>
       <c r="T121" s="23">
         <f t="shared" si="33"/>
-        <v>2638293.0675739278</v>
+        <v>861706.7645864035</v>
       </c>
       <c r="U121" s="23">
         <f t="shared" si="33"/>
-        <v>2615843.0495848921</v>
+        <v>846190.02642344811</v>
       </c>
       <c r="V121" s="23">
         <f t="shared" si="33"/>
-        <v>2593100.7803502171</v>
+        <v>830138.24118673243</v>
       </c>
       <c r="W121" s="23">
         <f t="shared" si="33"/>
-        <v>2294093.6645949911</v>
+        <v>732000.10030472488</v>
       </c>
       <c r="X121" s="23">
         <f t="shared" si="33"/>
-        <v>2274667.9687473532</v>
+        <v>702406.07539878599</v>
       </c>
       <c r="Y121" s="23">
         <f t="shared" si="33"/>
-        <v>2258850.8613933828</v>
+        <v>688982.61587954685</v>
       </c>
       <c r="Z121" s="23">
         <f t="shared" si="33"/>
-        <v>2242717.4118923326</v>
+        <v>676268.40185218025</v>
       </c>
     </row>
     <row r="122" spans="1:27" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -31379,87 +31377,87 @@
       </c>
       <c r="F123" s="23">
         <f>-InputOutput!C8</f>
-        <v>-7214817</v>
+        <v>-2942175.9000000004</v>
       </c>
       <c r="G123" s="23">
         <f t="shared" ref="G123:Z123" si="34">G121+G69+G68</f>
-        <v>2125874.6158676473</v>
+        <v>399301.30822701205</v>
       </c>
       <c r="H123" s="23">
         <f t="shared" si="34"/>
-        <v>2114578.6299489532</v>
+        <v>394190.52230586205</v>
       </c>
       <c r="I123" s="23">
         <f t="shared" si="34"/>
-        <v>681787.19680833444</v>
+        <v>-51008.409634451964</v>
       </c>
       <c r="J123" s="23">
         <f t="shared" si="34"/>
-        <v>713422.59805142554</v>
+        <v>-20966.393441212131</v>
       </c>
       <c r="K123" s="23">
         <f t="shared" si="34"/>
-        <v>744822.95241951942</v>
+        <v>8773.4056288726861</v>
       </c>
       <c r="L123" s="23">
         <f t="shared" si="34"/>
-        <v>775983.55897511728</v>
+        <v>38194.879403138009</v>
       </c>
       <c r="M123" s="23">
         <f t="shared" si="34"/>
-        <v>806899.62276196899</v>
+        <v>67281.061143316794</v>
       </c>
       <c r="N123" s="23">
         <f t="shared" si="34"/>
-        <v>837566.2529246998</v>
+        <v>96014.079783992376</v>
       </c>
       <c r="O123" s="23">
         <f t="shared" si="34"/>
-        <v>867978.4607908274</v>
+        <v>124375.11173196102</v>
       </c>
       <c r="P123" s="23">
         <f t="shared" si="34"/>
-        <v>898131.15791442012</v>
+        <v>152344.33009650162</v>
       </c>
       <c r="Q123" s="23">
         <f t="shared" si="34"/>
-        <v>928019.15408062655</v>
+        <v>179900.85121361725</v>
       </c>
       <c r="R123" s="23">
         <f t="shared" si="34"/>
-        <v>957637.15527029848</v>
+        <v>207022.67832002032</v>
       </c>
       <c r="S123" s="23">
         <f t="shared" si="34"/>
-        <v>986979.76158390567</v>
+        <v>233686.64222493989</v>
       </c>
       <c r="T123" s="23">
         <f t="shared" si="34"/>
-        <v>1016041.4651239277</v>
+        <v>259868.33881973685</v>
       </c>
       <c r="U123" s="23">
         <f t="shared" si="34"/>
-        <v>1044816.6478348924</v>
+        <v>285542.06325678143</v>
       </c>
       <c r="V123" s="23">
         <f t="shared" si="34"/>
-        <v>1073299.5793002173</v>
+        <v>310680.74062006583</v>
       </c>
       <c r="W123" s="23">
         <f t="shared" si="34"/>
-        <v>825517.66424499126</v>
+        <v>253733.06233805825</v>
       </c>
       <c r="X123" s="23">
         <f t="shared" si="34"/>
-        <v>2274667.9687473532</v>
+        <v>702406.07539878599</v>
       </c>
       <c r="Y123" s="23">
         <f t="shared" si="34"/>
-        <v>2258850.8613933828</v>
+        <v>688982.61587954685</v>
       </c>
       <c r="Z123" s="23">
         <f t="shared" si="34"/>
-        <v>2242717.4118923326</v>
+        <v>676268.40185218025</v>
       </c>
     </row>
     <row r="124" spans="1:27" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -31619,71 +31617,71 @@
       <c r="F127" s="36"/>
       <c r="G127" s="36">
         <f t="shared" ref="G127:Z127" si="35">-IF(G70&lt;&gt;0,G121/G70,0)</f>
-        <v>3.7667041310621254</v>
+        <v>1.6462682265465536</v>
       </c>
       <c r="H127" s="36">
         <f t="shared" si="35"/>
-        <v>3.7520030519521916</v>
+        <v>1.6379964315750157</v>
       </c>
       <c r="I127" s="36">
         <f t="shared" si="35"/>
-        <v>1.3119267100485104</v>
+        <v>0.95164774941757813</v>
       </c>
       <c r="J127" s="36">
         <f t="shared" si="35"/>
-        <v>1.334233493395335</v>
+        <v>0.97931784251968612</v>
       </c>
       <c r="K127" s="36">
         <f t="shared" si="35"/>
-        <v>1.3575244428642761</v>
+        <v>1.0090210089681528</v>
       </c>
       <c r="L127" s="36">
         <f t="shared" si="35"/>
-        <v>1.3818716733897765</v>
+        <v>1.0410096978539787</v>
       </c>
       <c r="M127" s="36">
         <f t="shared" si="35"/>
-        <v>1.4073547121546706</v>
+        <v>1.0755821195695083</v>
       </c>
       <c r="N127" s="36">
         <f t="shared" si="35"/>
-        <v>1.4340614814811581</v>
+        <v>1.1130932930310253</v>
       </c>
       <c r="O127" s="36">
         <f t="shared" si="35"/>
-        <v>1.4620894425281665</v>
+        <v>1.1539694697686886</v>
       </c>
       <c r="P127" s="36">
         <f t="shared" si="35"/>
-        <v>1.4915469313527423</v>
+        <v>1.1987272048195563</v>
       </c>
       <c r="Q127" s="36">
         <f t="shared" si="35"/>
-        <v>1.5225547261751511</v>
+        <v>1.2479989212292122</v>
       </c>
       <c r="R127" s="36">
         <f t="shared" si="35"/>
-        <v>1.5552478939159311</v>
+        <v>1.3025677043882757</v>
       </c>
       <c r="S127" s="36">
         <f t="shared" si="35"/>
-        <v>1.5897779758441259</v>
+        <v>1.3634154646123575</v>
       </c>
       <c r="T127" s="36">
         <f t="shared" si="35"/>
-        <v>1.6263155872920421</v>
+        <v>1.4317908722572794</v>
       </c>
       <c r="U127" s="36">
         <f t="shared" si="35"/>
-        <v>1.6650535259439616</v>
+        <v>1.5093072338013593</v>
       </c>
       <c r="V127" s="36">
         <f t="shared" si="35"/>
-        <v>1.7062105086893575</v>
+        <v>1.5980869277682002</v>
       </c>
       <c r="W127" s="36">
         <f t="shared" si="35"/>
-        <v>1.5621211731965174</v>
+        <v>1.5305259242133731</v>
       </c>
       <c r="X127" s="36">
         <f t="shared" si="35"/>
@@ -31765,7 +31763,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="16">
         <f>NPV(InputOutput!K4,Calculation!G58:Z58)</f>
-        <v>-11282763.676946266</v>
+        <v>-1742401.2797873141</v>
       </c>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
@@ -31799,7 +31797,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="16">
         <f>NPV(InputOutput!K4,Calculation!G112:Z112)</f>
-        <v>-248179.23267639763</v>
+        <v>-12435.29964128264</v>
       </c>
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
@@ -31833,7 +31831,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="16">
         <f>Calculation!C20</f>
-        <v>-28859268</v>
+        <v>-9807253</v>
       </c>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
@@ -31866,7 +31864,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="16">
         <f>NPV(InputOutput!K4,Calculation!G52:Z52)</f>
-        <v>578602709.91560435</v>
+        <v>342919667.07843584</v>
       </c>
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
@@ -31901,7 +31899,7 @@
       <c r="F134" s="95"/>
       <c r="G134" s="96">
         <f>ABS(SUM(G130:H132)/G133)</f>
-        <v>6.9806466885566479E-2</v>
+        <v>3.3716612633897157E-2</v>
       </c>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
@@ -31955,7 +31953,7 @@
       <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="10" width="9.109375" style="4"/>
     <col min="11" max="12" width="9.109375" style="4" bestFit="1" customWidth="1"/>
@@ -32033,83 +32031,83 @@
       </c>
       <c r="B26" s="8">
         <f>(InputOutput!K37)*-1</f>
-        <v>666823.25375999999</v>
+        <v>110596.49999999999</v>
       </c>
       <c r="C26" s="8">
         <f>(InputOutput!L37)*-1</f>
-        <v>680159.71883519995</v>
+        <v>116491.29344999998</v>
       </c>
       <c r="D26" s="8">
         <f>(InputOutput!M37)*-1</f>
-        <v>693762.91321190388</v>
+        <v>122700.27939088499</v>
       </c>
       <c r="E26" s="8">
         <f>(InputOutput!N37)*-1</f>
-        <v>707638.17147614202</v>
+        <v>129240.20428241914</v>
       </c>
       <c r="F26" s="8">
         <f>(InputOutput!O37)*-1</f>
-        <v>721790.93490566488</v>
+        <v>136128.70717067207</v>
       </c>
       <c r="G26" s="8">
         <f>(InputOutput!P37)*-1</f>
-        <v>736226.7536037782</v>
+        <v>143384.36726286888</v>
       </c>
       <c r="H26" s="8">
         <f>(InputOutput!Q37)*-1</f>
-        <v>750951.28867585375</v>
+        <v>151026.75403797979</v>
       </c>
       <c r="I26" s="8">
         <f>(InputOutput!R37)*-1</f>
-        <v>765970.31444937084</v>
+        <v>159076.48002820407</v>
       </c>
       <c r="J26" s="8">
         <f>(InputOutput!S37)*-1</f>
-        <v>781289.72073835833</v>
+        <v>167555.25641370734</v>
       </c>
       <c r="K26" s="8">
         <f>(InputOutput!T37)*-1</f>
-        <v>796915.51515312551</v>
+        <v>176485.95158055791</v>
       </c>
       <c r="L26" s="8">
         <f>(InputOutput!U37)*-1</f>
-        <v>812853.82545618806</v>
+        <v>185892.65279980164</v>
       </c>
       <c r="M26" s="8">
         <f>(InputOutput!V37)*-1</f>
-        <v>829110.90196531173</v>
+        <v>195800.73119403105</v>
       </c>
       <c r="N26" s="8">
         <f>(InputOutput!W37)*-1</f>
-        <v>845693.12000461796</v>
+        <v>206236.91016667287</v>
       </c>
       <c r="O26" s="8">
         <f>(InputOutput!X37)*-1</f>
-        <v>862606.98240471038</v>
+        <v>217229.3374785565</v>
       </c>
       <c r="P26" s="8">
         <f>(InputOutput!Y37)*-1</f>
-        <v>879859.12205280457</v>
+        <v>228807.66116616351</v>
       </c>
       <c r="Q26" s="8">
         <f>(InputOutput!Z37)*-1</f>
-        <v>897456.30449386069</v>
+        <v>241003.10950632003</v>
       </c>
       <c r="R26" s="8">
         <f>(InputOutput!AA37)*-1</f>
-        <v>915405.43058373802</v>
+        <v>253848.57524300687</v>
       </c>
       <c r="S26" s="8">
         <f>(InputOutput!AB37)*-1</f>
-        <v>933713.53919541277</v>
+        <v>267378.70430345909</v>
       </c>
       <c r="T26" s="8">
         <f>(InputOutput!AC37)*-1</f>
-        <v>952387.80997932097</v>
+        <v>281629.98924283346</v>
       </c>
       <c r="U26" s="8">
         <f>(InputOutput!AD37)*-1</f>
-        <v>971435.56617890752</v>
+        <v>296640.86766947649</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -32119,83 +32117,83 @@
       </c>
       <c r="B27" s="8">
         <f>(InputOutput!K38)*-1</f>
-        <v>54348.956290141723</v>
+        <v>-36533.121762753639</v>
       </c>
       <c r="C27" s="8">
         <f>(InputOutput!L38)*-1</f>
-        <v>52308.477133636196</v>
+        <v>-37317.12929160364</v>
       </c>
       <c r="D27" s="8">
         <f>(InputOutput!M38)*-1</f>
-        <v>54145.916247550442</v>
+        <v>-35403.758658841354</v>
       </c>
       <c r="E27" s="8">
         <f>(InputOutput!N38)*-1</f>
-        <v>59860.45744022201</v>
+        <v>-30795.237143615399</v>
       </c>
       <c r="F27" s="8">
         <f>(InputOutput!O38)*-1</f>
-        <v>65532.540342604989</v>
+        <v>-26233.07650195303</v>
       </c>
       <c r="G27" s="8">
         <f>(InputOutput!P38)*-1</f>
-        <v>71161.31578889364</v>
+        <v>-21719.747768415215</v>
       </c>
       <c r="H27" s="8">
         <f>(InputOutput!Q38)*-1</f>
-        <v>76745.917629966134</v>
+        <v>-17257.853683704958</v>
       </c>
       <c r="I27" s="8">
         <f>(InputOutput!R38)*-1</f>
-        <v>82285.462393717957</v>
+        <v>-12850.135714604783</v>
       </c>
       <c r="J27" s="8">
         <f>(InputOutput!S38)*-1</f>
-        <v>87779.048938602878</v>
+        <v>-8499.4814480767182</v>
       </c>
       <c r="K27" s="8">
         <f>(InputOutput!T38)*-1</f>
-        <v>93225.758100243562</v>
+        <v>-4208.9323794678494</v>
       </c>
       <c r="L27" s="8">
         <f>(InputOutput!U38)*-1</f>
-        <v>98624.652330974961</v>
+        <v>18.307884172735971</v>
       </c>
       <c r="M27" s="8">
         <f>(InputOutput!V38)*-1</f>
-        <v>103974.77533217902</v>
+        <v>4178.8649835402211</v>
       </c>
       <c r="N27" s="8">
         <f>(InputOutput!W38)*-1</f>
-        <v>109275.15167926515</v>
+        <v>8269.1847059788543</v>
       </c>
       <c r="O27" s="8">
         <f>(InputOutput!X38)*-1</f>
-        <v>114524.78643915104</v>
+        <v>12285.523399298339</v>
       </c>
       <c r="P27" s="8">
         <f>(InputOutput!Y38)*-1</f>
-        <v>119722.66478009267</v>
+        <v>16223.937874646597</v>
       </c>
       <c r="Q27" s="8">
         <f>(InputOutput!Z38)*-1</f>
-        <v>124867.75157371105</v>
+        <v>20080.274771205797</v>
       </c>
       <c r="R27" s="8">
         <f>(InputOutput!AA38)*-1</f>
-        <v>405925.74123905983</v>
+        <v>105372.94991652643</v>
       </c>
       <c r="S27" s="8">
         <f>(InputOutput!AB38)*-1</f>
-        <v>407043.32847502356</v>
+        <v>121436.84576201317</v>
       </c>
       <c r="T27" s="8">
         <f>(InputOutput!AC38)*-1</f>
-        <v>404186.16504508565</v>
+        <v>120609.020341878</v>
       </c>
       <c r="U27" s="8">
         <f>(InputOutput!AD38)*-1</f>
-        <v>401271.85834654886</v>
+        <v>118312.35594260161</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
@@ -32205,71 +32203,71 @@
       </c>
       <c r="B28" s="8">
         <f>(InputOutput!K40)*-1</f>
-        <v>768378.01049999997</v>
+        <v>617856.9389999999</v>
       </c>
       <c r="C28" s="8">
         <f>(InputOutput!L40)*-1</f>
-        <v>768378.01049999997</v>
+        <v>617856.9389999999</v>
       </c>
       <c r="D28" s="8">
         <f>(InputOutput!M40)*-1</f>
-        <v>742765.41015000001</v>
+        <v>597261.70769999991</v>
       </c>
       <c r="E28" s="8">
         <f>(InputOutput!N40)*-1</f>
-        <v>691540.20944999997</v>
+        <v>556071.24509999994</v>
       </c>
       <c r="F28" s="8">
         <f>(InputOutput!O40)*-1</f>
-        <v>640315.00875000004</v>
+        <v>514880.78249999997</v>
       </c>
       <c r="G28" s="8">
         <f>(InputOutput!P40)*-1</f>
-        <v>589089.80805000011</v>
+        <v>473690.31989999994</v>
       </c>
       <c r="H28" s="8">
         <f>(InputOutput!Q40)*-1</f>
-        <v>537864.60735000018</v>
+        <v>432499.85729999997</v>
       </c>
       <c r="I28" s="8">
         <f>(InputOutput!R40)*-1</f>
-        <v>486639.40665000014</v>
+        <v>391309.39469999995</v>
       </c>
       <c r="J28" s="8">
         <f>(InputOutput!S40)*-1</f>
-        <v>435414.20595000009</v>
+        <v>350118.93209999998</v>
       </c>
       <c r="K28" s="8">
         <f>(InputOutput!T40)*-1</f>
-        <v>384189.0052500001</v>
+        <v>308928.46949999995</v>
       </c>
       <c r="L28" s="8">
         <f>(InputOutput!U40)*-1</f>
-        <v>332963.80455000012</v>
+        <v>267738.00689999998</v>
       </c>
       <c r="M28" s="8">
         <f>(InputOutput!V40)*-1</f>
-        <v>281738.60385000007</v>
+        <v>226547.54429999998</v>
       </c>
       <c r="N28" s="8">
         <f>(InputOutput!W40)*-1</f>
-        <v>230513.40315000003</v>
+        <v>185357.08169999998</v>
       </c>
       <c r="O28" s="8">
         <f>(InputOutput!X40)*-1</f>
-        <v>179288.20245000004</v>
+        <v>144166.61909999998</v>
       </c>
       <c r="P28" s="8">
         <f>(InputOutput!Y40)*-1</f>
-        <v>128063.00175000002</v>
+        <v>102976.1565</v>
       </c>
       <c r="Q28" s="8">
         <f>(InputOutput!Z40)*-1</f>
-        <v>76837.801050000053</v>
+        <v>61785.693899999991</v>
       </c>
       <c r="R28" s="8">
         <f>(InputOutput!AA40)*-1</f>
-        <v>25612.600350000044</v>
+        <v>20595.231299999999</v>
       </c>
       <c r="S28" s="8">
         <f>(InputOutput!AB40)*-1</f>
@@ -32299,63 +32297,63 @@
       </c>
       <c r="D29" s="8">
         <f>(InputOutput!M41)*-1</f>
-        <v>1442963.4</v>
+        <v>457671.80666666664</v>
       </c>
       <c r="E29" s="8">
         <f>(InputOutput!N41)*-1</f>
-        <v>1442963.4</v>
+        <v>457671.80666666664</v>
       </c>
       <c r="F29" s="8">
         <f>(InputOutput!O41)*-1</f>
-        <v>1442963.4</v>
+        <v>457671.80666666664</v>
       </c>
       <c r="G29" s="8">
         <f>(InputOutput!P41)*-1</f>
-        <v>1442963.4</v>
+        <v>457671.80666666664</v>
       </c>
       <c r="H29" s="8">
         <f>(InputOutput!Q41)*-1</f>
-        <v>1442963.4</v>
+        <v>457671.80666666664</v>
       </c>
       <c r="I29" s="8">
         <f>(InputOutput!R41)*-1</f>
-        <v>1442963.4</v>
+        <v>457671.80666666664</v>
       </c>
       <c r="J29" s="8">
         <f>(InputOutput!S41)*-1</f>
-        <v>1442963.4</v>
+        <v>457671.80666666664</v>
       </c>
       <c r="K29" s="8">
         <f>(InputOutput!T41)*-1</f>
-        <v>1442963.4</v>
+        <v>457671.80666666664</v>
       </c>
       <c r="L29" s="8">
         <f>(InputOutput!U41)*-1</f>
-        <v>1442963.4</v>
+        <v>457671.80666666664</v>
       </c>
       <c r="M29" s="8">
         <f>(InputOutput!V41)*-1</f>
-        <v>1442963.4</v>
+        <v>457671.80666666664</v>
       </c>
       <c r="N29" s="8">
         <f>(InputOutput!W41)*-1</f>
-        <v>1442963.4</v>
+        <v>457671.80666666664</v>
       </c>
       <c r="O29" s="8">
         <f>(InputOutput!X41)*-1</f>
-        <v>1442963.4</v>
+        <v>457671.80666666664</v>
       </c>
       <c r="P29" s="8">
         <f>(InputOutput!Y41)*-1</f>
-        <v>1442963.4</v>
+        <v>457671.80666666664</v>
       </c>
       <c r="Q29" s="8">
         <f>(InputOutput!Z41)*-1</f>
-        <v>1442963.4</v>
+        <v>457671.80666666664</v>
       </c>
       <c r="R29" s="8">
         <f>(InputOutput!AA41)*-1</f>
-        <v>1442963.4</v>
+        <v>457671.80666666664</v>
       </c>
       <c r="S29" s="8">
         <f>(InputOutput!AB41)*-1</f>
@@ -32377,83 +32375,83 @@
       </c>
       <c r="B30" s="8">
         <f>InputOutput!K42</f>
-        <v>2125874.6158676473</v>
+        <v>399301.30822701205</v>
       </c>
       <c r="C30" s="8">
         <f>InputOutput!L42</f>
-        <v>2114578.6299489532</v>
+        <v>394190.52230586205</v>
       </c>
       <c r="D30" s="8">
         <f>InputOutput!M42</f>
-        <v>681787.19680833444</v>
+        <v>-51008.409634451964</v>
       </c>
       <c r="E30" s="8">
         <f>InputOutput!N42</f>
-        <v>713422.59805142554</v>
+        <v>-20966.393441212131</v>
       </c>
       <c r="F30" s="8">
         <f>InputOutput!O42</f>
-        <v>744822.95241951942</v>
+        <v>8773.4056288726861</v>
       </c>
       <c r="G30" s="8">
         <f>InputOutput!P42</f>
-        <v>775983.55897511728</v>
+        <v>38194.879403138009</v>
       </c>
       <c r="H30" s="8">
         <f>InputOutput!Q42</f>
-        <v>806899.62276196899</v>
+        <v>67281.061143316794</v>
       </c>
       <c r="I30" s="8">
         <f>InputOutput!R42</f>
-        <v>837566.2529246998</v>
+        <v>96014.079783992376</v>
       </c>
       <c r="J30" s="8">
         <f>InputOutput!S42</f>
-        <v>867978.4607908274</v>
+        <v>124375.11173196102</v>
       </c>
       <c r="K30" s="8">
         <f>InputOutput!T42</f>
-        <v>898131.15791442012</v>
+        <v>152344.33009650162</v>
       </c>
       <c r="L30" s="8">
         <f>InputOutput!U42</f>
-        <v>928019.15408062655</v>
+        <v>179900.85121361725</v>
       </c>
       <c r="M30" s="8">
         <f>InputOutput!V42</f>
-        <v>957637.15527029848</v>
+        <v>207022.67832002032</v>
       </c>
       <c r="N30" s="8">
         <f>InputOutput!W42</f>
-        <v>986979.76158390567</v>
+        <v>233686.64222493989</v>
       </c>
       <c r="O30" s="8">
         <f>InputOutput!X42</f>
-        <v>1016041.4651239277</v>
+        <v>259868.33881973685</v>
       </c>
       <c r="P30" s="8">
         <f>InputOutput!Y42</f>
-        <v>1044816.6478348924</v>
+        <v>285542.06325678143</v>
       </c>
       <c r="Q30" s="8">
         <f>InputOutput!Z42</f>
-        <v>1073299.5793002173</v>
+        <v>310680.74062006583</v>
       </c>
       <c r="R30" s="8">
         <f>InputOutput!AA42</f>
-        <v>825517.66424499126</v>
+        <v>253733.06233805825</v>
       </c>
       <c r="S30" s="4">
         <f>InputOutput!AB42</f>
-        <v>2274667.9687473532</v>
+        <v>702406.07539878599</v>
       </c>
       <c r="T30" s="4">
         <f>InputOutput!AC42</f>
-        <v>2258850.8613933828</v>
+        <v>688982.61587954685</v>
       </c>
       <c r="U30" s="4">
         <f>InputOutput!AD42</f>
-        <v>2242717.4118923326</v>
+        <v>676268.40185218025</v>
       </c>
     </row>
     <row r="34" spans="13:13" x14ac:dyDescent="0.3">
@@ -32471,11 +32469,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:V58"/>
   <sheetViews>
-    <sheetView zoomScale="44" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="12" width="14.6640625" customWidth="1"/>
     <col min="13" max="14" width="13.6640625" customWidth="1"/>
@@ -32535,7 +32533,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="109">
-        <v>4.9500000000000002E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="B6" s="109" t="s">
         <v>203</v>
@@ -32546,7 +32544,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="109">
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="B7" s="109" t="s">
         <v>203</v>
@@ -32666,83 +32664,83 @@
       <c r="B13" s="152"/>
       <c r="C13" s="109">
         <f>IF(B12&lt;$A$9,$A$7,IF(B12=$A$9,($A$10-$A$8)*$A$6+($A$8-$A$9)*$A$7,$A$6))</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D13" s="109">
         <f t="shared" ref="D13:V13" si="3">IF(C12&lt;$A$9,$A$7,IF(C12=$A$9,($A$10-$A$8)*$A$6+($A$8-$A$9)*$A$7,$A$6))</f>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E13" s="109">
         <f t="shared" si="3"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="F13" s="109">
         <f t="shared" si="3"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="G13" s="109">
         <f t="shared" si="3"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="H13" s="109">
         <f t="shared" si="3"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="I13" s="109">
         <f t="shared" si="3"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="J13" s="109">
         <f t="shared" si="3"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="K13" s="109">
         <f t="shared" si="3"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="L13" s="109">
         <f t="shared" si="3"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="M13" s="109">
         <f t="shared" si="3"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="N13" s="109">
         <f t="shared" si="3"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="O13" s="109">
         <f t="shared" si="3"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="P13" s="109">
         <f t="shared" si="3"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Q13" s="109">
         <f t="shared" si="3"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="R13" s="109">
         <f t="shared" si="3"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="S13" s="109">
         <f t="shared" si="3"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="T13" s="109">
         <f t="shared" si="3"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="U13" s="109">
         <f t="shared" si="3"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="V13" s="109">
         <f t="shared" si="3"/>
-        <v>8.8999999999999996E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -32882,11 +32880,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+    <sheetView zoomScale="60" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
@@ -32964,7 +32962,7 @@
       <c r="B10" s="97"/>
       <c r="C10" s="171">
         <f>Calculation!C20*'O&amp;M'!C9</f>
-        <v>-461748.288</v>
+        <v>-156916.04800000001</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
@@ -33508,7 +33506,7 @@
       <selection activeCell="K13" sqref="K13:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
